--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>['10', '45', '80']</t>
+  </si>
+  <si>
+    <t>['51', '90+7']</t>
   </si>
   <si>
     <t>['3', '84', '90+7']</t>
@@ -846,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1108,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1929,7 +1932,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2135,7 +2138,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2341,7 +2344,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2628,7 +2631,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2753,7 +2756,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2831,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ10">
         <v>0.25</v>
@@ -2959,7 +2962,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3371,7 +3374,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>2.75</v>
@@ -3783,7 +3786,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4195,7 +4198,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4401,7 +4404,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4688,7 +4691,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>1.05</v>
@@ -5019,7 +5022,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5225,7 +5228,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5431,7 +5434,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5637,7 +5640,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5843,7 +5846,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6255,7 +6258,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6461,7 +6464,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6667,7 +6670,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6745,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ29">
         <v>0.33</v>
@@ -6873,7 +6876,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7079,7 +7082,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>2.53</v>
@@ -7569,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ33">
         <v>0.33</v>
@@ -7697,7 +7700,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8727,7 +8730,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8808,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>1.64</v>
@@ -8933,7 +8936,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9345,7 +9348,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9757,7 +9760,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -9963,7 +9966,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>2.53</v>
@@ -10169,7 +10172,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10787,7 +10790,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11071,7 +11074,7 @@
         <v>1.67</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11199,7 +11202,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -12179,6 +12182,212 @@
         <v>0</v>
       </c>
       <c r="BP55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7818869</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45765.79166666666</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s">
+        <v>79</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>128</v>
+      </c>
+      <c r="P56" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q56">
+        <v>2.63</v>
+      </c>
+      <c r="R56">
+        <v>2.38</v>
+      </c>
+      <c r="S56">
+        <v>3.5</v>
+      </c>
+      <c r="T56">
+        <v>1.29</v>
+      </c>
+      <c r="U56">
+        <v>3.5</v>
+      </c>
+      <c r="V56">
+        <v>2.38</v>
+      </c>
+      <c r="W56">
+        <v>1.53</v>
+      </c>
+      <c r="X56">
+        <v>5.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.14</v>
+      </c>
+      <c r="Z56">
+        <v>2.1</v>
+      </c>
+      <c r="AA56">
+        <v>3.25</v>
+      </c>
+      <c r="AB56">
+        <v>3.3</v>
+      </c>
+      <c r="AC56">
+        <v>1.04</v>
+      </c>
+      <c r="AD56">
+        <v>9</v>
+      </c>
+      <c r="AE56">
+        <v>1.18</v>
+      </c>
+      <c r="AF56">
+        <v>4.5</v>
+      </c>
+      <c r="AG56">
+        <v>1.55</v>
+      </c>
+      <c r="AH56">
+        <v>2.25</v>
+      </c>
+      <c r="AI56">
+        <v>1.5</v>
+      </c>
+      <c r="AJ56">
+        <v>2.5</v>
+      </c>
+      <c r="AK56">
+        <v>1.3</v>
+      </c>
+      <c r="AL56">
+        <v>1.28</v>
+      </c>
+      <c r="AM56">
+        <v>1.67</v>
+      </c>
+      <c r="AN56">
+        <v>2.5</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>2.6</v>
+      </c>
+      <c r="AQ56">
+        <v>0.75</v>
+      </c>
+      <c r="AR56">
+        <v>1.6</v>
+      </c>
+      <c r="AS56">
+        <v>1.42</v>
+      </c>
+      <c r="AT56">
+        <v>3.02</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>8</v>
+      </c>
+      <c r="AW56">
+        <v>14</v>
+      </c>
+      <c r="AX56">
+        <v>9</v>
+      </c>
+      <c r="AY56">
+        <v>23</v>
+      </c>
+      <c r="AZ56">
+        <v>18</v>
+      </c>
+      <c r="BA56">
+        <v>2</v>
+      </c>
+      <c r="BB56">
+        <v>4</v>
+      </c>
+      <c r="BC56">
+        <v>6</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,15 @@
     <t>['51', '90+7']</t>
   </si>
   <si>
+    <t>['88', '90+5']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -421,9 +430,6 @@
     <t>['42', '83', '88']</t>
   </si>
   <si>
-    <t>['65']</t>
-  </si>
-  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -478,9 +484,6 @@
     <t>['81']</t>
   </si>
   <si>
-    <t>['7']</t>
-  </si>
-  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -488,6 +491,9 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1114,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1189,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1395,7 +1401,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1598,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.25</v>
@@ -1932,7 +1938,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2138,7 +2144,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2344,7 +2350,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2756,7 +2762,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2962,7 +2968,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3043,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3374,7 +3380,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>2.75</v>
@@ -3455,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3658,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ14">
         <v>0.25</v>
@@ -3786,7 +3792,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4073,7 +4079,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR16">
         <v>3.44</v>
@@ -4198,7 +4204,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4404,7 +4410,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4485,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.84</v>
@@ -5022,7 +5028,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5228,7 +5234,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5306,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -5434,7 +5440,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5512,7 +5518,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5640,7 +5646,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5846,7 +5852,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6258,7 +6264,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6464,7 +6470,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6545,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>1.27</v>
@@ -6670,7 +6676,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6751,7 +6757,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>1.73</v>
@@ -6876,7 +6882,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -6957,7 +6963,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.85</v>
@@ -7082,7 +7088,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>2.53</v>
@@ -7160,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.25</v>
@@ -7700,7 +7706,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -7984,10 +7990,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>2.29</v>
@@ -8193,7 +8199,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR36">
         <v>1.55</v>
@@ -8730,7 +8736,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8936,7 +8942,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9017,7 +9023,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>2.12</v>
@@ -9220,7 +9226,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
         <v>0.33</v>
@@ -9348,7 +9354,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9760,7 +9766,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -9838,10 +9844,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR44">
         <v>2.49</v>
@@ -9966,7 +9972,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="Q45">
         <v>2.53</v>
@@ -10044,7 +10050,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
         <v>0.25</v>
@@ -10172,7 +10178,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10459,7 +10465,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -10790,7 +10796,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11202,7 +11208,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11489,7 +11495,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR52">
         <v>1.77</v>
@@ -12389,6 +12395,1036 @@
       </c>
       <c r="BP56">
         <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7818864</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45766.66666666666</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>86</v>
+      </c>
+      <c r="P57" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q57">
+        <v>2.5</v>
+      </c>
+      <c r="R57">
+        <v>2.2</v>
+      </c>
+      <c r="S57">
+        <v>4.33</v>
+      </c>
+      <c r="T57">
+        <v>1.36</v>
+      </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57">
+        <v>2.75</v>
+      </c>
+      <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57">
+        <v>8</v>
+      </c>
+      <c r="Y57">
+        <v>1.08</v>
+      </c>
+      <c r="Z57">
+        <v>1.9</v>
+      </c>
+      <c r="AA57">
+        <v>3.3</v>
+      </c>
+      <c r="AB57">
+        <v>4</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE57">
+        <v>1.21</v>
+      </c>
+      <c r="AF57">
+        <v>3.6</v>
+      </c>
+      <c r="AG57">
+        <v>1.85</v>
+      </c>
+      <c r="AH57">
+        <v>1.95</v>
+      </c>
+      <c r="AI57">
+        <v>1.73</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>1.25</v>
+      </c>
+      <c r="AL57">
+        <v>1.3</v>
+      </c>
+      <c r="AM57">
+        <v>1.83</v>
+      </c>
+      <c r="AN57">
+        <v>3</v>
+      </c>
+      <c r="AO57">
+        <v>0.33</v>
+      </c>
+      <c r="AP57">
+        <v>2.25</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1.34</v>
+      </c>
+      <c r="AS57">
+        <v>1.41</v>
+      </c>
+      <c r="AT57">
+        <v>2.75</v>
+      </c>
+      <c r="AU57">
+        <v>4</v>
+      </c>
+      <c r="AV57">
+        <v>6</v>
+      </c>
+      <c r="AW57">
+        <v>13</v>
+      </c>
+      <c r="AX57">
+        <v>3</v>
+      </c>
+      <c r="AY57">
+        <v>18</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>5</v>
+      </c>
+      <c r="BB57">
+        <v>1</v>
+      </c>
+      <c r="BC57">
+        <v>6</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>2.02</v>
+      </c>
+      <c r="BL57">
+        <v>1.66</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7818868</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45766.77083333334</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>129</v>
+      </c>
+      <c r="P58" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q58">
+        <v>2.25</v>
+      </c>
+      <c r="R58">
+        <v>2.25</v>
+      </c>
+      <c r="S58">
+        <v>5</v>
+      </c>
+      <c r="T58">
+        <v>1.36</v>
+      </c>
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
+        <v>2.75</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58">
+        <v>7</v>
+      </c>
+      <c r="Y58">
+        <v>1.1</v>
+      </c>
+      <c r="Z58">
+        <v>1.59</v>
+      </c>
+      <c r="AA58">
+        <v>3.79</v>
+      </c>
+      <c r="AB58">
+        <v>4.6</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>11</v>
+      </c>
+      <c r="AE58">
+        <v>1.2</v>
+      </c>
+      <c r="AF58">
+        <v>4</v>
+      </c>
+      <c r="AG58">
+        <v>1.84</v>
+      </c>
+      <c r="AH58">
+        <v>1.83</v>
+      </c>
+      <c r="AI58">
+        <v>1.83</v>
+      </c>
+      <c r="AJ58">
+        <v>1.83</v>
+      </c>
+      <c r="AK58">
+        <v>1.12</v>
+      </c>
+      <c r="AL58">
+        <v>1.2</v>
+      </c>
+      <c r="AM58">
+        <v>2.55</v>
+      </c>
+      <c r="AN58">
+        <v>3</v>
+      </c>
+      <c r="AO58">
+        <v>0.33</v>
+      </c>
+      <c r="AP58">
+        <v>3</v>
+      </c>
+      <c r="AQ58">
+        <v>0.25</v>
+      </c>
+      <c r="AR58">
+        <v>1.42</v>
+      </c>
+      <c r="AS58">
+        <v>1.71</v>
+      </c>
+      <c r="AT58">
+        <v>3.13</v>
+      </c>
+      <c r="AU58">
+        <v>7</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>12</v>
+      </c>
+      <c r="AX58">
+        <v>5</v>
+      </c>
+      <c r="AY58">
+        <v>24</v>
+      </c>
+      <c r="AZ58">
+        <v>12</v>
+      </c>
+      <c r="BA58">
+        <v>8</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>13</v>
+      </c>
+      <c r="BD58">
+        <v>0</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BK58">
+        <v>0</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7818867</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45767.5625</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>130</v>
+      </c>
+      <c r="P59" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q59">
+        <v>2.63</v>
+      </c>
+      <c r="R59">
+        <v>2.1</v>
+      </c>
+      <c r="S59">
+        <v>4.33</v>
+      </c>
+      <c r="T59">
+        <v>1.44</v>
+      </c>
+      <c r="U59">
+        <v>2.63</v>
+      </c>
+      <c r="V59">
+        <v>3.25</v>
+      </c>
+      <c r="W59">
+        <v>1.33</v>
+      </c>
+      <c r="X59">
+        <v>9</v>
+      </c>
+      <c r="Y59">
+        <v>1.07</v>
+      </c>
+      <c r="Z59">
+        <v>1.93</v>
+      </c>
+      <c r="AA59">
+        <v>3.22</v>
+      </c>
+      <c r="AB59">
+        <v>3.56</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>8</v>
+      </c>
+      <c r="AE59">
+        <v>1.33</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
+      </c>
+      <c r="AG59">
+        <v>2.08</v>
+      </c>
+      <c r="AH59">
+        <v>1.73</v>
+      </c>
+      <c r="AI59">
+        <v>1.83</v>
+      </c>
+      <c r="AJ59">
+        <v>1.83</v>
+      </c>
+      <c r="AK59">
+        <v>1.25</v>
+      </c>
+      <c r="AL59">
+        <v>1.33</v>
+      </c>
+      <c r="AM59">
+        <v>1.83</v>
+      </c>
+      <c r="AN59">
+        <v>1.33</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>1.25</v>
+      </c>
+      <c r="AQ59">
+        <v>0.25</v>
+      </c>
+      <c r="AR59">
+        <v>1.93</v>
+      </c>
+      <c r="AS59">
+        <v>1.13</v>
+      </c>
+      <c r="AT59">
+        <v>3.06</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>8</v>
+      </c>
+      <c r="AX59">
+        <v>7</v>
+      </c>
+      <c r="AY59">
+        <v>19</v>
+      </c>
+      <c r="AZ59">
+        <v>14</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>7</v>
+      </c>
+      <c r="BC59">
+        <v>11</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7818870</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45767.66666666666</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>131</v>
+      </c>
+      <c r="P60" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q60">
+        <v>3</v>
+      </c>
+      <c r="R60">
+        <v>2.2</v>
+      </c>
+      <c r="S60">
+        <v>3.5</v>
+      </c>
+      <c r="T60">
+        <v>1.4</v>
+      </c>
+      <c r="U60">
+        <v>2.75</v>
+      </c>
+      <c r="V60">
+        <v>2.75</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60">
+        <v>8</v>
+      </c>
+      <c r="Y60">
+        <v>1.08</v>
+      </c>
+      <c r="Z60">
+        <v>2.25</v>
+      </c>
+      <c r="AA60">
+        <v>3.21</v>
+      </c>
+      <c r="AB60">
+        <v>2.82</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.3</v>
+      </c>
+      <c r="AF60">
+        <v>3.2</v>
+      </c>
+      <c r="AG60">
+        <v>1.84</v>
+      </c>
+      <c r="AH60">
+        <v>1.83</v>
+      </c>
+      <c r="AI60">
+        <v>1.67</v>
+      </c>
+      <c r="AJ60">
+        <v>2.1</v>
+      </c>
+      <c r="AK60">
+        <v>1.44</v>
+      </c>
+      <c r="AL60">
+        <v>1.35</v>
+      </c>
+      <c r="AM60">
+        <v>1.5</v>
+      </c>
+      <c r="AN60">
+        <v>1.67</v>
+      </c>
+      <c r="AO60">
+        <v>2.33</v>
+      </c>
+      <c r="AP60">
+        <v>2</v>
+      </c>
+      <c r="AQ60">
+        <v>1.75</v>
+      </c>
+      <c r="AR60">
+        <v>2.23</v>
+      </c>
+      <c r="AS60">
+        <v>1.73</v>
+      </c>
+      <c r="AT60">
+        <v>3.96</v>
+      </c>
+      <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>10</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>18</v>
+      </c>
+      <c r="AZ60">
+        <v>11</v>
+      </c>
+      <c r="BA60">
+        <v>4</v>
+      </c>
+      <c r="BB60">
+        <v>8</v>
+      </c>
+      <c r="BC60">
+        <v>12</v>
+      </c>
+      <c r="BD60">
+        <v>1.66</v>
+      </c>
+      <c r="BE60">
+        <v>6.55</v>
+      </c>
+      <c r="BF60">
+        <v>2.85</v>
+      </c>
+      <c r="BG60">
+        <v>1.27</v>
+      </c>
+      <c r="BH60">
+        <v>3.14</v>
+      </c>
+      <c r="BI60">
+        <v>1.52</v>
+      </c>
+      <c r="BJ60">
+        <v>2.3</v>
+      </c>
+      <c r="BK60">
+        <v>1.91</v>
+      </c>
+      <c r="BL60">
+        <v>1.8</v>
+      </c>
+      <c r="BM60">
+        <v>2.5</v>
+      </c>
+      <c r="BN60">
+        <v>1.44</v>
+      </c>
+      <c r="BO60">
+        <v>3.34</v>
+      </c>
+      <c r="BP60">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7818866</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45767.875</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>86</v>
+      </c>
+      <c r="P61" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q61">
+        <v>3.4</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>3.5</v>
+      </c>
+      <c r="T61">
+        <v>1.5</v>
+      </c>
+      <c r="U61">
+        <v>2.5</v>
+      </c>
+      <c r="V61">
+        <v>3.4</v>
+      </c>
+      <c r="W61">
+        <v>1.3</v>
+      </c>
+      <c r="X61">
+        <v>10</v>
+      </c>
+      <c r="Y61">
+        <v>1.06</v>
+      </c>
+      <c r="Z61">
+        <v>2.49</v>
+      </c>
+      <c r="AA61">
+        <v>3.07</v>
+      </c>
+      <c r="AB61">
+        <v>2.62</v>
+      </c>
+      <c r="AC61">
+        <v>1.03</v>
+      </c>
+      <c r="AD61">
+        <v>9.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.38</v>
+      </c>
+      <c r="AF61">
+        <v>2.97</v>
+      </c>
+      <c r="AG61">
+        <v>2.2</v>
+      </c>
+      <c r="AH61">
+        <v>1.65</v>
+      </c>
+      <c r="AI61">
+        <v>1.91</v>
+      </c>
+      <c r="AJ61">
+        <v>1.8</v>
+      </c>
+      <c r="AK61">
+        <v>1.48</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.45</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>2.33</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
+      <c r="AQ61">
+        <v>2</v>
+      </c>
+      <c r="AR61">
+        <v>1.9</v>
+      </c>
+      <c r="AS61">
+        <v>1.72</v>
+      </c>
+      <c r="AT61">
+        <v>3.62</v>
+      </c>
+      <c r="AU61">
+        <v>3</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>9</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>17</v>
+      </c>
+      <c r="AZ61">
+        <v>14</v>
+      </c>
+      <c r="BA61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
+        <v>1</v>
+      </c>
+      <c r="BC61">
+        <v>4</v>
+      </c>
+      <c r="BD61">
+        <v>1.99</v>
+      </c>
+      <c r="BE61">
+        <v>6.3</v>
+      </c>
+      <c r="BF61">
+        <v>2.25</v>
+      </c>
+      <c r="BG61">
+        <v>1.27</v>
+      </c>
+      <c r="BH61">
+        <v>3.14</v>
+      </c>
+      <c r="BI61">
+        <v>1.52</v>
+      </c>
+      <c r="BJ61">
+        <v>2.3</v>
+      </c>
+      <c r="BK61">
+        <v>1.91</v>
+      </c>
+      <c r="BL61">
+        <v>1.8</v>
+      </c>
+      <c r="BM61">
+        <v>2.5</v>
+      </c>
+      <c r="BN61">
+        <v>1.44</v>
+      </c>
+      <c r="BO61">
+        <v>3.34</v>
+      </c>
+      <c r="BP61">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -410,6 +410,15 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['48', '90+2']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['13', '33', '45', '56', '79', '87']</t>
   </si>
   <si>
     <t>['3', '84', '90+7']</t>
@@ -855,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1123,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1938,7 +1947,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2144,7 +2153,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2225,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2350,7 +2359,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2431,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2634,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ9">
         <v>0.75</v>
@@ -2762,7 +2771,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2968,7 +2977,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3458,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>0.25</v>
@@ -3667,7 +3676,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3792,7 +3801,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3873,7 +3882,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4204,7 +4213,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4410,7 +4419,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -5028,7 +5037,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5109,7 +5118,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR21">
         <v>1.92</v>
@@ -5234,7 +5243,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5440,7 +5449,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5646,7 +5655,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5852,7 +5861,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5930,7 +5939,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6136,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ26">
         <v>1.25</v>
@@ -6264,7 +6273,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6342,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -6470,7 +6479,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6676,7 +6685,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6882,7 +6891,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7088,7 +7097,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>2.53</v>
@@ -7169,7 +7178,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -7375,7 +7384,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR32">
         <v>1.71</v>
@@ -7706,7 +7715,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8736,7 +8745,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8942,7 +8951,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9354,7 +9363,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9638,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>0.25</v>
@@ -9766,7 +9775,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10053,7 +10062,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR45">
         <v>1.28</v>
@@ -10178,7 +10187,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10259,7 +10268,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
         <v>2.2</v>
@@ -10462,7 +10471,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10796,7 +10805,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11208,7 +11217,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11289,7 +11298,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ51">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR51">
         <v>1.51</v>
@@ -12113,7 +12122,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR55">
         <v>2.44</v>
@@ -12444,7 +12453,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12650,7 +12659,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12856,7 +12865,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13346,7 +13355,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ61">
         <v>2</v>
@@ -13425,6 +13434,624 @@
       </c>
       <c r="BP61">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7818998</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45772.79166666666</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>132</v>
+      </c>
+      <c r="P62" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q62">
+        <v>2.37</v>
+      </c>
+      <c r="R62">
+        <v>2.15</v>
+      </c>
+      <c r="S62">
+        <v>4.2</v>
+      </c>
+      <c r="T62">
+        <v>1.37</v>
+      </c>
+      <c r="U62">
+        <v>2.85</v>
+      </c>
+      <c r="V62">
+        <v>2.7</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62">
+        <v>6.75</v>
+      </c>
+      <c r="Y62">
+        <v>1.09</v>
+      </c>
+      <c r="Z62">
+        <v>1.82</v>
+      </c>
+      <c r="AA62">
+        <v>3.6</v>
+      </c>
+      <c r="AB62">
+        <v>4</v>
+      </c>
+      <c r="AC62">
+        <v>1.05</v>
+      </c>
+      <c r="AD62">
+        <v>9.25</v>
+      </c>
+      <c r="AE62">
+        <v>1.29</v>
+      </c>
+      <c r="AF62">
+        <v>3.25</v>
+      </c>
+      <c r="AG62">
+        <v>1.88</v>
+      </c>
+      <c r="AH62">
+        <v>1.8</v>
+      </c>
+      <c r="AI62">
+        <v>1.82</v>
+      </c>
+      <c r="AJ62">
+        <v>1.85</v>
+      </c>
+      <c r="AK62">
+        <v>1.23</v>
+      </c>
+      <c r="AL62">
+        <v>1.27</v>
+      </c>
+      <c r="AM62">
+        <v>1.93</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>0.25</v>
+      </c>
+      <c r="AP62">
+        <v>1.4</v>
+      </c>
+      <c r="AQ62">
+        <v>0.2</v>
+      </c>
+      <c r="AR62">
+        <v>1.77</v>
+      </c>
+      <c r="AS62">
+        <v>1.21</v>
+      </c>
+      <c r="AT62">
+        <v>2.98</v>
+      </c>
+      <c r="AU62">
+        <v>4</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>12</v>
+      </c>
+      <c r="AX62">
+        <v>8</v>
+      </c>
+      <c r="AY62">
+        <v>20</v>
+      </c>
+      <c r="AZ62">
+        <v>14</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>4</v>
+      </c>
+      <c r="BC62">
+        <v>7</v>
+      </c>
+      <c r="BD62">
+        <v>1.56</v>
+      </c>
+      <c r="BE62">
+        <v>6.75</v>
+      </c>
+      <c r="BF62">
+        <v>2.7</v>
+      </c>
+      <c r="BG62">
+        <v>1.33</v>
+      </c>
+      <c r="BH62">
+        <v>2.9</v>
+      </c>
+      <c r="BI62">
+        <v>1.57</v>
+      </c>
+      <c r="BJ62">
+        <v>2.17</v>
+      </c>
+      <c r="BK62">
+        <v>1.92</v>
+      </c>
+      <c r="BL62">
+        <v>1.73</v>
+      </c>
+      <c r="BM62">
+        <v>2.45</v>
+      </c>
+      <c r="BN62">
+        <v>1.44</v>
+      </c>
+      <c r="BO62">
+        <v>3.2</v>
+      </c>
+      <c r="BP62">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7818876</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45772.79166666666</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>133</v>
+      </c>
+      <c r="P63" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q63">
+        <v>2.85</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>3.7</v>
+      </c>
+      <c r="T63">
+        <v>1.44</v>
+      </c>
+      <c r="U63">
+        <v>2.55</v>
+      </c>
+      <c r="V63">
+        <v>2.95</v>
+      </c>
+      <c r="W63">
+        <v>1.34</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <v>1.07</v>
+      </c>
+      <c r="Z63">
+        <v>2.13</v>
+      </c>
+      <c r="AA63">
+        <v>3.01</v>
+      </c>
+      <c r="AB63">
+        <v>3.06</v>
+      </c>
+      <c r="AC63">
+        <v>1.07</v>
+      </c>
+      <c r="AD63">
+        <v>7.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.36</v>
+      </c>
+      <c r="AF63">
+        <v>2.95</v>
+      </c>
+      <c r="AG63">
+        <v>2.1</v>
+      </c>
+      <c r="AH63">
+        <v>1.67</v>
+      </c>
+      <c r="AI63">
+        <v>1.85</v>
+      </c>
+      <c r="AJ63">
+        <v>1.83</v>
+      </c>
+      <c r="AK63">
+        <v>1.33</v>
+      </c>
+      <c r="AL63">
+        <v>1.33</v>
+      </c>
+      <c r="AM63">
+        <v>1.62</v>
+      </c>
+      <c r="AN63">
+        <v>2.5</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AP63">
+        <v>2.6</v>
+      </c>
+      <c r="AQ63">
+        <v>0.75</v>
+      </c>
+      <c r="AR63">
+        <v>1.63</v>
+      </c>
+      <c r="AS63">
+        <v>1.09</v>
+      </c>
+      <c r="AT63">
+        <v>2.72</v>
+      </c>
+      <c r="AU63">
+        <v>3</v>
+      </c>
+      <c r="AV63">
+        <v>4</v>
+      </c>
+      <c r="AW63">
+        <v>6</v>
+      </c>
+      <c r="AX63">
+        <v>8</v>
+      </c>
+      <c r="AY63">
+        <v>10</v>
+      </c>
+      <c r="AZ63">
+        <v>19</v>
+      </c>
+      <c r="BA63">
+        <v>3</v>
+      </c>
+      <c r="BB63">
+        <v>4</v>
+      </c>
+      <c r="BC63">
+        <v>7</v>
+      </c>
+      <c r="BD63">
+        <v>1.73</v>
+      </c>
+      <c r="BE63">
+        <v>6.4</v>
+      </c>
+      <c r="BF63">
+        <v>2.33</v>
+      </c>
+      <c r="BG63">
+        <v>1.33</v>
+      </c>
+      <c r="BH63">
+        <v>2.88</v>
+      </c>
+      <c r="BI63">
+        <v>1.57</v>
+      </c>
+      <c r="BJ63">
+        <v>2.16</v>
+      </c>
+      <c r="BK63">
+        <v>1.92</v>
+      </c>
+      <c r="BL63">
+        <v>1.73</v>
+      </c>
+      <c r="BM63">
+        <v>2.5</v>
+      </c>
+      <c r="BN63">
+        <v>1.43</v>
+      </c>
+      <c r="BO63">
+        <v>3.2</v>
+      </c>
+      <c r="BP63">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7818874</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45772.89583333334</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>6</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>6</v>
+      </c>
+      <c r="O64" t="s">
+        <v>134</v>
+      </c>
+      <c r="P64" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q64">
+        <v>2.54</v>
+      </c>
+      <c r="R64">
+        <v>2.08</v>
+      </c>
+      <c r="S64">
+        <v>4.33</v>
+      </c>
+      <c r="T64">
+        <v>1.41</v>
+      </c>
+      <c r="U64">
+        <v>2.69</v>
+      </c>
+      <c r="V64">
+        <v>2.89</v>
+      </c>
+      <c r="W64">
+        <v>1.36</v>
+      </c>
+      <c r="X64">
+        <v>6.85</v>
+      </c>
+      <c r="Y64">
+        <v>1.04</v>
+      </c>
+      <c r="Z64">
+        <v>1.95</v>
+      </c>
+      <c r="AA64">
+        <v>3.22</v>
+      </c>
+      <c r="AB64">
+        <v>3.5</v>
+      </c>
+      <c r="AC64">
+        <v>1.02</v>
+      </c>
+      <c r="AD64">
+        <v>8.1</v>
+      </c>
+      <c r="AE64">
+        <v>1.28</v>
+      </c>
+      <c r="AF64">
+        <v>3.08</v>
+      </c>
+      <c r="AG64">
+        <v>2.05</v>
+      </c>
+      <c r="AH64">
+        <v>1.79</v>
+      </c>
+      <c r="AI64">
+        <v>1.82</v>
+      </c>
+      <c r="AJ64">
+        <v>1.88</v>
+      </c>
+      <c r="AK64">
+        <v>1.26</v>
+      </c>
+      <c r="AL64">
+        <v>1.3</v>
+      </c>
+      <c r="AM64">
+        <v>1.8</v>
+      </c>
+      <c r="AN64">
+        <v>3</v>
+      </c>
+      <c r="AO64">
+        <v>0.25</v>
+      </c>
+      <c r="AP64">
+        <v>3</v>
+      </c>
+      <c r="AQ64">
+        <v>0.2</v>
+      </c>
+      <c r="AR64">
+        <v>1.63</v>
+      </c>
+      <c r="AS64">
+        <v>1.32</v>
+      </c>
+      <c r="AT64">
+        <v>2.95</v>
+      </c>
+      <c r="AU64">
+        <v>9</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>6</v>
+      </c>
+      <c r="AY64">
+        <v>18</v>
+      </c>
+      <c r="AZ64">
+        <v>11</v>
+      </c>
+      <c r="BA64">
+        <v>8</v>
+      </c>
+      <c r="BB64">
+        <v>5</v>
+      </c>
+      <c r="BC64">
+        <v>13</v>
+      </c>
+      <c r="BD64">
+        <v>1.58</v>
+      </c>
+      <c r="BE64">
+        <v>6.75</v>
+      </c>
+      <c r="BF64">
+        <v>2.63</v>
+      </c>
+      <c r="BG64">
+        <v>1.3</v>
+      </c>
+      <c r="BH64">
+        <v>3.05</v>
+      </c>
+      <c r="BI64">
+        <v>1.5</v>
+      </c>
+      <c r="BJ64">
+        <v>2.3</v>
+      </c>
+      <c r="BK64">
+        <v>1.83</v>
+      </c>
+      <c r="BL64">
+        <v>1.82</v>
+      </c>
+      <c r="BM64">
+        <v>2.28</v>
+      </c>
+      <c r="BN64">
+        <v>1.52</v>
+      </c>
+      <c r="BO64">
+        <v>2.95</v>
+      </c>
+      <c r="BP64">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,12 @@
     <t>['13', '33', '45', '56', '79', '87']</t>
   </si>
   <si>
+    <t>['6', '23', '59']</t>
+  </si>
+  <si>
+    <t>['13', '43']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -503,6 +509,9 @@
   </si>
   <si>
     <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['86']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1132,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1204,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1947,7 +1956,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2153,7 +2162,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2359,7 +2368,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2771,7 +2780,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2977,7 +2986,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3470,7 +3479,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3801,7 +3810,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3879,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ15">
         <v>0.2</v>
@@ -4213,7 +4222,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4291,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4419,7 +4428,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4500,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR18">
         <v>1.84</v>
@@ -5037,7 +5046,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5243,7 +5252,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5449,7 +5458,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5655,7 +5664,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5733,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ24">
         <v>0.33</v>
@@ -5861,7 +5870,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6273,7 +6282,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6479,7 +6488,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6685,7 +6694,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6766,7 +6775,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR29">
         <v>1.73</v>
@@ -6891,7 +6900,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7097,7 +7106,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>2.53</v>
@@ -7381,7 +7390,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>0.2</v>
@@ -7715,7 +7724,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8002,7 +8011,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR35">
         <v>2.29</v>
@@ -8411,7 +8420,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -8745,7 +8754,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8951,7 +8960,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9029,7 +9038,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
         <v>1.75</v>
@@ -9363,7 +9372,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9775,7 +9784,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -9856,7 +9865,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR44">
         <v>2.49</v>
@@ -10187,7 +10196,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10805,7 +10814,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -10883,7 +10892,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11217,7 +11226,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -12453,7 +12462,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12659,7 +12668,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12740,7 +12749,7 @@
         <v>3</v>
       </c>
       <c r="AQ58">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -12865,7 +12874,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13358,7 +13367,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR61">
         <v>1.9</v>
@@ -14052,6 +14061,418 @@
       </c>
       <c r="BP64">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7818875</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45773.66666666666</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>135</v>
+      </c>
+      <c r="P65" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q65">
+        <v>2.2</v>
+      </c>
+      <c r="R65">
+        <v>2.3</v>
+      </c>
+      <c r="S65">
+        <v>4.8</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>2.7</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>1.08</v>
+      </c>
+      <c r="Z65">
+        <v>1.58</v>
+      </c>
+      <c r="AA65">
+        <v>3.57</v>
+      </c>
+      <c r="AB65">
+        <v>4.59</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>9.85</v>
+      </c>
+      <c r="AE65">
+        <v>1.23</v>
+      </c>
+      <c r="AF65">
+        <v>3.44</v>
+      </c>
+      <c r="AG65">
+        <v>1.76</v>
+      </c>
+      <c r="AH65">
+        <v>1.84</v>
+      </c>
+      <c r="AI65">
+        <v>1.8</v>
+      </c>
+      <c r="AJ65">
+        <v>1.91</v>
+      </c>
+      <c r="AK65">
+        <v>1.18</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>2.15</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>0.25</v>
+      </c>
+      <c r="AP65">
+        <v>2.2</v>
+      </c>
+      <c r="AQ65">
+        <v>0.2</v>
+      </c>
+      <c r="AR65">
+        <v>1.71</v>
+      </c>
+      <c r="AS65">
+        <v>1.58</v>
+      </c>
+      <c r="AT65">
+        <v>3.29</v>
+      </c>
+      <c r="AU65">
+        <v>10</v>
+      </c>
+      <c r="AV65">
+        <v>8</v>
+      </c>
+      <c r="AW65">
+        <v>4</v>
+      </c>
+      <c r="AX65">
+        <v>8</v>
+      </c>
+      <c r="AY65">
+        <v>15</v>
+      </c>
+      <c r="AZ65">
+        <v>18</v>
+      </c>
+      <c r="BA65">
+        <v>7</v>
+      </c>
+      <c r="BB65">
+        <v>10</v>
+      </c>
+      <c r="BC65">
+        <v>17</v>
+      </c>
+      <c r="BD65">
+        <v>1.49</v>
+      </c>
+      <c r="BE65">
+        <v>6.75</v>
+      </c>
+      <c r="BF65">
+        <v>2.95</v>
+      </c>
+      <c r="BG65">
+        <v>1.37</v>
+      </c>
+      <c r="BH65">
+        <v>2.7</v>
+      </c>
+      <c r="BI65">
+        <v>1.63</v>
+      </c>
+      <c r="BJ65">
+        <v>2.07</v>
+      </c>
+      <c r="BK65">
+        <v>2.02</v>
+      </c>
+      <c r="BL65">
+        <v>1.65</v>
+      </c>
+      <c r="BM65">
+        <v>2.6</v>
+      </c>
+      <c r="BN65">
+        <v>1.4</v>
+      </c>
+      <c r="BO65">
+        <v>3.4</v>
+      </c>
+      <c r="BP65">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7818873</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45773.70833333334</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s">
+        <v>80</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>136</v>
+      </c>
+      <c r="P66" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q66">
+        <v>2.18</v>
+      </c>
+      <c r="R66">
+        <v>2.1</v>
+      </c>
+      <c r="S66">
+        <v>5.9</v>
+      </c>
+      <c r="T66">
+        <v>1.4</v>
+      </c>
+      <c r="U66">
+        <v>2.73</v>
+      </c>
+      <c r="V66">
+        <v>3.04</v>
+      </c>
+      <c r="W66">
+        <v>1.33</v>
+      </c>
+      <c r="X66">
+        <v>8.6</v>
+      </c>
+      <c r="Y66">
+        <v>1.01</v>
+      </c>
+      <c r="Z66">
+        <v>1.59</v>
+      </c>
+      <c r="AA66">
+        <v>3.64</v>
+      </c>
+      <c r="AB66">
+        <v>4.83</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE66">
+        <v>1.29</v>
+      </c>
+      <c r="AF66">
+        <v>3.04</v>
+      </c>
+      <c r="AG66">
+        <v>2.08</v>
+      </c>
+      <c r="AH66">
+        <v>1.72</v>
+      </c>
+      <c r="AI66">
+        <v>2.04</v>
+      </c>
+      <c r="AJ66">
+        <v>1.69</v>
+      </c>
+      <c r="AK66">
+        <v>1.13</v>
+      </c>
+      <c r="AL66">
+        <v>1.25</v>
+      </c>
+      <c r="AM66">
+        <v>2.26</v>
+      </c>
+      <c r="AN66">
+        <v>1.33</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>1.75</v>
+      </c>
+      <c r="AQ66">
+        <v>1.6</v>
+      </c>
+      <c r="AR66">
+        <v>2.18</v>
+      </c>
+      <c r="AS66">
+        <v>1.66</v>
+      </c>
+      <c r="AT66">
+        <v>3.84</v>
+      </c>
+      <c r="AU66">
+        <v>4</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <v>6</v>
+      </c>
+      <c r="AX66">
+        <v>7</v>
+      </c>
+      <c r="AY66">
+        <v>11</v>
+      </c>
+      <c r="AZ66">
+        <v>8</v>
+      </c>
+      <c r="BA66">
+        <v>1</v>
+      </c>
+      <c r="BB66">
+        <v>4</v>
+      </c>
+      <c r="BC66">
+        <v>5</v>
+      </c>
+      <c r="BD66">
+        <v>1.38</v>
+      </c>
+      <c r="BE66">
+        <v>7</v>
+      </c>
+      <c r="BF66">
+        <v>3.4</v>
+      </c>
+      <c r="BG66">
+        <v>1.41</v>
+      </c>
+      <c r="BH66">
+        <v>2.55</v>
+      </c>
+      <c r="BI66">
+        <v>1.71</v>
+      </c>
+      <c r="BJ66">
+        <v>1.94</v>
+      </c>
+      <c r="BK66">
+        <v>2.14</v>
+      </c>
+      <c r="BL66">
+        <v>1.58</v>
+      </c>
+      <c r="BM66">
+        <v>2.8</v>
+      </c>
+      <c r="BN66">
+        <v>1.35</v>
+      </c>
+      <c r="BO66">
+        <v>3.7</v>
+      </c>
+      <c r="BP66">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14077,7 +14077,7 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45773.66666666666</v>
+        <v>45773.625</v>
       </c>
       <c r="F65">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,9 @@
     <t>['13', '43']</t>
   </si>
   <si>
+    <t>['18', '39']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
   </si>
   <si>
     <t>['86']</t>
+  </si>
+  <si>
+    <t>['58', '73']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1622,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ4">
         <v>1.25</v>
@@ -1956,7 +1962,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2162,7 +2168,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2368,7 +2374,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2780,7 +2786,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2861,7 +2867,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ10">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2986,7 +2992,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3810,7 +3816,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4222,7 +4228,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4428,7 +4434,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4921,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR20">
         <v>1.33</v>
@@ -5046,7 +5052,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5252,7 +5258,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5458,7 +5464,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5664,7 +5670,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5870,7 +5876,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6282,7 +6288,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6488,7 +6494,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6694,7 +6700,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6900,7 +6906,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7106,7 +7112,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>2.53</v>
@@ -7184,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
         <v>0.2</v>
@@ -7724,7 +7730,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8754,7 +8760,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8960,7 +8966,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9372,7 +9378,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9659,7 +9665,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR43">
         <v>1.91</v>
@@ -9784,7 +9790,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -9862,7 +9868,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ44">
         <v>0.2</v>
@@ -10196,7 +10202,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10814,7 +10820,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11226,7 +11232,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11925,7 +11931,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR54">
         <v>1.28</v>
@@ -12462,7 +12468,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12668,7 +12674,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12874,7 +12880,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13158,7 +13164,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
         <v>1.75</v>
@@ -14110,7 +14116,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14473,6 +14479,212 @@
       </c>
       <c r="BP66">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7818872</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45774.5625</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>137</v>
+      </c>
+      <c r="P67" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q67">
+        <v>2.5</v>
+      </c>
+      <c r="R67">
+        <v>2.3</v>
+      </c>
+      <c r="S67">
+        <v>3.7</v>
+      </c>
+      <c r="T67">
+        <v>1.3</v>
+      </c>
+      <c r="U67">
+        <v>3.3</v>
+      </c>
+      <c r="V67">
+        <v>2.45</v>
+      </c>
+      <c r="W67">
+        <v>1.5</v>
+      </c>
+      <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>1.11</v>
+      </c>
+      <c r="Z67">
+        <v>1.95</v>
+      </c>
+      <c r="AA67">
+        <v>3.4</v>
+      </c>
+      <c r="AB67">
+        <v>3.6</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <v>1.17</v>
+      </c>
+      <c r="AF67">
+        <v>3.96</v>
+      </c>
+      <c r="AG67">
+        <v>1.7</v>
+      </c>
+      <c r="AH67">
+        <v>2.11</v>
+      </c>
+      <c r="AI67">
+        <v>1.62</v>
+      </c>
+      <c r="AJ67">
+        <v>2.25</v>
+      </c>
+      <c r="AK67">
+        <v>1.29</v>
+      </c>
+      <c r="AL67">
+        <v>1.3</v>
+      </c>
+      <c r="AM67">
+        <v>1.8</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
+      <c r="AO67">
+        <v>0.25</v>
+      </c>
+      <c r="AP67">
+        <v>1.8</v>
+      </c>
+      <c r="AQ67">
+        <v>0.4</v>
+      </c>
+      <c r="AR67">
+        <v>2.15</v>
+      </c>
+      <c r="AS67">
+        <v>1.44</v>
+      </c>
+      <c r="AT67">
+        <v>3.59</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>5</v>
+      </c>
+      <c r="AW67">
+        <v>9</v>
+      </c>
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>14</v>
+      </c>
+      <c r="AZ67">
+        <v>14</v>
+      </c>
+      <c r="BA67">
+        <v>2</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>4</v>
+      </c>
+      <c r="BD67">
+        <v>1.72</v>
+      </c>
+      <c r="BE67">
+        <v>6.4</v>
+      </c>
+      <c r="BF67">
+        <v>2.4</v>
+      </c>
+      <c r="BG67">
+        <v>1.27</v>
+      </c>
+      <c r="BH67">
+        <v>3.2</v>
+      </c>
+      <c r="BI67">
+        <v>1.48</v>
+      </c>
+      <c r="BJ67">
+        <v>2.35</v>
+      </c>
+      <c r="BK67">
+        <v>1.8</v>
+      </c>
+      <c r="BL67">
+        <v>1.85</v>
+      </c>
+      <c r="BM67">
+        <v>2.25</v>
+      </c>
+      <c r="BN67">
+        <v>1.53</v>
+      </c>
+      <c r="BO67">
+        <v>2.9</v>
+      </c>
+      <c r="BP67">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,12 @@
     <t>['18', '39']</t>
   </si>
   <si>
+    <t>['69', '90+8']</t>
+  </si>
+  <si>
+    <t>['20', '32']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -518,6 +524,12 @@
   </si>
   <si>
     <t>['58', '73']</t>
+  </si>
+  <si>
+    <t>['13', '65', '90']</t>
+  </si>
+  <si>
+    <t>['45+6']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,7 +1150,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1422,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1962,7 +1974,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2168,7 +2180,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2374,7 +2386,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2661,7 +2673,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2786,7 +2798,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2992,7 +3004,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3688,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ14">
         <v>0.2</v>
@@ -3816,7 +3828,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4228,7 +4240,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4434,7 +4446,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4721,7 +4733,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR19">
         <v>1.05</v>
@@ -5052,7 +5064,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5130,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
         <v>0.75</v>
@@ -5258,7 +5270,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5464,7 +5476,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5542,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5670,7 +5682,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5751,7 +5763,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.82</v>
@@ -5876,7 +5888,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6288,7 +6300,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6494,7 +6506,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6700,7 +6712,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6906,7 +6918,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7112,7 +7124,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>2.53</v>
@@ -7605,7 +7617,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ33">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.64</v>
@@ -7730,7 +7742,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8632,7 +8644,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -8760,7 +8772,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8841,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR39">
         <v>1.64</v>
@@ -8966,7 +8978,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9253,7 +9265,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>2.17</v>
@@ -9378,7 +9390,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9790,7 +9802,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10074,7 +10086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ45">
         <v>0.2</v>
@@ -10202,7 +10214,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10820,7 +10832,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11232,7 +11244,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11516,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ52">
         <v>0.25</v>
@@ -12343,7 +12355,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -12468,7 +12480,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12546,7 +12558,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12674,7 +12686,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12880,7 +12892,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -14116,7 +14128,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14528,7 +14540,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14685,6 +14697,418 @@
       </c>
       <c r="BP67">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7818871</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45774.66666666666</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>5</v>
+      </c>
+      <c r="O68" t="s">
+        <v>138</v>
+      </c>
+      <c r="P68" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>2.25</v>
+      </c>
+      <c r="S68">
+        <v>2.5</v>
+      </c>
+      <c r="T68">
+        <v>1.35</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="V68">
+        <v>2.7</v>
+      </c>
+      <c r="W68">
+        <v>1.44</v>
+      </c>
+      <c r="X68">
+        <v>7</v>
+      </c>
+      <c r="Y68">
+        <v>1.1</v>
+      </c>
+      <c r="Z68">
+        <v>3.75</v>
+      </c>
+      <c r="AA68">
+        <v>3.4</v>
+      </c>
+      <c r="AB68">
+        <v>1.91</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>9</v>
+      </c>
+      <c r="AE68">
+        <v>1.22</v>
+      </c>
+      <c r="AF68">
+        <v>3.52</v>
+      </c>
+      <c r="AG68">
+        <v>1.87</v>
+      </c>
+      <c r="AH68">
+        <v>1.9</v>
+      </c>
+      <c r="AI68">
+        <v>1.75</v>
+      </c>
+      <c r="AJ68">
+        <v>2</v>
+      </c>
+      <c r="AK68">
+        <v>1.83</v>
+      </c>
+      <c r="AL68">
+        <v>1.3</v>
+      </c>
+      <c r="AM68">
+        <v>1.25</v>
+      </c>
+      <c r="AN68">
+        <v>2.25</v>
+      </c>
+      <c r="AO68">
+        <v>0.33</v>
+      </c>
+      <c r="AP68">
+        <v>1.8</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1.78</v>
+      </c>
+      <c r="AS68">
+        <v>1.77</v>
+      </c>
+      <c r="AT68">
+        <v>3.55</v>
+      </c>
+      <c r="AU68">
+        <v>6</v>
+      </c>
+      <c r="AV68">
+        <v>6</v>
+      </c>
+      <c r="AW68">
+        <v>10</v>
+      </c>
+      <c r="AX68">
+        <v>11</v>
+      </c>
+      <c r="AY68">
+        <v>18</v>
+      </c>
+      <c r="AZ68">
+        <v>18</v>
+      </c>
+      <c r="BA68">
+        <v>4</v>
+      </c>
+      <c r="BB68">
+        <v>5</v>
+      </c>
+      <c r="BC68">
+        <v>9</v>
+      </c>
+      <c r="BD68">
+        <v>2.8</v>
+      </c>
+      <c r="BE68">
+        <v>6.75</v>
+      </c>
+      <c r="BF68">
+        <v>1.53</v>
+      </c>
+      <c r="BG68">
+        <v>1.34</v>
+      </c>
+      <c r="BH68">
+        <v>2.85</v>
+      </c>
+      <c r="BI68">
+        <v>1.58</v>
+      </c>
+      <c r="BJ68">
+        <v>2.12</v>
+      </c>
+      <c r="BK68">
+        <v>1.97</v>
+      </c>
+      <c r="BL68">
+        <v>1.7</v>
+      </c>
+      <c r="BM68">
+        <v>2.5</v>
+      </c>
+      <c r="BN68">
+        <v>1.43</v>
+      </c>
+      <c r="BO68">
+        <v>3.3</v>
+      </c>
+      <c r="BP68">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7818877</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45774.77083333334</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>139</v>
+      </c>
+      <c r="P69" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q69">
+        <v>2.9</v>
+      </c>
+      <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>3.3</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
+        <v>1.4</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>2.31</v>
+      </c>
+      <c r="AA69">
+        <v>3.35</v>
+      </c>
+      <c r="AB69">
+        <v>3</v>
+      </c>
+      <c r="AC69">
+        <v>1.03</v>
+      </c>
+      <c r="AD69">
+        <v>9</v>
+      </c>
+      <c r="AE69">
+        <v>1.22</v>
+      </c>
+      <c r="AF69">
+        <v>3.52</v>
+      </c>
+      <c r="AG69">
+        <v>1.86</v>
+      </c>
+      <c r="AH69">
+        <v>1.91</v>
+      </c>
+      <c r="AI69">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69">
+        <v>2.1</v>
+      </c>
+      <c r="AK69">
+        <v>1.4</v>
+      </c>
+      <c r="AL69">
+        <v>1.3</v>
+      </c>
+      <c r="AM69">
+        <v>1.57</v>
+      </c>
+      <c r="AN69">
+        <v>2.25</v>
+      </c>
+      <c r="AO69">
+        <v>0.75</v>
+      </c>
+      <c r="AP69">
+        <v>2.4</v>
+      </c>
+      <c r="AQ69">
+        <v>0.6</v>
+      </c>
+      <c r="AR69">
+        <v>1.45</v>
+      </c>
+      <c r="AS69">
+        <v>1.55</v>
+      </c>
+      <c r="AT69">
+        <v>3</v>
+      </c>
+      <c r="AU69">
+        <v>5</v>
+      </c>
+      <c r="AV69">
+        <v>9</v>
+      </c>
+      <c r="AW69">
+        <v>5</v>
+      </c>
+      <c r="AX69">
+        <v>10</v>
+      </c>
+      <c r="AY69">
+        <v>10</v>
+      </c>
+      <c r="AZ69">
+        <v>24</v>
+      </c>
+      <c r="BA69">
+        <v>4</v>
+      </c>
+      <c r="BB69">
+        <v>10</v>
+      </c>
+      <c r="BC69">
+        <v>14</v>
+      </c>
+      <c r="BD69">
+        <v>1.76</v>
+      </c>
+      <c r="BE69">
+        <v>6.25</v>
+      </c>
+      <c r="BF69">
+        <v>2.3</v>
+      </c>
+      <c r="BG69">
+        <v>1.4</v>
+      </c>
+      <c r="BH69">
+        <v>2.6</v>
+      </c>
+      <c r="BI69">
+        <v>1.68</v>
+      </c>
+      <c r="BJ69">
+        <v>1.98</v>
+      </c>
+      <c r="BK69">
+        <v>2.1</v>
+      </c>
+      <c r="BL69">
+        <v>1.6</v>
+      </c>
+      <c r="BM69">
+        <v>2.7</v>
+      </c>
+      <c r="BN69">
+        <v>1.37</v>
+      </c>
+      <c r="BO69">
+        <v>3.65</v>
+      </c>
+      <c r="BP69">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>['20', '32']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
   <si>
     <t>['3', '84', '90+7']</t>
@@ -891,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1153,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1437,7 +1440,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1974,7 +1977,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2055,7 +2058,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2180,7 +2183,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2258,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>0.2</v>
@@ -2386,7 +2389,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2798,7 +2801,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3004,7 +3007,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3082,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
         <v>1.75</v>
@@ -3828,7 +3831,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4240,7 +4243,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4446,7 +4449,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4524,7 +4527,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
         <v>1.6</v>
@@ -5064,7 +5067,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5270,7 +5273,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5476,7 +5479,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5557,7 +5560,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.43</v>
@@ -5682,7 +5685,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5888,7 +5891,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6300,7 +6303,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6506,7 +6509,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6712,7 +6715,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6918,7 +6921,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -6999,7 +7002,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>1.85</v>
@@ -7124,7 +7127,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>2.53</v>
@@ -7742,7 +7745,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -7820,7 +7823,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8772,7 +8775,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8978,7 +8981,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9390,7 +9393,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9468,7 +9471,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ42">
         <v>1.25</v>
@@ -9802,7 +9805,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10214,7 +10217,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10501,7 +10504,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -10832,7 +10835,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11244,7 +11247,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11734,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ53">
         <v>0.75</v>
@@ -11940,7 +11943,7 @@
         <v>0.33</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
         <v>0.4</v>
@@ -12480,7 +12483,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12561,7 +12564,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.34</v>
@@ -12686,7 +12689,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12892,7 +12895,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -14128,7 +14131,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14540,7 +14543,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14746,7 +14749,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14952,7 +14955,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15109,6 +15112,418 @@
       </c>
       <c r="BP69">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7818879</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45779.70833333334</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>140</v>
+      </c>
+      <c r="P70" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q70">
+        <v>6</v>
+      </c>
+      <c r="R70">
+        <v>2.25</v>
+      </c>
+      <c r="S70">
+        <v>2.1</v>
+      </c>
+      <c r="T70">
+        <v>1.36</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>2.75</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>7</v>
+      </c>
+      <c r="Y70">
+        <v>1.1</v>
+      </c>
+      <c r="Z70">
+        <v>5.25</v>
+      </c>
+      <c r="AA70">
+        <v>3.9</v>
+      </c>
+      <c r="AB70">
+        <v>1.53</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>2.1</v>
+      </c>
+      <c r="AF70">
+        <v>1.6</v>
+      </c>
+      <c r="AG70">
+        <v>1.95</v>
+      </c>
+      <c r="AH70">
+        <v>1.85</v>
+      </c>
+      <c r="AI70">
+        <v>2</v>
+      </c>
+      <c r="AJ70">
+        <v>1.73</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
+        <v>1.5</v>
+      </c>
+      <c r="AP70">
+        <v>1.4</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>1.55</v>
+      </c>
+      <c r="AS70">
+        <v>1.93</v>
+      </c>
+      <c r="AT70">
+        <v>3.48</v>
+      </c>
+      <c r="AU70">
+        <v>6</v>
+      </c>
+      <c r="AV70">
+        <v>4</v>
+      </c>
+      <c r="AW70">
+        <v>5</v>
+      </c>
+      <c r="AX70">
+        <v>15</v>
+      </c>
+      <c r="AY70">
+        <v>12</v>
+      </c>
+      <c r="AZ70">
+        <v>22</v>
+      </c>
+      <c r="BA70">
+        <v>5</v>
+      </c>
+      <c r="BB70">
+        <v>6</v>
+      </c>
+      <c r="BC70">
+        <v>11</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7818881</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45779.89583333334</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>86</v>
+      </c>
+      <c r="P71" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q71">
+        <v>2.38</v>
+      </c>
+      <c r="R71">
+        <v>2.38</v>
+      </c>
+      <c r="S71">
+        <v>4.5</v>
+      </c>
+      <c r="T71">
+        <v>1.3</v>
+      </c>
+      <c r="U71">
+        <v>3.4</v>
+      </c>
+      <c r="V71">
+        <v>2.5</v>
+      </c>
+      <c r="W71">
+        <v>1.5</v>
+      </c>
+      <c r="X71">
+        <v>6</v>
+      </c>
+      <c r="Y71">
+        <v>1.13</v>
+      </c>
+      <c r="Z71">
+        <v>1.75</v>
+      </c>
+      <c r="AA71">
+        <v>3.5</v>
+      </c>
+      <c r="AB71">
+        <v>4.1</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>1.7</v>
+      </c>
+      <c r="AH71">
+        <v>2.1</v>
+      </c>
+      <c r="AI71">
+        <v>1.67</v>
+      </c>
+      <c r="AJ71">
+        <v>2.1</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>0.75</v>
+      </c>
+      <c r="AQ71">
+        <v>1.4</v>
+      </c>
+      <c r="AR71">
+        <v>1.48</v>
+      </c>
+      <c r="AS71">
+        <v>1.36</v>
+      </c>
+      <c r="AT71">
+        <v>2.84</v>
+      </c>
+      <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
+        <v>8</v>
+      </c>
+      <c r="AW71">
+        <v>20</v>
+      </c>
+      <c r="AX71">
+        <v>14</v>
+      </c>
+      <c r="AY71">
+        <v>33</v>
+      </c>
+      <c r="AZ71">
+        <v>26</v>
+      </c>
+      <c r="BA71">
+        <v>8</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>13</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,12 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['52', '75']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -493,9 +499,6 @@
     <t>['76']</t>
   </si>
   <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
     <t>['61', '66', '89']</t>
   </si>
   <si>
@@ -533,6 +536,9 @@
   </si>
   <si>
     <t>['45+6']</t>
+  </si>
+  <si>
+    <t>['11', '23']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,7 +1159,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1977,7 +1983,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2183,7 +2189,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2389,7 +2395,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2801,7 +2807,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3007,7 +3013,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3088,7 +3094,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3291,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3831,7 +3837,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4243,7 +4249,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4324,7 +4330,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4449,7 +4455,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -5067,7 +5073,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5273,7 +5279,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5351,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -5479,7 +5485,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5685,7 +5691,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5891,7 +5897,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5972,7 +5978,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.33</v>
@@ -6303,7 +6309,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6384,7 +6390,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>2.18</v>
@@ -6509,7 +6515,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6590,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.27</v>
@@ -6715,7 +6721,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6921,7 +6927,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -6999,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7127,7 +7133,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>2.53</v>
@@ -7745,7 +7751,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8029,7 +8035,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>1.6</v>
@@ -8444,7 +8450,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>2</v>
@@ -8775,7 +8781,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8981,7 +8987,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9062,7 +9068,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>2.12</v>
@@ -9265,7 +9271,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9393,7 +9399,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9474,7 +9480,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.33</v>
@@ -9805,7 +9811,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10217,7 +10223,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10295,7 +10301,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ46">
         <v>0.75</v>
@@ -10707,7 +10713,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ48">
         <v>1.25</v>
@@ -10835,7 +10841,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -10916,7 +10922,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11122,7 +11128,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.54</v>
@@ -11247,7 +11253,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -12483,7 +12489,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12689,7 +12695,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12895,7 +12901,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -12973,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>0.25</v>
@@ -13182,7 +13188,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>2.23</v>
@@ -14131,7 +14137,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14543,7 +14549,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14749,7 +14755,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14955,7 +14961,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15367,7 +15373,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15523,6 +15529,624 @@
         <v>0</v>
       </c>
       <c r="BP71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7818884</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45780.5625</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>85</v>
+      </c>
+      <c r="H72" t="s">
+        <v>71</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>141</v>
+      </c>
+      <c r="P72" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q72">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>2.2</v>
+      </c>
+      <c r="S72">
+        <v>3.4</v>
+      </c>
+      <c r="T72">
+        <v>1.36</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="V72">
+        <v>2.75</v>
+      </c>
+      <c r="W72">
+        <v>1.4</v>
+      </c>
+      <c r="X72">
+        <v>7</v>
+      </c>
+      <c r="Y72">
+        <v>1.1</v>
+      </c>
+      <c r="Z72">
+        <v>2.4</v>
+      </c>
+      <c r="AA72">
+        <v>3.25</v>
+      </c>
+      <c r="AB72">
+        <v>2.8</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>1.9</v>
+      </c>
+      <c r="AH72">
+        <v>1.9</v>
+      </c>
+      <c r="AI72">
+        <v>1.67</v>
+      </c>
+      <c r="AJ72">
+        <v>2.1</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1.25</v>
+      </c>
+      <c r="AO72">
+        <v>1.75</v>
+      </c>
+      <c r="AP72">
+        <v>1</v>
+      </c>
+      <c r="AQ72">
+        <v>2</v>
+      </c>
+      <c r="AR72">
+        <v>1.83</v>
+      </c>
+      <c r="AS72">
+        <v>1.58</v>
+      </c>
+      <c r="AT72">
+        <v>3.41</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>7</v>
+      </c>
+      <c r="AW72">
+        <v>6</v>
+      </c>
+      <c r="AX72">
+        <v>6</v>
+      </c>
+      <c r="AY72">
+        <v>13</v>
+      </c>
+      <c r="AZ72">
+        <v>16</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>8</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7818880</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45780.70833333334</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>105</v>
+      </c>
+      <c r="P73" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q73">
+        <v>2.1</v>
+      </c>
+      <c r="R73">
+        <v>2.38</v>
+      </c>
+      <c r="S73">
+        <v>5.5</v>
+      </c>
+      <c r="T73">
+        <v>1.33</v>
+      </c>
+      <c r="U73">
+        <v>3.25</v>
+      </c>
+      <c r="V73">
+        <v>2.63</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>6.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.11</v>
+      </c>
+      <c r="Z73">
+        <v>1.55</v>
+      </c>
+      <c r="AA73">
+        <v>4</v>
+      </c>
+      <c r="AB73">
+        <v>5.5</v>
+      </c>
+      <c r="AC73">
+        <v>6</v>
+      </c>
+      <c r="AD73">
+        <v>1.07</v>
+      </c>
+      <c r="AE73">
+        <v>1.65</v>
+      </c>
+      <c r="AF73">
+        <v>2.1</v>
+      </c>
+      <c r="AG73">
+        <v>1.8</v>
+      </c>
+      <c r="AH73">
+        <v>2</v>
+      </c>
+      <c r="AI73">
+        <v>1.83</v>
+      </c>
+      <c r="AJ73">
+        <v>1.83</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>3</v>
+      </c>
+      <c r="AO73">
+        <v>1.25</v>
+      </c>
+      <c r="AP73">
+        <v>3</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>2.35</v>
+      </c>
+      <c r="AS73">
+        <v>1.28</v>
+      </c>
+      <c r="AT73">
+        <v>3.63</v>
+      </c>
+      <c r="AU73">
+        <v>3</v>
+      </c>
+      <c r="AV73">
+        <v>2</v>
+      </c>
+      <c r="AW73">
+        <v>14</v>
+      </c>
+      <c r="AX73">
+        <v>6</v>
+      </c>
+      <c r="AY73">
+        <v>24</v>
+      </c>
+      <c r="AZ73">
+        <v>9</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>5</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7818885</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45780.8125</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>142</v>
+      </c>
+      <c r="P74" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q74">
+        <v>2.6</v>
+      </c>
+      <c r="R74">
+        <v>2.1</v>
+      </c>
+      <c r="S74">
+        <v>4.5</v>
+      </c>
+      <c r="T74">
+        <v>1.44</v>
+      </c>
+      <c r="U74">
+        <v>2.63</v>
+      </c>
+      <c r="V74">
+        <v>3.25</v>
+      </c>
+      <c r="W74">
+        <v>1.33</v>
+      </c>
+      <c r="X74">
+        <v>9</v>
+      </c>
+      <c r="Y74">
+        <v>1.07</v>
+      </c>
+      <c r="Z74">
+        <v>2.02</v>
+      </c>
+      <c r="AA74">
+        <v>3.14</v>
+      </c>
+      <c r="AB74">
+        <v>4.1</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>2.1</v>
+      </c>
+      <c r="AH74">
+        <v>1.7</v>
+      </c>
+      <c r="AI74">
+        <v>1.91</v>
+      </c>
+      <c r="AJ74">
+        <v>1.8</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>1.25</v>
+      </c>
+      <c r="AP74">
+        <v>2.2</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1.93</v>
+      </c>
+      <c r="AS74">
+        <v>1.85</v>
+      </c>
+      <c r="AT74">
+        <v>3.78</v>
+      </c>
+      <c r="AU74">
+        <v>7</v>
+      </c>
+      <c r="AV74">
+        <v>2</v>
+      </c>
+      <c r="AW74">
+        <v>6</v>
+      </c>
+      <c r="AX74">
+        <v>7</v>
+      </c>
+      <c r="AY74">
+        <v>14</v>
+      </c>
+      <c r="AZ74">
+        <v>10</v>
+      </c>
+      <c r="BA74">
+        <v>9</v>
+      </c>
+      <c r="BB74">
+        <v>1</v>
+      </c>
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,15 @@
     <t>['52', '75']</t>
   </si>
   <si>
+    <t>['14', '77', '84']</t>
+  </si>
+  <si>
+    <t>['21', '90+6']</t>
+  </si>
+  <si>
+    <t>['90+10']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -539,6 +548,9 @@
   </si>
   <si>
     <t>['11', '23']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
 </sst>
 </file>
@@ -900,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1171,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1237,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2">
         <v>1.6</v>
@@ -1652,7 +1664,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1983,7 +1995,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2189,7 +2201,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2395,7 +2407,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2807,7 +2819,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2885,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ10">
         <v>0.4</v>
@@ -3013,7 +3025,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3503,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>0.2</v>
@@ -3837,7 +3849,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3918,7 +3930,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ15">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4124,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR16">
         <v>3.44</v>
@@ -4249,7 +4261,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4455,7 +4467,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -5073,7 +5085,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5279,7 +5291,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5485,7 +5497,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5691,7 +5703,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5897,7 +5909,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6184,7 +6196,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6309,7 +6321,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6387,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6515,7 +6527,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6593,7 +6605,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ28">
         <v>2</v>
@@ -6721,7 +6733,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6799,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ29">
         <v>0.2</v>
@@ -6927,7 +6939,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7214,7 +7226,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -7623,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7751,7 +7763,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -7832,7 +7844,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.52</v>
@@ -8244,7 +8256,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR36">
         <v>1.55</v>
@@ -8781,7 +8793,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8859,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ39">
         <v>0.6</v>
@@ -8987,7 +8999,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9399,7 +9411,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9683,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>0.4</v>
@@ -9811,7 +9823,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10098,7 +10110,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ45">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR45">
         <v>1.28</v>
@@ -10223,7 +10235,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10716,7 +10728,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>2</v>
@@ -10841,7 +10853,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11125,7 +11137,7 @@
         <v>1.67</v>
       </c>
       <c r="AP50">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11253,7 +11265,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11540,7 +11552,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ52">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR52">
         <v>1.77</v>
@@ -12158,7 +12170,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR55">
         <v>2.44</v>
@@ -12361,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ56">
         <v>0.6</v>
@@ -12489,7 +12501,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12695,7 +12707,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12901,7 +12913,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -12982,7 +12994,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR59">
         <v>1.93</v>
@@ -13391,7 +13403,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
         <v>1.6</v>
@@ -13597,10 +13609,10 @@
         <v>0.25</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR62">
         <v>1.77</v>
@@ -14137,7 +14149,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14549,7 +14561,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14755,7 +14767,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14961,7 +14973,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15579,7 +15591,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16147,6 +16159,624 @@
         <v>0</v>
       </c>
       <c r="BP74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7818886</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45781.66666666666</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" t="s">
+        <v>82</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>143</v>
+      </c>
+      <c r="P75" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q75">
+        <v>2.75</v>
+      </c>
+      <c r="R75">
+        <v>2.3</v>
+      </c>
+      <c r="S75">
+        <v>3.6</v>
+      </c>
+      <c r="T75">
+        <v>1.33</v>
+      </c>
+      <c r="U75">
+        <v>3.25</v>
+      </c>
+      <c r="V75">
+        <v>2.63</v>
+      </c>
+      <c r="W75">
+        <v>1.44</v>
+      </c>
+      <c r="X75">
+        <v>6.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.11</v>
+      </c>
+      <c r="Z75">
+        <v>2.15</v>
+      </c>
+      <c r="AA75">
+        <v>3.4</v>
+      </c>
+      <c r="AB75">
+        <v>3.2</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>1.75</v>
+      </c>
+      <c r="AH75">
+        <v>2.05</v>
+      </c>
+      <c r="AI75">
+        <v>1.62</v>
+      </c>
+      <c r="AJ75">
+        <v>2.2</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>1.25</v>
+      </c>
+      <c r="AP75">
+        <v>0.75</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1.77</v>
+      </c>
+      <c r="AS75">
+        <v>1.14</v>
+      </c>
+      <c r="AT75">
+        <v>2.91</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>9</v>
+      </c>
+      <c r="AX75">
+        <v>9</v>
+      </c>
+      <c r="AY75">
+        <v>15</v>
+      </c>
+      <c r="AZ75">
+        <v>15</v>
+      </c>
+      <c r="BA75">
+        <v>2</v>
+      </c>
+      <c r="BB75">
+        <v>1</v>
+      </c>
+      <c r="BC75">
+        <v>3</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7818882</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45781.77083333334</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>144</v>
+      </c>
+      <c r="P76" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q76">
+        <v>2.3</v>
+      </c>
+      <c r="R76">
+        <v>2.2</v>
+      </c>
+      <c r="S76">
+        <v>5</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>2.75</v>
+      </c>
+      <c r="W76">
+        <v>1.4</v>
+      </c>
+      <c r="X76">
+        <v>8</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>1.73</v>
+      </c>
+      <c r="AA76">
+        <v>3.7</v>
+      </c>
+      <c r="AB76">
+        <v>4.75</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>2</v>
+      </c>
+      <c r="AH76">
+        <v>1.8</v>
+      </c>
+      <c r="AI76">
+        <v>1.91</v>
+      </c>
+      <c r="AJ76">
+        <v>1.8</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>2.6</v>
+      </c>
+      <c r="AO76">
+        <v>0.2</v>
+      </c>
+      <c r="AP76">
+        <v>2.67</v>
+      </c>
+      <c r="AQ76">
+        <v>0.17</v>
+      </c>
+      <c r="AR76">
+        <v>1.65</v>
+      </c>
+      <c r="AS76">
+        <v>1.2</v>
+      </c>
+      <c r="AT76">
+        <v>2.85</v>
+      </c>
+      <c r="AU76">
+        <v>8</v>
+      </c>
+      <c r="AV76">
+        <v>7</v>
+      </c>
+      <c r="AW76">
+        <v>12</v>
+      </c>
+      <c r="AX76">
+        <v>8</v>
+      </c>
+      <c r="AY76">
+        <v>26</v>
+      </c>
+      <c r="AZ76">
+        <v>20</v>
+      </c>
+      <c r="BA76">
+        <v>8</v>
+      </c>
+      <c r="BB76">
+        <v>5</v>
+      </c>
+      <c r="BC76">
+        <v>13</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7818883</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45781.875</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>145</v>
+      </c>
+      <c r="P77" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q77">
+        <v>2.75</v>
+      </c>
+      <c r="R77">
+        <v>2.05</v>
+      </c>
+      <c r="S77">
+        <v>4.33</v>
+      </c>
+      <c r="T77">
+        <v>1.5</v>
+      </c>
+      <c r="U77">
+        <v>2.5</v>
+      </c>
+      <c r="V77">
+        <v>3.4</v>
+      </c>
+      <c r="W77">
+        <v>1.3</v>
+      </c>
+      <c r="X77">
+        <v>10</v>
+      </c>
+      <c r="Y77">
+        <v>1.06</v>
+      </c>
+      <c r="Z77">
+        <v>2.05</v>
+      </c>
+      <c r="AA77">
+        <v>3.2</v>
+      </c>
+      <c r="AB77">
+        <v>3.6</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>1.75</v>
+      </c>
+      <c r="AF77">
+        <v>1.9</v>
+      </c>
+      <c r="AG77">
+        <v>2.3</v>
+      </c>
+      <c r="AH77">
+        <v>1.6</v>
+      </c>
+      <c r="AI77">
+        <v>2</v>
+      </c>
+      <c r="AJ77">
+        <v>1.73</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1.4</v>
+      </c>
+      <c r="AO77">
+        <v>0.25</v>
+      </c>
+      <c r="AP77">
+        <v>1.33</v>
+      </c>
+      <c r="AQ77">
+        <v>0.4</v>
+      </c>
+      <c r="AR77">
+        <v>1.74</v>
+      </c>
+      <c r="AS77">
+        <v>1.15</v>
+      </c>
+      <c r="AT77">
+        <v>2.89</v>
+      </c>
+      <c r="AU77">
+        <v>7</v>
+      </c>
+      <c r="AV77">
+        <v>5</v>
+      </c>
+      <c r="AW77">
+        <v>12</v>
+      </c>
+      <c r="AX77">
+        <v>5</v>
+      </c>
+      <c r="AY77">
+        <v>23</v>
+      </c>
+      <c r="AZ77">
+        <v>12</v>
+      </c>
+      <c r="BA77">
+        <v>6</v>
+      </c>
+      <c r="BB77">
+        <v>2</v>
+      </c>
+      <c r="BC77">
+        <v>8</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>0</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -8339,7 +8339,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7818844</v>
+        <v>7818845</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8354,43 +8354,43 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O37" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="P37" t="s">
         <v>86</v>
       </c>
       <c r="Q37">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R37">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S37">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="T37">
         <v>1.36</v>
@@ -8411,13 +8411,13 @@
         <v>1.1</v>
       </c>
       <c r="Z37">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="AA37">
-        <v>3.29</v>
+        <v>3.48</v>
       </c>
       <c r="AB37">
-        <v>2.81</v>
+        <v>3.81</v>
       </c>
       <c r="AC37">
         <v>1.02</v>
@@ -8432,82 +8432,82 @@
         <v>3.6</v>
       </c>
       <c r="AG37">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AH37">
+        <v>1.87</v>
+      </c>
+      <c r="AI37">
+        <v>1.8</v>
+      </c>
+      <c r="AJ37">
         <v>1.91</v>
       </c>
-      <c r="AI37">
-        <v>1.67</v>
-      </c>
-      <c r="AJ37">
-        <v>2.1</v>
-      </c>
       <c r="AK37">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AL37">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AM37">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="AN37">
+        <v>1.5</v>
+      </c>
+      <c r="AO37">
+        <v>1.5</v>
+      </c>
+      <c r="AP37">
+        <v>1.8</v>
+      </c>
+      <c r="AQ37">
+        <v>0.75</v>
+      </c>
+      <c r="AR37">
+        <v>1.78</v>
+      </c>
+      <c r="AS37">
+        <v>0.85</v>
+      </c>
+      <c r="AT37">
+        <v>2.63</v>
+      </c>
+      <c r="AU37">
+        <v>7</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>6</v>
+      </c>
+      <c r="AX37">
+        <v>4</v>
+      </c>
+      <c r="AY37">
+        <v>14</v>
+      </c>
+      <c r="AZ37">
+        <v>9</v>
+      </c>
+      <c r="BA37">
+        <v>5</v>
+      </c>
+      <c r="BB37">
         <v>3</v>
       </c>
-      <c r="AO37">
-        <v>2</v>
-      </c>
-      <c r="AP37">
-        <v>2.2</v>
-      </c>
-      <c r="AQ37">
-        <v>1</v>
-      </c>
-      <c r="AR37">
-        <v>2</v>
-      </c>
-      <c r="AS37">
-        <v>1.38</v>
-      </c>
-      <c r="AT37">
-        <v>3.38</v>
-      </c>
-      <c r="AU37">
-        <v>3</v>
-      </c>
-      <c r="AV37">
-        <v>6</v>
-      </c>
-      <c r="AW37">
-        <v>7</v>
-      </c>
-      <c r="AX37">
-        <v>17</v>
-      </c>
-      <c r="AY37">
-        <v>12</v>
-      </c>
-      <c r="AZ37">
-        <v>31</v>
-      </c>
-      <c r="BA37">
-        <v>2</v>
-      </c>
-      <c r="BB37">
-        <v>9</v>
-      </c>
       <c r="BC37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD37">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="BE37">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF37">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="BG37">
         <v>1.24</v>
@@ -8522,10 +8522,10 @@
         <v>2.45</v>
       </c>
       <c r="BK37">
+        <v>1.95</v>
+      </c>
+      <c r="BL37">
         <v>1.85</v>
-      </c>
-      <c r="BL37">
-        <v>1.95</v>
       </c>
       <c r="BM37">
         <v>2.37</v>
@@ -8545,7 +8545,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7818845</v>
+        <v>7818844</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8560,43 +8560,43 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="P38" t="s">
         <v>86</v>
       </c>
       <c r="Q38">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="R38">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S38">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="T38">
         <v>1.36</v>
@@ -8617,13 +8617,13 @@
         <v>1.1</v>
       </c>
       <c r="Z38">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="AA38">
-        <v>3.48</v>
+        <v>3.29</v>
       </c>
       <c r="AB38">
-        <v>3.81</v>
+        <v>2.81</v>
       </c>
       <c r="AC38">
         <v>1.02</v>
@@ -8638,82 +8638,82 @@
         <v>3.6</v>
       </c>
       <c r="AG38">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AH38">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AI38">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ38">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AK38">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AL38">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AM38">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="AN38">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR38">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AS38">
-        <v>0.85</v>
+        <v>1.38</v>
       </c>
       <c r="AT38">
-        <v>2.63</v>
+        <v>3.38</v>
       </c>
       <c r="AU38">
+        <v>3</v>
+      </c>
+      <c r="AV38">
+        <v>6</v>
+      </c>
+      <c r="AW38">
         <v>7</v>
       </c>
-      <c r="AV38">
-        <v>4</v>
-      </c>
-      <c r="AW38">
-        <v>6</v>
-      </c>
       <c r="AX38">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AY38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ38">
+        <v>31</v>
+      </c>
+      <c r="BA38">
+        <v>2</v>
+      </c>
+      <c r="BB38">
         <v>9</v>
       </c>
-      <c r="BA38">
-        <v>5</v>
-      </c>
-      <c r="BB38">
-        <v>3</v>
-      </c>
       <c r="BC38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD38">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="BE38">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF38">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="BG38">
         <v>1.24</v>
@@ -8728,10 +8728,10 @@
         <v>2.45</v>
       </c>
       <c r="BK38">
+        <v>1.85</v>
+      </c>
+      <c r="BL38">
         <v>1.95</v>
-      </c>
-      <c r="BL38">
-        <v>1.85</v>
       </c>
       <c r="BM38">
         <v>2.37</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -912,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1252,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ2">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>0.6</v>
@@ -4548,7 +4548,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR18">
         <v>1.84</v>
@@ -5987,7 +5987,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -8050,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR35">
         <v>2.29</v>
@@ -10519,7 +10519,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
         <v>1.4</v>
@@ -13406,7 +13406,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR61">
         <v>1.9</v>
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ63">
         <v>0.75</v>
@@ -14436,7 +14436,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR66">
         <v>2.18</v>
@@ -16778,6 +16778,212 @@
       </c>
       <c r="BP77">
         <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7818890</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45793.875</v>
+      </c>
+      <c r="F78">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s">
+        <v>80</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q78">
+        <v>3.6</v>
+      </c>
+      <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
+        <v>3.5</v>
+      </c>
+      <c r="T78">
+        <v>1.57</v>
+      </c>
+      <c r="U78">
+        <v>2.25</v>
+      </c>
+      <c r="V78">
+        <v>3.75</v>
+      </c>
+      <c r="W78">
+        <v>1.25</v>
+      </c>
+      <c r="X78">
+        <v>11</v>
+      </c>
+      <c r="Y78">
+        <v>1.05</v>
+      </c>
+      <c r="Z78">
+        <v>3.08</v>
+      </c>
+      <c r="AA78">
+        <v>2.52</v>
+      </c>
+      <c r="AB78">
+        <v>3.01</v>
+      </c>
+      <c r="AC78">
+        <v>1.11</v>
+      </c>
+      <c r="AD78">
+        <v>5.75</v>
+      </c>
+      <c r="AE78">
+        <v>1.53</v>
+      </c>
+      <c r="AF78">
+        <v>2.37</v>
+      </c>
+      <c r="AG78">
+        <v>2.7</v>
+      </c>
+      <c r="AH78">
+        <v>1.44</v>
+      </c>
+      <c r="AI78">
+        <v>2.1</v>
+      </c>
+      <c r="AJ78">
+        <v>1.67</v>
+      </c>
+      <c r="AK78">
+        <v>1.42</v>
+      </c>
+      <c r="AL78">
+        <v>1.4</v>
+      </c>
+      <c r="AM78">
+        <v>1.38</v>
+      </c>
+      <c r="AN78">
+        <v>2.6</v>
+      </c>
+      <c r="AO78">
+        <v>1.6</v>
+      </c>
+      <c r="AP78">
+        <v>2.17</v>
+      </c>
+      <c r="AQ78">
+        <v>1.83</v>
+      </c>
+      <c r="AR78">
+        <v>1.51</v>
+      </c>
+      <c r="AS78">
+        <v>1.46</v>
+      </c>
+      <c r="AT78">
+        <v>2.97</v>
+      </c>
+      <c r="AU78">
+        <v>3</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>9</v>
+      </c>
+      <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>14</v>
+      </c>
+      <c r="AZ78">
+        <v>8</v>
+      </c>
+      <c r="BA78">
+        <v>2</v>
+      </c>
+      <c r="BB78">
+        <v>1</v>
+      </c>
+      <c r="BC78">
+        <v>3</v>
+      </c>
+      <c r="BD78">
+        <v>1.95</v>
+      </c>
+      <c r="BE78">
+        <v>6.4</v>
+      </c>
+      <c r="BF78">
+        <v>2.05</v>
+      </c>
+      <c r="BG78">
+        <v>1.34</v>
+      </c>
+      <c r="BH78">
+        <v>2.85</v>
+      </c>
+      <c r="BI78">
+        <v>1.57</v>
+      </c>
+      <c r="BJ78">
+        <v>2.16</v>
+      </c>
+      <c r="BK78">
+        <v>1.95</v>
+      </c>
+      <c r="BL78">
+        <v>1.71</v>
+      </c>
+      <c r="BM78">
+        <v>2.48</v>
+      </c>
+      <c r="BN78">
+        <v>1.44</v>
+      </c>
+      <c r="BO78">
+        <v>3.2</v>
+      </c>
+      <c r="BP78">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>['90+10']</t>
+  </si>
+  <si>
+    <t>['6', '62']</t>
   </si>
   <si>
     <t>['3', '84', '90+7']</t>
@@ -912,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1174,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1661,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1995,7 +1998,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2201,7 +2204,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2407,7 +2410,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2488,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2819,7 +2822,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3025,7 +3028,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3312,7 +3315,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3849,7 +3852,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3927,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>0.17</v>
@@ -4261,7 +4264,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4467,7 +4470,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -5085,7 +5088,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5166,7 +5169,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR21">
         <v>1.92</v>
@@ -5291,7 +5294,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5497,7 +5500,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5703,7 +5706,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5781,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5909,7 +5912,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6321,7 +6324,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6402,7 +6405,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
         <v>2.18</v>
@@ -6527,7 +6530,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6733,7 +6736,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6939,7 +6942,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7223,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.17</v>
@@ -7763,7 +7766,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8665,7 +8668,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8793,7 +8796,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8999,7 +9002,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9411,7 +9414,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9492,7 +9495,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
         <v>1.33</v>
@@ -9823,7 +9826,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -9901,7 +9904,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0.2</v>
@@ -10235,7 +10238,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10316,7 +10319,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
         <v>2.2</v>
@@ -10853,7 +10856,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -10931,10 +10934,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11265,7 +11268,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -12501,7 +12504,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12707,7 +12710,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12913,7 +12916,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13197,7 +13200,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13818,7 +13821,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ63">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR63">
         <v>1.63</v>
@@ -14149,7 +14152,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14227,7 +14230,7 @@
         <v>0.25</v>
       </c>
       <c r="AP65">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ65">
         <v>0.2</v>
@@ -14561,7 +14564,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14639,7 +14642,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.4</v>
@@ -14767,7 +14770,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14973,7 +14976,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15591,7 +15594,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15878,7 +15881,7 @@
         <v>3</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR73">
         <v>2.35</v>
@@ -16415,7 +16418,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16621,7 +16624,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16984,6 +16987,418 @@
       </c>
       <c r="BP78">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7818893</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" t="s">
+        <v>78</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>86</v>
+      </c>
+      <c r="P79" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q79">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>2.2</v>
+      </c>
+      <c r="S79">
+        <v>3.5</v>
+      </c>
+      <c r="T79">
+        <v>1.4</v>
+      </c>
+      <c r="U79">
+        <v>2.75</v>
+      </c>
+      <c r="V79">
+        <v>2.75</v>
+      </c>
+      <c r="W79">
+        <v>1.4</v>
+      </c>
+      <c r="X79">
+        <v>8</v>
+      </c>
+      <c r="Y79">
+        <v>1.08</v>
+      </c>
+      <c r="Z79">
+        <v>2.27</v>
+      </c>
+      <c r="AA79">
+        <v>3.39</v>
+      </c>
+      <c r="AB79">
+        <v>3.12</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>8.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.3</v>
+      </c>
+      <c r="AF79">
+        <v>3.25</v>
+      </c>
+      <c r="AG79">
+        <v>1.98</v>
+      </c>
+      <c r="AH79">
+        <v>1.84</v>
+      </c>
+      <c r="AI79">
+        <v>1.73</v>
+      </c>
+      <c r="AJ79">
+        <v>2</v>
+      </c>
+      <c r="AK79">
+        <v>1.38</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.6</v>
+      </c>
+      <c r="AN79">
+        <v>2.2</v>
+      </c>
+      <c r="AO79">
+        <v>0.75</v>
+      </c>
+      <c r="AP79">
+        <v>1.83</v>
+      </c>
+      <c r="AQ79">
+        <v>1.2</v>
+      </c>
+      <c r="AR79">
+        <v>1.73</v>
+      </c>
+      <c r="AS79">
+        <v>1.17</v>
+      </c>
+      <c r="AT79">
+        <v>2.9</v>
+      </c>
+      <c r="AU79">
+        <v>-1</v>
+      </c>
+      <c r="AV79">
+        <v>-1</v>
+      </c>
+      <c r="AW79">
+        <v>-1</v>
+      </c>
+      <c r="AX79">
+        <v>-1</v>
+      </c>
+      <c r="AY79">
+        <v>-1</v>
+      </c>
+      <c r="AZ79">
+        <v>-1</v>
+      </c>
+      <c r="BA79">
+        <v>-1</v>
+      </c>
+      <c r="BB79">
+        <v>-1</v>
+      </c>
+      <c r="BC79">
+        <v>-1</v>
+      </c>
+      <c r="BD79">
+        <v>1.84</v>
+      </c>
+      <c r="BE79">
+        <v>6.4</v>
+      </c>
+      <c r="BF79">
+        <v>2.17</v>
+      </c>
+      <c r="BG79">
+        <v>1.35</v>
+      </c>
+      <c r="BH79">
+        <v>2.8</v>
+      </c>
+      <c r="BI79">
+        <v>1.61</v>
+      </c>
+      <c r="BJ79">
+        <v>2.1</v>
+      </c>
+      <c r="BK79">
+        <v>1.98</v>
+      </c>
+      <c r="BL79">
+        <v>1.68</v>
+      </c>
+      <c r="BM79">
+        <v>2.55</v>
+      </c>
+      <c r="BN79">
+        <v>1.42</v>
+      </c>
+      <c r="BO79">
+        <v>3.3</v>
+      </c>
+      <c r="BP79">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7818888</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45794.77083333334</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s">
+        <v>76</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>146</v>
+      </c>
+      <c r="P80" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q80">
+        <v>3.25</v>
+      </c>
+      <c r="R80">
+        <v>2.2</v>
+      </c>
+      <c r="S80">
+        <v>3.25</v>
+      </c>
+      <c r="T80">
+        <v>1.4</v>
+      </c>
+      <c r="U80">
+        <v>2.75</v>
+      </c>
+      <c r="V80">
+        <v>2.75</v>
+      </c>
+      <c r="W80">
+        <v>1.4</v>
+      </c>
+      <c r="X80">
+        <v>8</v>
+      </c>
+      <c r="Y80">
+        <v>1.08</v>
+      </c>
+      <c r="Z80">
+        <v>2.57</v>
+      </c>
+      <c r="AA80">
+        <v>3.42</v>
+      </c>
+      <c r="AB80">
+        <v>2.69</v>
+      </c>
+      <c r="AC80">
+        <v>1.05</v>
+      </c>
+      <c r="AD80">
+        <v>8.5</v>
+      </c>
+      <c r="AE80">
+        <v>1.33</v>
+      </c>
+      <c r="AF80">
+        <v>3.2</v>
+      </c>
+      <c r="AG80">
+        <v>1.96</v>
+      </c>
+      <c r="AH80">
+        <v>1.86</v>
+      </c>
+      <c r="AI80">
+        <v>1.73</v>
+      </c>
+      <c r="AJ80">
+        <v>2</v>
+      </c>
+      <c r="AK80">
+        <v>1.45</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.5</v>
+      </c>
+      <c r="AN80">
+        <v>1.8</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>2</v>
+      </c>
+      <c r="AQ80">
+        <v>0.83</v>
+      </c>
+      <c r="AR80">
+        <v>2.04</v>
+      </c>
+      <c r="AS80">
+        <v>1.18</v>
+      </c>
+      <c r="AT80">
+        <v>3.22</v>
+      </c>
+      <c r="AU80">
+        <v>-1</v>
+      </c>
+      <c r="AV80">
+        <v>-1</v>
+      </c>
+      <c r="AW80">
+        <v>-1</v>
+      </c>
+      <c r="AX80">
+        <v>-1</v>
+      </c>
+      <c r="AY80">
+        <v>-1</v>
+      </c>
+      <c r="AZ80">
+        <v>-1</v>
+      </c>
+      <c r="BA80">
+        <v>-1</v>
+      </c>
+      <c r="BB80">
+        <v>-1</v>
+      </c>
+      <c r="BC80">
+        <v>-1</v>
+      </c>
+      <c r="BD80">
+        <v>1.85</v>
+      </c>
+      <c r="BE80">
+        <v>6.4</v>
+      </c>
+      <c r="BF80">
+        <v>2.15</v>
+      </c>
+      <c r="BG80">
+        <v>1.4</v>
+      </c>
+      <c r="BH80">
+        <v>2.63</v>
+      </c>
+      <c r="BI80">
+        <v>1.68</v>
+      </c>
+      <c r="BJ80">
+        <v>1.98</v>
+      </c>
+      <c r="BK80">
+        <v>2.1</v>
+      </c>
+      <c r="BL80">
+        <v>1.61</v>
+      </c>
+      <c r="BM80">
+        <v>2.7</v>
+      </c>
+      <c r="BN80">
+        <v>1.37</v>
+      </c>
+      <c r="BO80">
+        <v>3.65</v>
+      </c>
+      <c r="BP80">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -17129,31 +17129,31 @@
         <v>2.9</v>
       </c>
       <c r="AU79">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV79">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW79">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX79">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY79">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ79">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA79">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB79">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC79">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD79">
         <v>1.84</v>
@@ -17335,31 +17335,31 @@
         <v>3.22</v>
       </c>
       <c r="AU80">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV80">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW80">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX80">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY80">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ80">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB80">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC80">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD80">
         <v>1.85</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>['6', '62']</t>
+  </si>
+  <si>
+    <t>['13', '20', '23', '37', '45+4']</t>
   </si>
   <si>
     <t>['3', '84', '90+7']</t>
@@ -915,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1177,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1667,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1998,7 +2001,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2204,7 +2207,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2282,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7">
         <v>0.2</v>
@@ -2410,7 +2413,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2822,7 +2825,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3028,7 +3031,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3109,7 +3112,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3852,7 +3855,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4264,7 +4267,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4470,7 +4473,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4548,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ18">
         <v>1.83</v>
@@ -5088,7 +5091,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5294,7 +5297,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5500,7 +5503,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5706,7 +5709,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5912,7 +5915,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6199,7 +6202,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6324,7 +6327,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6530,7 +6533,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6611,7 +6614,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR28">
         <v>1.27</v>
@@ -6736,7 +6739,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6942,7 +6945,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7766,7 +7769,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -7844,10 +7847,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR34">
         <v>1.52</v>
@@ -8796,7 +8799,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9002,7 +9005,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9083,7 +9086,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR40">
         <v>2.12</v>
@@ -9414,7 +9417,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9826,7 +9829,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10238,7 +10241,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10731,7 +10734,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR48">
         <v>2</v>
@@ -10856,7 +10859,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11268,7 +11271,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11964,7 +11967,7 @@
         <v>0.33</v>
       </c>
       <c r="AP54">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54">
         <v>0.4</v>
@@ -12504,7 +12507,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12710,7 +12713,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12916,7 +12919,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13203,7 +13206,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR60">
         <v>2.23</v>
@@ -14152,7 +14155,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14564,7 +14567,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14770,7 +14773,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14976,7 +14979,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15260,7 +15263,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15594,7 +15597,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15675,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR72">
         <v>1.83</v>
@@ -16293,7 +16296,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR75">
         <v>1.77</v>
@@ -16418,7 +16421,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16624,7 +16627,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -17036,7 +17039,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17399,6 +17402,418 @@
       </c>
       <c r="BP80">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7819012</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45795.66666666666</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s">
+        <v>71</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>86</v>
+      </c>
+      <c r="P81" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q81">
+        <v>4.7</v>
+      </c>
+      <c r="R81">
+        <v>2.1</v>
+      </c>
+      <c r="S81">
+        <v>2.41</v>
+      </c>
+      <c r="T81">
+        <v>1.37</v>
+      </c>
+      <c r="U81">
+        <v>2.85</v>
+      </c>
+      <c r="V81">
+        <v>2.81</v>
+      </c>
+      <c r="W81">
+        <v>1.38</v>
+      </c>
+      <c r="X81">
+        <v>7.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.03</v>
+      </c>
+      <c r="Z81">
+        <v>4.2</v>
+      </c>
+      <c r="AA81">
+        <v>3.6</v>
+      </c>
+      <c r="AB81">
+        <v>1.82</v>
+      </c>
+      <c r="AC81">
+        <v>1.02</v>
+      </c>
+      <c r="AD81">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE81">
+        <v>1.23</v>
+      </c>
+      <c r="AF81">
+        <v>3.44</v>
+      </c>
+      <c r="AG81">
+        <v>1.9</v>
+      </c>
+      <c r="AH81">
+        <v>1.87</v>
+      </c>
+      <c r="AI81">
+        <v>1.78</v>
+      </c>
+      <c r="AJ81">
+        <v>1.93</v>
+      </c>
+      <c r="AK81">
+        <v>1.95</v>
+      </c>
+      <c r="AL81">
+        <v>1.28</v>
+      </c>
+      <c r="AM81">
+        <v>1.22</v>
+      </c>
+      <c r="AN81">
+        <v>1.4</v>
+      </c>
+      <c r="AO81">
+        <v>2</v>
+      </c>
+      <c r="AP81">
+        <v>1.17</v>
+      </c>
+      <c r="AQ81">
+        <v>2.17</v>
+      </c>
+      <c r="AR81">
+        <v>1.51</v>
+      </c>
+      <c r="AS81">
+        <v>1.58</v>
+      </c>
+      <c r="AT81">
+        <v>3.09</v>
+      </c>
+      <c r="AU81">
+        <v>3</v>
+      </c>
+      <c r="AV81">
+        <v>3</v>
+      </c>
+      <c r="AW81">
+        <v>4</v>
+      </c>
+      <c r="AX81">
+        <v>9</v>
+      </c>
+      <c r="AY81">
+        <v>11</v>
+      </c>
+      <c r="AZ81">
+        <v>15</v>
+      </c>
+      <c r="BA81">
+        <v>2</v>
+      </c>
+      <c r="BB81">
+        <v>7</v>
+      </c>
+      <c r="BC81">
+        <v>9</v>
+      </c>
+      <c r="BD81">
+        <v>2.33</v>
+      </c>
+      <c r="BE81">
+        <v>6.4</v>
+      </c>
+      <c r="BF81">
+        <v>1.73</v>
+      </c>
+      <c r="BG81">
+        <v>1.37</v>
+      </c>
+      <c r="BH81">
+        <v>2.7</v>
+      </c>
+      <c r="BI81">
+        <v>1.65</v>
+      </c>
+      <c r="BJ81">
+        <v>2.04</v>
+      </c>
+      <c r="BK81">
+        <v>2.06</v>
+      </c>
+      <c r="BL81">
+        <v>1.63</v>
+      </c>
+      <c r="BM81">
+        <v>2.65</v>
+      </c>
+      <c r="BN81">
+        <v>1.38</v>
+      </c>
+      <c r="BO81">
+        <v>3.5</v>
+      </c>
+      <c r="BP81">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7819007</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45795.8125</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>5</v>
+      </c>
+      <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>6</v>
+      </c>
+      <c r="O82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P82" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q82">
+        <v>1.95</v>
+      </c>
+      <c r="R82">
+        <v>2.38</v>
+      </c>
+      <c r="S82">
+        <v>6.5</v>
+      </c>
+      <c r="T82">
+        <v>1.33</v>
+      </c>
+      <c r="U82">
+        <v>3.25</v>
+      </c>
+      <c r="V82">
+        <v>2.63</v>
+      </c>
+      <c r="W82">
+        <v>1.44</v>
+      </c>
+      <c r="X82">
+        <v>6.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.11</v>
+      </c>
+      <c r="Z82">
+        <v>1.44</v>
+      </c>
+      <c r="AA82">
+        <v>4.2</v>
+      </c>
+      <c r="AB82">
+        <v>7</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>11</v>
+      </c>
+      <c r="AE82">
+        <v>1.21</v>
+      </c>
+      <c r="AF82">
+        <v>3.6</v>
+      </c>
+      <c r="AG82">
+        <v>1.8</v>
+      </c>
+      <c r="AH82">
+        <v>2</v>
+      </c>
+      <c r="AI82">
+        <v>1.91</v>
+      </c>
+      <c r="AJ82">
+        <v>1.8</v>
+      </c>
+      <c r="AK82">
+        <v>1.09</v>
+      </c>
+      <c r="AL82">
+        <v>1.19</v>
+      </c>
+      <c r="AM82">
+        <v>2.71</v>
+      </c>
+      <c r="AN82">
+        <v>3</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>3</v>
+      </c>
+      <c r="AQ82">
+        <v>0.83</v>
+      </c>
+      <c r="AR82">
+        <v>2.19</v>
+      </c>
+      <c r="AS82">
+        <v>1.22</v>
+      </c>
+      <c r="AT82">
+        <v>3.41</v>
+      </c>
+      <c r="AU82">
+        <v>9</v>
+      </c>
+      <c r="AV82">
+        <v>8</v>
+      </c>
+      <c r="AW82">
+        <v>7</v>
+      </c>
+      <c r="AX82">
+        <v>9</v>
+      </c>
+      <c r="AY82">
+        <v>16</v>
+      </c>
+      <c r="AZ82">
+        <v>17</v>
+      </c>
+      <c r="BA82">
+        <v>8</v>
+      </c>
+      <c r="BB82">
+        <v>9</v>
+      </c>
+      <c r="BC82">
+        <v>17</v>
+      </c>
+      <c r="BD82">
+        <v>1.19</v>
+      </c>
+      <c r="BE82">
+        <v>11.25</v>
+      </c>
+      <c r="BF82">
+        <v>5.6</v>
+      </c>
+      <c r="BG82">
+        <v>1.19</v>
+      </c>
+      <c r="BH82">
+        <v>3.74</v>
+      </c>
+      <c r="BI82">
+        <v>1.4</v>
+      </c>
+      <c r="BJ82">
+        <v>2.64</v>
+      </c>
+      <c r="BK82">
+        <v>1.77</v>
+      </c>
+      <c r="BL82">
+        <v>1.95</v>
+      </c>
+      <c r="BM82">
+        <v>2.15</v>
+      </c>
+      <c r="BN82">
+        <v>1.59</v>
+      </c>
+      <c r="BO82">
+        <v>2.83</v>
+      </c>
+      <c r="BP82">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,9 @@
     <t>['13', '20', '23', '37', '45+4']</t>
   </si>
   <si>
+    <t>['45+4', '70']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -557,6 +560,12 @@
   </si>
   <si>
     <t>['8']</t>
+  </si>
+  <si>
+    <t>['48', '59', '88']</t>
+  </si>
+  <si>
+    <t>['7', '16']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1186,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1876,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2001,7 +2010,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2207,7 +2216,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2288,7 +2297,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2413,7 +2422,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2825,7 +2834,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3031,7 +3040,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3109,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ11">
         <v>2.17</v>
@@ -3730,7 +3739,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ14">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3855,7 +3864,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4267,7 +4276,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4345,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4473,7 +4482,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -5091,7 +5100,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5297,7 +5306,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5378,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5503,7 +5512,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5709,7 +5718,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5915,7 +5924,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6327,7 +6336,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6533,7 +6542,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6739,7 +6748,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6945,7 +6954,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7435,10 +7444,10 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>1.71</v>
@@ -7769,7 +7778,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8468,7 +8477,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.78</v>
@@ -8799,7 +8808,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9005,7 +9014,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9083,7 +9092,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ40">
         <v>2.17</v>
@@ -9417,7 +9426,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9495,7 +9504,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ42">
         <v>0.83</v>
@@ -9829,7 +9838,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10241,7 +10250,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10859,7 +10868,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11271,7 +11280,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11352,7 +11361,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ51">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
         <v>1.51</v>
@@ -11761,10 +11770,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
         <v>1.48</v>
@@ -12507,7 +12516,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12713,7 +12722,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12919,7 +12928,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -14030,7 +14039,7 @@
         <v>3</v>
       </c>
       <c r="AQ64">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
         <v>1.63</v>
@@ -14155,7 +14164,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14439,7 +14448,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ66">
         <v>1.83</v>
@@ -14567,7 +14576,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14773,7 +14782,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14979,7 +14988,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15469,7 +15478,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ71">
         <v>1.4</v>
@@ -15597,7 +15606,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16421,7 +16430,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16627,7 +16636,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -17039,7 +17048,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17451,7 +17460,7 @@
         <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q81">
         <v>4.7</v>
@@ -17814,6 +17823,418 @@
       </c>
       <c r="BP82">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7818891</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45796.66666666666</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>86</v>
+      </c>
+      <c r="P83" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q83">
+        <v>2.63</v>
+      </c>
+      <c r="R83">
+        <v>2.3</v>
+      </c>
+      <c r="S83">
+        <v>3.75</v>
+      </c>
+      <c r="T83">
+        <v>1.33</v>
+      </c>
+      <c r="U83">
+        <v>3.25</v>
+      </c>
+      <c r="V83">
+        <v>2.63</v>
+      </c>
+      <c r="W83">
+        <v>1.44</v>
+      </c>
+      <c r="X83">
+        <v>6.5</v>
+      </c>
+      <c r="Y83">
+        <v>1.11</v>
+      </c>
+      <c r="Z83">
+        <v>2.05</v>
+      </c>
+      <c r="AA83">
+        <v>3.3</v>
+      </c>
+      <c r="AB83">
+        <v>3.5</v>
+      </c>
+      <c r="AC83">
+        <v>1.02</v>
+      </c>
+      <c r="AD83">
+        <v>10</v>
+      </c>
+      <c r="AE83">
+        <v>1.17</v>
+      </c>
+      <c r="AF83">
+        <v>3.96</v>
+      </c>
+      <c r="AG83">
+        <v>1.75</v>
+      </c>
+      <c r="AH83">
+        <v>2.05</v>
+      </c>
+      <c r="AI83">
+        <v>1.62</v>
+      </c>
+      <c r="AJ83">
+        <v>2.2</v>
+      </c>
+      <c r="AK83">
+        <v>1.3</v>
+      </c>
+      <c r="AL83">
+        <v>1.3</v>
+      </c>
+      <c r="AM83">
+        <v>1.75</v>
+      </c>
+      <c r="AN83">
+        <v>0.75</v>
+      </c>
+      <c r="AO83">
+        <v>0.2</v>
+      </c>
+      <c r="AP83">
+        <v>0.6</v>
+      </c>
+      <c r="AQ83">
+        <v>0.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.65</v>
+      </c>
+      <c r="AS83">
+        <v>1.28</v>
+      </c>
+      <c r="AT83">
+        <v>2.93</v>
+      </c>
+      <c r="AU83">
+        <v>4</v>
+      </c>
+      <c r="AV83">
+        <v>9</v>
+      </c>
+      <c r="AW83">
+        <v>6</v>
+      </c>
+      <c r="AX83">
+        <v>14</v>
+      </c>
+      <c r="AY83">
+        <v>12</v>
+      </c>
+      <c r="AZ83">
+        <v>27</v>
+      </c>
+      <c r="BA83">
+        <v>6</v>
+      </c>
+      <c r="BB83">
+        <v>7</v>
+      </c>
+      <c r="BC83">
+        <v>13</v>
+      </c>
+      <c r="BD83">
+        <v>1.73</v>
+      </c>
+      <c r="BE83">
+        <v>6.75</v>
+      </c>
+      <c r="BF83">
+        <v>2.32</v>
+      </c>
+      <c r="BG83">
+        <v>1.19</v>
+      </c>
+      <c r="BH83">
+        <v>3.85</v>
+      </c>
+      <c r="BI83">
+        <v>1.35</v>
+      </c>
+      <c r="BJ83">
+        <v>2.8</v>
+      </c>
+      <c r="BK83">
+        <v>1.6</v>
+      </c>
+      <c r="BL83">
+        <v>2.12</v>
+      </c>
+      <c r="BM83">
+        <v>1.95</v>
+      </c>
+      <c r="BN83">
+        <v>1.71</v>
+      </c>
+      <c r="BO83">
+        <v>2.45</v>
+      </c>
+      <c r="BP83">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7818894</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45796.79166666666</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s">
+        <v>81</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84" t="s">
+        <v>148</v>
+      </c>
+      <c r="P84" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <v>2.4</v>
+      </c>
+      <c r="S84">
+        <v>6.5</v>
+      </c>
+      <c r="T84">
+        <v>1.33</v>
+      </c>
+      <c r="U84">
+        <v>3.25</v>
+      </c>
+      <c r="V84">
+        <v>2.63</v>
+      </c>
+      <c r="W84">
+        <v>1.44</v>
+      </c>
+      <c r="X84">
+        <v>6.5</v>
+      </c>
+      <c r="Y84">
+        <v>1.11</v>
+      </c>
+      <c r="Z84">
+        <v>1.48</v>
+      </c>
+      <c r="AA84">
+        <v>4</v>
+      </c>
+      <c r="AB84">
+        <v>6.5</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>11</v>
+      </c>
+      <c r="AE84">
+        <v>1.2</v>
+      </c>
+      <c r="AF84">
+        <v>3.7</v>
+      </c>
+      <c r="AG84">
+        <v>1.8</v>
+      </c>
+      <c r="AH84">
+        <v>2</v>
+      </c>
+      <c r="AI84">
+        <v>1.91</v>
+      </c>
+      <c r="AJ84">
+        <v>1.8</v>
+      </c>
+      <c r="AK84">
+        <v>1.11</v>
+      </c>
+      <c r="AL84">
+        <v>1.22</v>
+      </c>
+      <c r="AM84">
+        <v>2.62</v>
+      </c>
+      <c r="AN84">
+        <v>1.75</v>
+      </c>
+      <c r="AO84">
+        <v>0.75</v>
+      </c>
+      <c r="AP84">
+        <v>1.6</v>
+      </c>
+      <c r="AQ84">
+        <v>0.8</v>
+      </c>
+      <c r="AR84">
+        <v>1.95</v>
+      </c>
+      <c r="AS84">
+        <v>1.14</v>
+      </c>
+      <c r="AT84">
+        <v>3.09</v>
+      </c>
+      <c r="AU84">
+        <v>10</v>
+      </c>
+      <c r="AV84">
+        <v>7</v>
+      </c>
+      <c r="AW84">
+        <v>14</v>
+      </c>
+      <c r="AX84">
+        <v>6</v>
+      </c>
+      <c r="AY84">
+        <v>27</v>
+      </c>
+      <c r="AZ84">
+        <v>15</v>
+      </c>
+      <c r="BA84">
+        <v>11</v>
+      </c>
+      <c r="BB84">
+        <v>3</v>
+      </c>
+      <c r="BC84">
+        <v>14</v>
+      </c>
+      <c r="BD84">
+        <v>1.34</v>
+      </c>
+      <c r="BE84">
+        <v>7</v>
+      </c>
+      <c r="BF84">
+        <v>3.65</v>
+      </c>
+      <c r="BG84">
+        <v>1.37</v>
+      </c>
+      <c r="BH84">
+        <v>2.7</v>
+      </c>
+      <c r="BI84">
+        <v>1.63</v>
+      </c>
+      <c r="BJ84">
+        <v>2.07</v>
+      </c>
+      <c r="BK84">
+        <v>2.02</v>
+      </c>
+      <c r="BL84">
+        <v>1.66</v>
+      </c>
+      <c r="BM84">
+        <v>2.55</v>
+      </c>
+      <c r="BN84">
+        <v>1.41</v>
+      </c>
+      <c r="BO84">
+        <v>3.4</v>
+      </c>
+      <c r="BP84">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['45+4', '70']</t>
   </si>
   <si>
+    <t>['43', '90']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -566,6 +569,9 @@
   </si>
   <si>
     <t>['7', '16']</t>
+  </si>
+  <si>
+    <t>['28']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1192,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -2010,7 +2016,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2088,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2216,7 +2222,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2422,7 +2428,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2834,7 +2840,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2915,7 +2921,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ10">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3040,7 +3046,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3864,7 +3870,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4276,7 +4282,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4482,7 +4488,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4766,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ19">
         <v>0.6</v>
@@ -4975,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.33</v>
@@ -5100,7 +5106,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5306,7 +5312,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5512,7 +5518,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5718,7 +5724,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5924,7 +5930,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6336,7 +6342,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6542,7 +6548,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6748,7 +6754,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6954,7 +6960,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7778,7 +7784,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8268,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ36">
         <v>0.4</v>
@@ -8808,7 +8814,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9014,7 +9020,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9426,7 +9432,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9713,7 +9719,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR43">
         <v>1.91</v>
@@ -9838,7 +9844,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10250,7 +10256,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10868,7 +10874,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11280,7 +11286,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11358,7 +11364,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11979,7 +11985,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ54">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR54">
         <v>1.28</v>
@@ -12516,7 +12522,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12722,7 +12728,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12928,7 +12934,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -14164,7 +14170,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14576,7 +14582,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14657,7 +14663,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR67">
         <v>2.15</v>
@@ -14782,7 +14788,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14988,7 +14994,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15606,7 +15612,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16430,7 +16436,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16636,7 +16642,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -17048,7 +17054,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17460,7 +17466,7 @@
         <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q81">
         <v>4.7</v>
@@ -17872,7 +17878,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18078,7 +18084,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18235,6 +18241,212 @@
       </c>
       <c r="BP84">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7818889</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45796.89583333334</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>149</v>
+      </c>
+      <c r="P85" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q85">
+        <v>3.1</v>
+      </c>
+      <c r="R85">
+        <v>2.1</v>
+      </c>
+      <c r="S85">
+        <v>3.5</v>
+      </c>
+      <c r="T85">
+        <v>1.4</v>
+      </c>
+      <c r="U85">
+        <v>2.75</v>
+      </c>
+      <c r="V85">
+        <v>3</v>
+      </c>
+      <c r="W85">
+        <v>1.36</v>
+      </c>
+      <c r="X85">
+        <v>8</v>
+      </c>
+      <c r="Y85">
+        <v>1.08</v>
+      </c>
+      <c r="Z85">
+        <v>2.45</v>
+      </c>
+      <c r="AA85">
+        <v>3.1</v>
+      </c>
+      <c r="AB85">
+        <v>2.88</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE85">
+        <v>1.28</v>
+      </c>
+      <c r="AF85">
+        <v>3.08</v>
+      </c>
+      <c r="AG85">
+        <v>2.05</v>
+      </c>
+      <c r="AH85">
+        <v>1.75</v>
+      </c>
+      <c r="AI85">
+        <v>1.8</v>
+      </c>
+      <c r="AJ85">
+        <v>1.91</v>
+      </c>
+      <c r="AK85">
+        <v>1.4</v>
+      </c>
+      <c r="AL85">
+        <v>1.33</v>
+      </c>
+      <c r="AM85">
+        <v>1.53</v>
+      </c>
+      <c r="AN85">
+        <v>2.25</v>
+      </c>
+      <c r="AO85">
+        <v>0.4</v>
+      </c>
+      <c r="AP85">
+        <v>2.4</v>
+      </c>
+      <c r="AQ85">
+        <v>0.33</v>
+      </c>
+      <c r="AR85">
+        <v>1.47</v>
+      </c>
+      <c r="AS85">
+        <v>1.41</v>
+      </c>
+      <c r="AT85">
+        <v>2.88</v>
+      </c>
+      <c r="AU85">
+        <v>8</v>
+      </c>
+      <c r="AV85">
+        <v>2</v>
+      </c>
+      <c r="AW85">
+        <v>19</v>
+      </c>
+      <c r="AX85">
+        <v>5</v>
+      </c>
+      <c r="AY85">
+        <v>36</v>
+      </c>
+      <c r="AZ85">
+        <v>11</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>1</v>
+      </c>
+      <c r="BC85">
+        <v>5</v>
+      </c>
+      <c r="BD85">
+        <v>1.92</v>
+      </c>
+      <c r="BE85">
+        <v>6.5</v>
+      </c>
+      <c r="BF85">
+        <v>2.07</v>
+      </c>
+      <c r="BG85">
+        <v>1.3</v>
+      </c>
+      <c r="BH85">
+        <v>3</v>
+      </c>
+      <c r="BI85">
+        <v>1.54</v>
+      </c>
+      <c r="BJ85">
+        <v>2.23</v>
+      </c>
+      <c r="BK85">
+        <v>1.89</v>
+      </c>
+      <c r="BL85">
+        <v>1.76</v>
+      </c>
+      <c r="BM85">
+        <v>2.4</v>
+      </c>
+      <c r="BN85">
+        <v>1.47</v>
+      </c>
+      <c r="BO85">
+        <v>3.15</v>
+      </c>
+      <c r="BP85">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,21 @@
     <t>['43', '90']</t>
   </si>
   <si>
+    <t>['23', '89']</t>
+  </si>
+  <si>
+    <t>['81', '90']</t>
+  </si>
+  <si>
+    <t>['7', '21', '25', '58']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['30', '62', '85', '90+4']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -572,6 +587,18 @@
   </si>
   <si>
     <t>['28']</t>
+  </si>
+  <si>
+    <t>['13', '45+6']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['11', '57', '74']</t>
+  </si>
+  <si>
+    <t>['9', '39', '54']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1219,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1270,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ2">
         <v>1.83</v>
@@ -1479,7 +1506,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ3">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1685,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2016,7 +2043,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2222,7 +2249,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2300,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2428,7 +2455,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2506,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ8">
         <v>1.2</v>
@@ -2715,7 +2742,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2840,7 +2867,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2918,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ10">
         <v>0.33</v>
@@ -3046,7 +3073,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3127,7 +3154,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ11">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3330,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0.83</v>
@@ -3536,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13">
         <v>0.2</v>
@@ -3870,7 +3897,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3951,7 +3978,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4157,7 +4184,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR16">
         <v>3.44</v>
@@ -4282,7 +4309,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4360,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4488,7 +4515,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4566,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ18">
         <v>1.83</v>
@@ -4775,7 +4802,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ19">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>1.05</v>
@@ -4978,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -5106,7 +5133,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5312,7 +5339,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5518,7 +5545,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5724,7 +5751,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5805,7 +5832,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>1.82</v>
@@ -5930,7 +5957,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6011,7 +6038,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.33</v>
@@ -6217,7 +6244,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6342,7 +6369,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6420,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
         <v>0.83</v>
@@ -6548,7 +6575,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6626,10 +6653,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ28">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.27</v>
@@ -6754,7 +6781,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6832,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ29">
         <v>0.2</v>
@@ -6960,7 +6987,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7038,10 +7065,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.85</v>
@@ -7247,7 +7274,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -7450,7 +7477,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -7656,10 +7683,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>1.64</v>
@@ -7784,7 +7811,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -7862,10 +7889,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ34">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR34">
         <v>1.52</v>
@@ -8277,7 +8304,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ36">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR36">
         <v>1.55</v>
@@ -8360,7 +8387,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7818845</v>
+        <v>7818844</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8375,43 +8402,43 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="P37" t="s">
         <v>86</v>
       </c>
       <c r="Q37">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="R37">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S37">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="T37">
         <v>1.36</v>
@@ -8432,13 +8459,13 @@
         <v>1.1</v>
       </c>
       <c r="Z37">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="AA37">
-        <v>3.48</v>
+        <v>3.29</v>
       </c>
       <c r="AB37">
-        <v>3.81</v>
+        <v>2.81</v>
       </c>
       <c r="AC37">
         <v>1.02</v>
@@ -8453,82 +8480,82 @@
         <v>3.6</v>
       </c>
       <c r="AG37">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AH37">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AI37">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ37">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AK37">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AL37">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AM37">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="AN37">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AS37">
-        <v>0.85</v>
+        <v>1.38</v>
       </c>
       <c r="AT37">
-        <v>2.63</v>
+        <v>3.38</v>
       </c>
       <c r="AU37">
+        <v>3</v>
+      </c>
+      <c r="AV37">
+        <v>6</v>
+      </c>
+      <c r="AW37">
         <v>7</v>
       </c>
-      <c r="AV37">
-        <v>4</v>
-      </c>
-      <c r="AW37">
-        <v>6</v>
-      </c>
       <c r="AX37">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AY37">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ37">
+        <v>31</v>
+      </c>
+      <c r="BA37">
+        <v>2</v>
+      </c>
+      <c r="BB37">
         <v>9</v>
       </c>
-      <c r="BA37">
-        <v>5</v>
-      </c>
-      <c r="BB37">
-        <v>3</v>
-      </c>
       <c r="BC37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD37">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="BE37">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF37">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="BG37">
         <v>1.24</v>
@@ -8543,10 +8570,10 @@
         <v>2.45</v>
       </c>
       <c r="BK37">
+        <v>1.85</v>
+      </c>
+      <c r="BL37">
         <v>1.95</v>
-      </c>
-      <c r="BL37">
-        <v>1.85</v>
       </c>
       <c r="BM37">
         <v>2.37</v>
@@ -8566,7 +8593,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7818844</v>
+        <v>7818845</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8581,43 +8608,43 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="P38" t="s">
         <v>86</v>
       </c>
       <c r="Q38">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R38">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S38">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="T38">
         <v>1.36</v>
@@ -8638,13 +8665,13 @@
         <v>1.1</v>
       </c>
       <c r="Z38">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="AA38">
-        <v>3.29</v>
+        <v>3.48</v>
       </c>
       <c r="AB38">
-        <v>2.81</v>
+        <v>3.81</v>
       </c>
       <c r="AC38">
         <v>1.02</v>
@@ -8659,82 +8686,82 @@
         <v>3.6</v>
       </c>
       <c r="AG38">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AH38">
+        <v>1.87</v>
+      </c>
+      <c r="AI38">
+        <v>1.8</v>
+      </c>
+      <c r="AJ38">
         <v>1.91</v>
       </c>
-      <c r="AI38">
-        <v>1.67</v>
-      </c>
-      <c r="AJ38">
-        <v>2.1</v>
-      </c>
       <c r="AK38">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AL38">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AM38">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="AN38">
+        <v>1.5</v>
+      </c>
+      <c r="AO38">
+        <v>1.5</v>
+      </c>
+      <c r="AP38">
+        <v>1.8</v>
+      </c>
+      <c r="AQ38">
+        <v>0.8</v>
+      </c>
+      <c r="AR38">
+        <v>1.78</v>
+      </c>
+      <c r="AS38">
+        <v>0.85</v>
+      </c>
+      <c r="AT38">
+        <v>2.63</v>
+      </c>
+      <c r="AU38">
+        <v>7</v>
+      </c>
+      <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>14</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>5</v>
+      </c>
+      <c r="BB38">
         <v>3</v>
       </c>
-      <c r="AO38">
-        <v>2</v>
-      </c>
-      <c r="AP38">
-        <v>1.83</v>
-      </c>
-      <c r="AQ38">
-        <v>1</v>
-      </c>
-      <c r="AR38">
-        <v>2</v>
-      </c>
-      <c r="AS38">
-        <v>1.38</v>
-      </c>
-      <c r="AT38">
-        <v>3.38</v>
-      </c>
-      <c r="AU38">
-        <v>3</v>
-      </c>
-      <c r="AV38">
-        <v>6</v>
-      </c>
-      <c r="AW38">
-        <v>7</v>
-      </c>
-      <c r="AX38">
-        <v>17</v>
-      </c>
-      <c r="AY38">
-        <v>12</v>
-      </c>
-      <c r="AZ38">
-        <v>31</v>
-      </c>
-      <c r="BA38">
-        <v>2</v>
-      </c>
-      <c r="BB38">
-        <v>9</v>
-      </c>
       <c r="BC38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD38">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="BE38">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF38">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="BG38">
         <v>1.24</v>
@@ -8749,10 +8776,10 @@
         <v>2.45</v>
       </c>
       <c r="BK38">
+        <v>1.95</v>
+      </c>
+      <c r="BL38">
         <v>1.85</v>
-      </c>
-      <c r="BL38">
-        <v>1.95</v>
       </c>
       <c r="BM38">
         <v>2.37</v>
@@ -8814,7 +8841,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8892,10 +8919,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ39">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>1.64</v>
@@ -9020,7 +9047,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9098,10 +9125,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>2.12</v>
@@ -9307,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR41">
         <v>2.17</v>
@@ -9432,7 +9459,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9716,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ43">
         <v>0.33</v>
@@ -9844,7 +9871,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10131,7 +10158,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ45">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR45">
         <v>1.28</v>
@@ -10256,7 +10283,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10334,7 +10361,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.2</v>
@@ -10543,7 +10570,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ47">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -10746,10 +10773,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR48">
         <v>2</v>
@@ -10874,7 +10901,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11158,10 +11185,10 @@
         <v>1.67</v>
       </c>
       <c r="AP50">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.54</v>
@@ -11286,7 +11313,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11573,7 +11600,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ52">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.77</v>
@@ -11982,7 +12009,7 @@
         <v>0.33</v>
       </c>
       <c r="AP54">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54">
         <v>0.33</v>
@@ -12191,7 +12218,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR55">
         <v>2.44</v>
@@ -12394,10 +12421,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ56">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -12522,7 +12549,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12603,7 +12630,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.34</v>
@@ -12728,7 +12755,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12806,7 +12833,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ58">
         <v>0.2</v>
@@ -12934,7 +12961,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13015,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR59">
         <v>1.93</v>
@@ -13221,7 +13248,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>2.23</v>
@@ -13424,7 +13451,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ61">
         <v>1.83</v>
@@ -13630,10 +13657,10 @@
         <v>0.25</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ62">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR62">
         <v>1.77</v>
@@ -14042,7 +14069,7 @@
         <v>0.25</v>
       </c>
       <c r="AP64">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ64">
         <v>0.67</v>
@@ -14170,7 +14197,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14454,7 +14481,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66">
         <v>1.83</v>
@@ -14582,7 +14609,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14788,7 +14815,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14869,7 +14896,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR68">
         <v>1.78</v>
@@ -14994,7 +15021,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15075,7 +15102,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ69">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>1.45</v>
@@ -15278,7 +15305,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15487,7 +15514,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ71">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.48</v>
@@ -15612,7 +15639,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15693,7 +15720,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.83</v>
@@ -16102,10 +16129,10 @@
         <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.93</v>
@@ -16308,10 +16335,10 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ75">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR75">
         <v>1.77</v>
@@ -16436,7 +16463,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16514,10 +16541,10 @@
         <v>0.2</v>
       </c>
       <c r="AP76">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ76">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR76">
         <v>1.65</v>
@@ -16642,7 +16669,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16720,10 +16747,10 @@
         <v>0.25</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ77">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR77">
         <v>1.74</v>
@@ -17054,7 +17081,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17466,7 +17493,7 @@
         <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q81">
         <v>4.7</v>
@@ -17544,10 +17571,10 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ81">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.51</v>
@@ -17753,7 +17780,7 @@
         <v>3</v>
       </c>
       <c r="AQ82">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR82">
         <v>2.19</v>
@@ -17878,7 +17905,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18084,7 +18111,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18162,7 +18189,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ84">
         <v>0.8</v>
@@ -18290,7 +18317,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18447,6 +18474,1654 @@
       </c>
       <c r="BP85">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7818895</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45800.79166666666</v>
+      </c>
+      <c r="F86">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>75</v>
+      </c>
+      <c r="H86" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>150</v>
+      </c>
+      <c r="P86" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86">
+        <v>2.25</v>
+      </c>
+      <c r="S86">
+        <v>2.1</v>
+      </c>
+      <c r="T86">
+        <v>1.35</v>
+      </c>
+      <c r="U86">
+        <v>2.95</v>
+      </c>
+      <c r="V86">
+        <v>2.62</v>
+      </c>
+      <c r="W86">
+        <v>1.42</v>
+      </c>
+      <c r="X86">
+        <v>7.1</v>
+      </c>
+      <c r="Y86">
+        <v>1.04</v>
+      </c>
+      <c r="Z86">
+        <v>5</v>
+      </c>
+      <c r="AA86">
+        <v>3.75</v>
+      </c>
+      <c r="AB86">
+        <v>1.6</v>
+      </c>
+      <c r="AC86">
+        <v>1.04</v>
+      </c>
+      <c r="AD86">
+        <v>9</v>
+      </c>
+      <c r="AE86">
+        <v>1.25</v>
+      </c>
+      <c r="AF86">
+        <v>3.6</v>
+      </c>
+      <c r="AG86">
+        <v>1.83</v>
+      </c>
+      <c r="AH86">
+        <v>1.91</v>
+      </c>
+      <c r="AI86">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86">
+        <v>1.85</v>
+      </c>
+      <c r="AK86">
+        <v>2.25</v>
+      </c>
+      <c r="AL86">
+        <v>1.2</v>
+      </c>
+      <c r="AM86">
+        <v>1.12</v>
+      </c>
+      <c r="AN86">
+        <v>1.17</v>
+      </c>
+      <c r="AO86">
+        <v>1</v>
+      </c>
+      <c r="AP86">
+        <v>1.43</v>
+      </c>
+      <c r="AQ86">
+        <v>0.8</v>
+      </c>
+      <c r="AR86">
+        <v>1.51</v>
+      </c>
+      <c r="AS86">
+        <v>1.74</v>
+      </c>
+      <c r="AT86">
+        <v>3.25</v>
+      </c>
+      <c r="AU86">
+        <v>4</v>
+      </c>
+      <c r="AV86">
+        <v>10</v>
+      </c>
+      <c r="AW86">
+        <v>9</v>
+      </c>
+      <c r="AX86">
+        <v>12</v>
+      </c>
+      <c r="AY86">
+        <v>16</v>
+      </c>
+      <c r="AZ86">
+        <v>29</v>
+      </c>
+      <c r="BA86">
+        <v>3</v>
+      </c>
+      <c r="BB86">
+        <v>5</v>
+      </c>
+      <c r="BC86">
+        <v>8</v>
+      </c>
+      <c r="BD86">
+        <v>3.05</v>
+      </c>
+      <c r="BE86">
+        <v>7</v>
+      </c>
+      <c r="BF86">
+        <v>1.46</v>
+      </c>
+      <c r="BG86">
+        <v>1.33</v>
+      </c>
+      <c r="BH86">
+        <v>2.88</v>
+      </c>
+      <c r="BI86">
+        <v>1.57</v>
+      </c>
+      <c r="BJ86">
+        <v>2.15</v>
+      </c>
+      <c r="BK86">
+        <v>1.93</v>
+      </c>
+      <c r="BL86">
+        <v>1.72</v>
+      </c>
+      <c r="BM86">
+        <v>2.45</v>
+      </c>
+      <c r="BN86">
+        <v>1.44</v>
+      </c>
+      <c r="BO86">
+        <v>3.15</v>
+      </c>
+      <c r="BP86">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7818896</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45801.66666666666</v>
+      </c>
+      <c r="F87">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>85</v>
+      </c>
+      <c r="H87" t="s">
+        <v>83</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>151</v>
+      </c>
+      <c r="P87" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q87">
+        <v>2.54</v>
+      </c>
+      <c r="R87">
+        <v>2.14</v>
+      </c>
+      <c r="S87">
+        <v>4.27</v>
+      </c>
+      <c r="T87">
+        <v>1.36</v>
+      </c>
+      <c r="U87">
+        <v>2.88</v>
+      </c>
+      <c r="V87">
+        <v>2.69</v>
+      </c>
+      <c r="W87">
+        <v>1.41</v>
+      </c>
+      <c r="X87">
+        <v>6.2</v>
+      </c>
+      <c r="Y87">
+        <v>1.06</v>
+      </c>
+      <c r="Z87">
+        <v>2</v>
+      </c>
+      <c r="AA87">
+        <v>3.4</v>
+      </c>
+      <c r="AB87">
+        <v>3.25</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>10</v>
+      </c>
+      <c r="AE87">
+        <v>1.29</v>
+      </c>
+      <c r="AF87">
+        <v>3.4</v>
+      </c>
+      <c r="AG87">
+        <v>1.85</v>
+      </c>
+      <c r="AH87">
+        <v>1.85</v>
+      </c>
+      <c r="AI87">
+        <v>1.7</v>
+      </c>
+      <c r="AJ87">
+        <v>2</v>
+      </c>
+      <c r="AK87">
+        <v>1.32</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.68</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
+        <v>1.4</v>
+      </c>
+      <c r="AP87">
+        <v>1</v>
+      </c>
+      <c r="AQ87">
+        <v>1.33</v>
+      </c>
+      <c r="AR87">
+        <v>1.7</v>
+      </c>
+      <c r="AS87">
+        <v>1.55</v>
+      </c>
+      <c r="AT87">
+        <v>3.25</v>
+      </c>
+      <c r="AU87">
+        <v>6</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>18</v>
+      </c>
+      <c r="AX87">
+        <v>5</v>
+      </c>
+      <c r="AY87">
+        <v>30</v>
+      </c>
+      <c r="AZ87">
+        <v>11</v>
+      </c>
+      <c r="BA87">
+        <v>12</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
+        <v>15</v>
+      </c>
+      <c r="BD87">
+        <v>1.68</v>
+      </c>
+      <c r="BE87">
+        <v>6.75</v>
+      </c>
+      <c r="BF87">
+        <v>2.4</v>
+      </c>
+      <c r="BG87">
+        <v>1.21</v>
+      </c>
+      <c r="BH87">
+        <v>3.65</v>
+      </c>
+      <c r="BI87">
+        <v>1.38</v>
+      </c>
+      <c r="BJ87">
+        <v>2.65</v>
+      </c>
+      <c r="BK87">
+        <v>1.64</v>
+      </c>
+      <c r="BL87">
+        <v>2.05</v>
+      </c>
+      <c r="BM87">
+        <v>2</v>
+      </c>
+      <c r="BN87">
+        <v>1.67</v>
+      </c>
+      <c r="BO87">
+        <v>2.5</v>
+      </c>
+      <c r="BP87">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7818899</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45801.77083333334</v>
+      </c>
+      <c r="F88">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>84</v>
+      </c>
+      <c r="H88" t="s">
+        <v>79</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88" t="s">
+        <v>152</v>
+      </c>
+      <c r="P88" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
+      <c r="R88">
+        <v>2.4</v>
+      </c>
+      <c r="S88">
+        <v>6</v>
+      </c>
+      <c r="T88">
+        <v>1.33</v>
+      </c>
+      <c r="U88">
+        <v>3.25</v>
+      </c>
+      <c r="V88">
+        <v>2.5</v>
+      </c>
+      <c r="W88">
+        <v>1.5</v>
+      </c>
+      <c r="X88">
+        <v>6.5</v>
+      </c>
+      <c r="Y88">
+        <v>1.11</v>
+      </c>
+      <c r="Z88">
+        <v>1.49</v>
+      </c>
+      <c r="AA88">
+        <v>4.35</v>
+      </c>
+      <c r="AB88">
+        <v>6.13</v>
+      </c>
+      <c r="AC88">
+        <v>1.04</v>
+      </c>
+      <c r="AD88">
+        <v>9</v>
+      </c>
+      <c r="AE88">
+        <v>1.22</v>
+      </c>
+      <c r="AF88">
+        <v>3.85</v>
+      </c>
+      <c r="AG88">
+        <v>1.73</v>
+      </c>
+      <c r="AH88">
+        <v>2.08</v>
+      </c>
+      <c r="AI88">
+        <v>1.83</v>
+      </c>
+      <c r="AJ88">
+        <v>1.83</v>
+      </c>
+      <c r="AK88">
+        <v>1.12</v>
+      </c>
+      <c r="AL88">
+        <v>1.21</v>
+      </c>
+      <c r="AM88">
+        <v>2.5</v>
+      </c>
+      <c r="AN88">
+        <v>1.6</v>
+      </c>
+      <c r="AO88">
+        <v>0.6</v>
+      </c>
+      <c r="AP88">
+        <v>1.83</v>
+      </c>
+      <c r="AQ88">
+        <v>0.5</v>
+      </c>
+      <c r="AR88">
+        <v>2.08</v>
+      </c>
+      <c r="AS88">
+        <v>1.69</v>
+      </c>
+      <c r="AT88">
+        <v>3.77</v>
+      </c>
+      <c r="AU88">
+        <v>10</v>
+      </c>
+      <c r="AV88">
+        <v>8</v>
+      </c>
+      <c r="AW88">
+        <v>12</v>
+      </c>
+      <c r="AX88">
+        <v>7</v>
+      </c>
+      <c r="AY88">
+        <v>27</v>
+      </c>
+      <c r="AZ88">
+        <v>17</v>
+      </c>
+      <c r="BA88">
+        <v>5</v>
+      </c>
+      <c r="BB88">
+        <v>5</v>
+      </c>
+      <c r="BC88">
+        <v>10</v>
+      </c>
+      <c r="BD88">
+        <v>1.36</v>
+      </c>
+      <c r="BE88">
+        <v>7</v>
+      </c>
+      <c r="BF88">
+        <v>3.45</v>
+      </c>
+      <c r="BG88">
+        <v>1.33</v>
+      </c>
+      <c r="BH88">
+        <v>2.88</v>
+      </c>
+      <c r="BI88">
+        <v>1.57</v>
+      </c>
+      <c r="BJ88">
+        <v>2.16</v>
+      </c>
+      <c r="BK88">
+        <v>1.92</v>
+      </c>
+      <c r="BL88">
+        <v>1.73</v>
+      </c>
+      <c r="BM88">
+        <v>2.43</v>
+      </c>
+      <c r="BN88">
+        <v>1.46</v>
+      </c>
+      <c r="BO88">
+        <v>3.15</v>
+      </c>
+      <c r="BP88">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7818900</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45801.875</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>80</v>
+      </c>
+      <c r="H89" t="s">
+        <v>71</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89" t="s">
+        <v>86</v>
+      </c>
+      <c r="P89" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q89">
+        <v>2.54</v>
+      </c>
+      <c r="R89">
+        <v>2.07</v>
+      </c>
+      <c r="S89">
+        <v>4.4</v>
+      </c>
+      <c r="T89">
+        <v>1.42</v>
+      </c>
+      <c r="U89">
+        <v>2.65</v>
+      </c>
+      <c r="V89">
+        <v>2.94</v>
+      </c>
+      <c r="W89">
+        <v>1.35</v>
+      </c>
+      <c r="X89">
+        <v>7.1</v>
+      </c>
+      <c r="Y89">
+        <v>1.04</v>
+      </c>
+      <c r="Z89">
+        <v>1.95</v>
+      </c>
+      <c r="AA89">
+        <v>3.45</v>
+      </c>
+      <c r="AB89">
+        <v>3.8</v>
+      </c>
+      <c r="AC89">
+        <v>1.02</v>
+      </c>
+      <c r="AD89">
+        <v>7.9</v>
+      </c>
+      <c r="AE89">
+        <v>1.31</v>
+      </c>
+      <c r="AF89">
+        <v>2.93</v>
+      </c>
+      <c r="AG89">
+        <v>2.07</v>
+      </c>
+      <c r="AH89">
+        <v>1.73</v>
+      </c>
+      <c r="AI89">
+        <v>1.86</v>
+      </c>
+      <c r="AJ89">
+        <v>1.84</v>
+      </c>
+      <c r="AK89">
+        <v>1.25</v>
+      </c>
+      <c r="AL89">
+        <v>1.3</v>
+      </c>
+      <c r="AM89">
+        <v>1.82</v>
+      </c>
+      <c r="AN89">
+        <v>2.2</v>
+      </c>
+      <c r="AO89">
+        <v>2.17</v>
+      </c>
+      <c r="AP89">
+        <v>2</v>
+      </c>
+      <c r="AQ89">
+        <v>2</v>
+      </c>
+      <c r="AR89">
+        <v>1.86</v>
+      </c>
+      <c r="AS89">
+        <v>1.58</v>
+      </c>
+      <c r="AT89">
+        <v>3.44</v>
+      </c>
+      <c r="AU89">
+        <v>8</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>7</v>
+      </c>
+      <c r="AY89">
+        <v>15</v>
+      </c>
+      <c r="AZ89">
+        <v>13</v>
+      </c>
+      <c r="BA89">
+        <v>7</v>
+      </c>
+      <c r="BB89">
+        <v>6</v>
+      </c>
+      <c r="BC89">
+        <v>13</v>
+      </c>
+      <c r="BD89">
+        <v>1.65</v>
+      </c>
+      <c r="BE89">
+        <v>6.4</v>
+      </c>
+      <c r="BF89">
+        <v>2.55</v>
+      </c>
+      <c r="BG89">
+        <v>1.37</v>
+      </c>
+      <c r="BH89">
+        <v>2.7</v>
+      </c>
+      <c r="BI89">
+        <v>1.64</v>
+      </c>
+      <c r="BJ89">
+        <v>2.04</v>
+      </c>
+      <c r="BK89">
+        <v>2.05</v>
+      </c>
+      <c r="BL89">
+        <v>1.63</v>
+      </c>
+      <c r="BM89">
+        <v>2.65</v>
+      </c>
+      <c r="BN89">
+        <v>1.38</v>
+      </c>
+      <c r="BO89">
+        <v>3.45</v>
+      </c>
+      <c r="BP89">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7818901</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45802.5625</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" t="s">
+        <v>72</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>86</v>
+      </c>
+      <c r="P90" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q90">
+        <v>2.88</v>
+      </c>
+      <c r="R90">
+        <v>2.2</v>
+      </c>
+      <c r="S90">
+        <v>3.6</v>
+      </c>
+      <c r="T90">
+        <v>1.4</v>
+      </c>
+      <c r="U90">
+        <v>2.75</v>
+      </c>
+      <c r="V90">
+        <v>2.75</v>
+      </c>
+      <c r="W90">
+        <v>1.4</v>
+      </c>
+      <c r="X90">
+        <v>8</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>2.25</v>
+      </c>
+      <c r="AA90">
+        <v>3.3</v>
+      </c>
+      <c r="AB90">
+        <v>3.1</v>
+      </c>
+      <c r="AC90">
+        <v>1.03</v>
+      </c>
+      <c r="AD90">
+        <v>9</v>
+      </c>
+      <c r="AE90">
+        <v>1.24</v>
+      </c>
+      <c r="AF90">
+        <v>3.36</v>
+      </c>
+      <c r="AG90">
+        <v>1.95</v>
+      </c>
+      <c r="AH90">
+        <v>1.85</v>
+      </c>
+      <c r="AI90">
+        <v>1.73</v>
+      </c>
+      <c r="AJ90">
+        <v>2</v>
+      </c>
+      <c r="AK90">
+        <v>1.37</v>
+      </c>
+      <c r="AL90">
+        <v>1.3</v>
+      </c>
+      <c r="AM90">
+        <v>1.61</v>
+      </c>
+      <c r="AN90">
+        <v>1.33</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>1.14</v>
+      </c>
+      <c r="AQ90">
+        <v>1.33</v>
+      </c>
+      <c r="AR90">
+        <v>1.8</v>
+      </c>
+      <c r="AS90">
+        <v>1.68</v>
+      </c>
+      <c r="AT90">
+        <v>3.48</v>
+      </c>
+      <c r="AU90">
+        <v>4</v>
+      </c>
+      <c r="AV90">
+        <v>7</v>
+      </c>
+      <c r="AW90">
+        <v>11</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>19</v>
+      </c>
+      <c r="AZ90">
+        <v>13</v>
+      </c>
+      <c r="BA90">
+        <v>6</v>
+      </c>
+      <c r="BB90">
+        <v>3</v>
+      </c>
+      <c r="BC90">
+        <v>9</v>
+      </c>
+      <c r="BD90">
+        <v>1.9</v>
+      </c>
+      <c r="BE90">
+        <v>6.25</v>
+      </c>
+      <c r="BF90">
+        <v>2.12</v>
+      </c>
+      <c r="BG90">
+        <v>1.4</v>
+      </c>
+      <c r="BH90">
+        <v>2.6</v>
+      </c>
+      <c r="BI90">
+        <v>1.68</v>
+      </c>
+      <c r="BJ90">
+        <v>1.98</v>
+      </c>
+      <c r="BK90">
+        <v>2.12</v>
+      </c>
+      <c r="BL90">
+        <v>1.6</v>
+      </c>
+      <c r="BM90">
+        <v>2.7</v>
+      </c>
+      <c r="BN90">
+        <v>1.37</v>
+      </c>
+      <c r="BO90">
+        <v>3.65</v>
+      </c>
+      <c r="BP90">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7818897</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45802.66666666666</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+      <c r="O91" t="s">
+        <v>153</v>
+      </c>
+      <c r="P91" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q91">
+        <v>2.2</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>6</v>
+      </c>
+      <c r="T91">
+        <v>1.4</v>
+      </c>
+      <c r="U91">
+        <v>2.75</v>
+      </c>
+      <c r="V91">
+        <v>3</v>
+      </c>
+      <c r="W91">
+        <v>1.36</v>
+      </c>
+      <c r="X91">
+        <v>8</v>
+      </c>
+      <c r="Y91">
+        <v>1.08</v>
+      </c>
+      <c r="Z91">
+        <v>1.6</v>
+      </c>
+      <c r="AA91">
+        <v>3.8</v>
+      </c>
+      <c r="AB91">
+        <v>5.5</v>
+      </c>
+      <c r="AC91">
+        <v>1.05</v>
+      </c>
+      <c r="AD91">
+        <v>8.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.3</v>
+      </c>
+      <c r="AF91">
+        <v>3.25</v>
+      </c>
+      <c r="AG91">
+        <v>2.05</v>
+      </c>
+      <c r="AH91">
+        <v>1.75</v>
+      </c>
+      <c r="AI91">
+        <v>2</v>
+      </c>
+      <c r="AJ91">
+        <v>1.73</v>
+      </c>
+      <c r="AK91">
+        <v>1.15</v>
+      </c>
+      <c r="AL91">
+        <v>1.24</v>
+      </c>
+      <c r="AM91">
+        <v>2.25</v>
+      </c>
+      <c r="AN91">
+        <v>3</v>
+      </c>
+      <c r="AO91">
+        <v>0.17</v>
+      </c>
+      <c r="AP91">
+        <v>2.4</v>
+      </c>
+      <c r="AQ91">
+        <v>0.57</v>
+      </c>
+      <c r="AR91">
+        <v>1.68</v>
+      </c>
+      <c r="AS91">
+        <v>1.27</v>
+      </c>
+      <c r="AT91">
+        <v>2.95</v>
+      </c>
+      <c r="AU91">
+        <v>7</v>
+      </c>
+      <c r="AV91">
+        <v>8</v>
+      </c>
+      <c r="AW91">
+        <v>10</v>
+      </c>
+      <c r="AX91">
+        <v>3</v>
+      </c>
+      <c r="AY91">
+        <v>18</v>
+      </c>
+      <c r="AZ91">
+        <v>13</v>
+      </c>
+      <c r="BA91">
+        <v>11</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>12</v>
+      </c>
+      <c r="BD91">
+        <v>1.43</v>
+      </c>
+      <c r="BE91">
+        <v>6.75</v>
+      </c>
+      <c r="BF91">
+        <v>3.2</v>
+      </c>
+      <c r="BG91">
+        <v>1.37</v>
+      </c>
+      <c r="BH91">
+        <v>2.7</v>
+      </c>
+      <c r="BI91">
+        <v>1.64</v>
+      </c>
+      <c r="BJ91">
+        <v>2.05</v>
+      </c>
+      <c r="BK91">
+        <v>2.02</v>
+      </c>
+      <c r="BL91">
+        <v>1.66</v>
+      </c>
+      <c r="BM91">
+        <v>2.55</v>
+      </c>
+      <c r="BN91">
+        <v>1.41</v>
+      </c>
+      <c r="BO91">
+        <v>3.4</v>
+      </c>
+      <c r="BP91">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7818898</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45802.875</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>86</v>
+      </c>
+      <c r="P92" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q92">
+        <v>2.88</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>3.75</v>
+      </c>
+      <c r="T92">
+        <v>1.4</v>
+      </c>
+      <c r="U92">
+        <v>2.75</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>1.36</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>2.26</v>
+      </c>
+      <c r="AA92">
+        <v>3.37</v>
+      </c>
+      <c r="AB92">
+        <v>3.12</v>
+      </c>
+      <c r="AC92">
+        <v>1.06</v>
+      </c>
+      <c r="AD92">
+        <v>8</v>
+      </c>
+      <c r="AE92">
+        <v>1.3</v>
+      </c>
+      <c r="AF92">
+        <v>3.25</v>
+      </c>
+      <c r="AG92">
+        <v>2.08</v>
+      </c>
+      <c r="AH92">
+        <v>1.73</v>
+      </c>
+      <c r="AI92">
+        <v>1.8</v>
+      </c>
+      <c r="AJ92">
+        <v>1.91</v>
+      </c>
+      <c r="AK92">
+        <v>1.35</v>
+      </c>
+      <c r="AL92">
+        <v>1.28</v>
+      </c>
+      <c r="AM92">
+        <v>1.62</v>
+      </c>
+      <c r="AN92">
+        <v>0.75</v>
+      </c>
+      <c r="AO92">
+        <v>0.4</v>
+      </c>
+      <c r="AP92">
+        <v>0.6</v>
+      </c>
+      <c r="AQ92">
+        <v>0.83</v>
+      </c>
+      <c r="AR92">
+        <v>1.67</v>
+      </c>
+      <c r="AS92">
+        <v>1.17</v>
+      </c>
+      <c r="AT92">
+        <v>2.84</v>
+      </c>
+      <c r="AU92">
+        <v>3</v>
+      </c>
+      <c r="AV92">
+        <v>7</v>
+      </c>
+      <c r="AW92">
+        <v>15</v>
+      </c>
+      <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>24</v>
+      </c>
+      <c r="AZ92">
+        <v>14</v>
+      </c>
+      <c r="BA92">
+        <v>5</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>1.77</v>
+      </c>
+      <c r="BE92">
+        <v>6.5</v>
+      </c>
+      <c r="BF92">
+        <v>2.23</v>
+      </c>
+      <c r="BG92">
+        <v>1.26</v>
+      </c>
+      <c r="BH92">
+        <v>3.3</v>
+      </c>
+      <c r="BI92">
+        <v>1.46</v>
+      </c>
+      <c r="BJ92">
+        <v>2.43</v>
+      </c>
+      <c r="BK92">
+        <v>1.75</v>
+      </c>
+      <c r="BL92">
+        <v>1.89</v>
+      </c>
+      <c r="BM92">
+        <v>2.18</v>
+      </c>
+      <c r="BN92">
+        <v>1.56</v>
+      </c>
+      <c r="BO92">
+        <v>2.8</v>
+      </c>
+      <c r="BP92">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7818902</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45803.85416666666</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s">
+        <v>82</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <v>7</v>
+      </c>
+      <c r="O93" t="s">
+        <v>154</v>
+      </c>
+      <c r="P93" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q93">
+        <v>2.5</v>
+      </c>
+      <c r="R93">
+        <v>2.2</v>
+      </c>
+      <c r="S93">
+        <v>4.33</v>
+      </c>
+      <c r="T93">
+        <v>1.4</v>
+      </c>
+      <c r="U93">
+        <v>2.75</v>
+      </c>
+      <c r="V93">
+        <v>2.75</v>
+      </c>
+      <c r="W93">
+        <v>1.4</v>
+      </c>
+      <c r="X93">
+        <v>8</v>
+      </c>
+      <c r="Y93">
+        <v>1.08</v>
+      </c>
+      <c r="Z93">
+        <v>1.94</v>
+      </c>
+      <c r="AA93">
+        <v>3.48</v>
+      </c>
+      <c r="AB93">
+        <v>3.89</v>
+      </c>
+      <c r="AC93">
+        <v>1.06</v>
+      </c>
+      <c r="AD93">
+        <v>8</v>
+      </c>
+      <c r="AE93">
+        <v>1.33</v>
+      </c>
+      <c r="AF93">
+        <v>3.1</v>
+      </c>
+      <c r="AG93">
+        <v>1.95</v>
+      </c>
+      <c r="AH93">
+        <v>1.85</v>
+      </c>
+      <c r="AI93">
+        <v>1.8</v>
+      </c>
+      <c r="AJ93">
+        <v>1.91</v>
+      </c>
+      <c r="AK93">
+        <v>1.25</v>
+      </c>
+      <c r="AL93">
+        <v>1.25</v>
+      </c>
+      <c r="AM93">
+        <v>1.8</v>
+      </c>
+      <c r="AN93">
+        <v>2.67</v>
+      </c>
+      <c r="AO93">
+        <v>0.83</v>
+      </c>
+      <c r="AP93">
+        <v>2.71</v>
+      </c>
+      <c r="AQ93">
+        <v>0.71</v>
+      </c>
+      <c r="AR93">
+        <v>1.73</v>
+      </c>
+      <c r="AS93">
+        <v>1.33</v>
+      </c>
+      <c r="AT93">
+        <v>3.06</v>
+      </c>
+      <c r="AU93">
+        <v>8</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>11</v>
+      </c>
+      <c r="AX93">
+        <v>5</v>
+      </c>
+      <c r="AY93">
+        <v>22</v>
+      </c>
+      <c r="AZ93">
+        <v>11</v>
+      </c>
+      <c r="BA93">
+        <v>7</v>
+      </c>
+      <c r="BB93">
+        <v>8</v>
+      </c>
+      <c r="BC93">
+        <v>15</v>
+      </c>
+      <c r="BD93">
+        <v>1.72</v>
+      </c>
+      <c r="BE93">
+        <v>6.5</v>
+      </c>
+      <c r="BF93">
+        <v>2.33</v>
+      </c>
+      <c r="BG93">
+        <v>1.36</v>
+      </c>
+      <c r="BH93">
+        <v>2.75</v>
+      </c>
+      <c r="BI93">
+        <v>1.63</v>
+      </c>
+      <c r="BJ93">
+        <v>2.07</v>
+      </c>
+      <c r="BK93">
+        <v>2</v>
+      </c>
+      <c r="BL93">
+        <v>1.66</v>
+      </c>
+      <c r="BM93">
+        <v>2.55</v>
+      </c>
+      <c r="BN93">
+        <v>1.41</v>
+      </c>
+      <c r="BO93">
+        <v>3.4</v>
+      </c>
+      <c r="BP93">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -412,10 +412,10 @@
     <t>['65']</t>
   </si>
   <si>
-    <t>['48', '90+2']</t>
+    <t>['3']</t>
   </si>
   <si>
-    <t>['3']</t>
+    <t>['48', '90+2']</t>
   </si>
   <si>
     <t>['13', '33', '45', '56', '79', '87']</t>
@@ -8387,7 +8387,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7818844</v>
+        <v>7818845</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8402,43 +8402,43 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O37" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="P37" t="s">
         <v>86</v>
       </c>
       <c r="Q37">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R37">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S37">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="T37">
         <v>1.36</v>
@@ -8459,13 +8459,13 @@
         <v>1.1</v>
       </c>
       <c r="Z37">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="AA37">
-        <v>3.29</v>
+        <v>3.48</v>
       </c>
       <c r="AB37">
-        <v>2.81</v>
+        <v>3.81</v>
       </c>
       <c r="AC37">
         <v>1.02</v>
@@ -8480,82 +8480,82 @@
         <v>3.6</v>
       </c>
       <c r="AG37">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AH37">
+        <v>1.87</v>
+      </c>
+      <c r="AI37">
+        <v>1.8</v>
+      </c>
+      <c r="AJ37">
         <v>1.91</v>
       </c>
-      <c r="AI37">
-        <v>1.67</v>
-      </c>
-      <c r="AJ37">
-        <v>2.1</v>
-      </c>
       <c r="AK37">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AL37">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AM37">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="AN37">
+        <v>1.5</v>
+      </c>
+      <c r="AO37">
+        <v>1.5</v>
+      </c>
+      <c r="AP37">
+        <v>1.8</v>
+      </c>
+      <c r="AQ37">
+        <v>0.8</v>
+      </c>
+      <c r="AR37">
+        <v>1.78</v>
+      </c>
+      <c r="AS37">
+        <v>0.85</v>
+      </c>
+      <c r="AT37">
+        <v>2.63</v>
+      </c>
+      <c r="AU37">
+        <v>7</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>6</v>
+      </c>
+      <c r="AX37">
+        <v>4</v>
+      </c>
+      <c r="AY37">
+        <v>14</v>
+      </c>
+      <c r="AZ37">
+        <v>9</v>
+      </c>
+      <c r="BA37">
+        <v>5</v>
+      </c>
+      <c r="BB37">
         <v>3</v>
       </c>
-      <c r="AO37">
-        <v>2</v>
-      </c>
-      <c r="AP37">
-        <v>1.83</v>
-      </c>
-      <c r="AQ37">
-        <v>1.33</v>
-      </c>
-      <c r="AR37">
-        <v>2</v>
-      </c>
-      <c r="AS37">
-        <v>1.38</v>
-      </c>
-      <c r="AT37">
-        <v>3.38</v>
-      </c>
-      <c r="AU37">
-        <v>3</v>
-      </c>
-      <c r="AV37">
-        <v>6</v>
-      </c>
-      <c r="AW37">
-        <v>7</v>
-      </c>
-      <c r="AX37">
-        <v>17</v>
-      </c>
-      <c r="AY37">
-        <v>12</v>
-      </c>
-      <c r="AZ37">
-        <v>31</v>
-      </c>
-      <c r="BA37">
-        <v>2</v>
-      </c>
-      <c r="BB37">
-        <v>9</v>
-      </c>
       <c r="BC37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD37">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="BE37">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF37">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="BG37">
         <v>1.24</v>
@@ -8570,10 +8570,10 @@
         <v>2.45</v>
       </c>
       <c r="BK37">
+        <v>1.95</v>
+      </c>
+      <c r="BL37">
         <v>1.85</v>
-      </c>
-      <c r="BL37">
-        <v>1.95</v>
       </c>
       <c r="BM37">
         <v>2.37</v>
@@ -8593,7 +8593,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7818845</v>
+        <v>7818844</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8608,43 +8608,43 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="P38" t="s">
         <v>86</v>
       </c>
       <c r="Q38">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="R38">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S38">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="T38">
         <v>1.36</v>
@@ -8665,13 +8665,13 @@
         <v>1.1</v>
       </c>
       <c r="Z38">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="AA38">
-        <v>3.48</v>
+        <v>3.29</v>
       </c>
       <c r="AB38">
-        <v>3.81</v>
+        <v>2.81</v>
       </c>
       <c r="AC38">
         <v>1.02</v>
@@ -8686,82 +8686,82 @@
         <v>3.6</v>
       </c>
       <c r="AG38">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AH38">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AI38">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ38">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AK38">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AL38">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AM38">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="AN38">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AS38">
-        <v>0.85</v>
+        <v>1.38</v>
       </c>
       <c r="AT38">
-        <v>2.63</v>
+        <v>3.38</v>
       </c>
       <c r="AU38">
+        <v>3</v>
+      </c>
+      <c r="AV38">
+        <v>6</v>
+      </c>
+      <c r="AW38">
         <v>7</v>
       </c>
-      <c r="AV38">
-        <v>4</v>
-      </c>
-      <c r="AW38">
-        <v>6</v>
-      </c>
       <c r="AX38">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AY38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ38">
+        <v>31</v>
+      </c>
+      <c r="BA38">
+        <v>2</v>
+      </c>
+      <c r="BB38">
         <v>9</v>
       </c>
-      <c r="BA38">
-        <v>5</v>
-      </c>
-      <c r="BB38">
-        <v>3</v>
-      </c>
       <c r="BC38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD38">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="BE38">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF38">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="BG38">
         <v>1.24</v>
@@ -8776,10 +8776,10 @@
         <v>2.45</v>
       </c>
       <c r="BK38">
+        <v>1.85</v>
+      </c>
+      <c r="BL38">
         <v>1.95</v>
-      </c>
-      <c r="BL38">
-        <v>1.85</v>
       </c>
       <c r="BM38">
         <v>2.37</v>
@@ -13537,7 +13537,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7818998</v>
+        <v>7818876</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13552,28 +13552,28 @@
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O62" t="s">
         <v>132</v>
@@ -13582,112 +13582,112 @@
         <v>86</v>
       </c>
       <c r="Q62">
-        <v>2.37</v>
+        <v>2.85</v>
       </c>
       <c r="R62">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="T62">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="U62">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="V62">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="W62">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="X62">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="Y62">
+        <v>1.07</v>
+      </c>
+      <c r="Z62">
+        <v>2.13</v>
+      </c>
+      <c r="AA62">
+        <v>3.01</v>
+      </c>
+      <c r="AB62">
+        <v>3.06</v>
+      </c>
+      <c r="AC62">
+        <v>1.07</v>
+      </c>
+      <c r="AD62">
+        <v>7.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.36</v>
+      </c>
+      <c r="AF62">
+        <v>2.95</v>
+      </c>
+      <c r="AG62">
+        <v>2.1</v>
+      </c>
+      <c r="AH62">
+        <v>1.67</v>
+      </c>
+      <c r="AI62">
+        <v>1.85</v>
+      </c>
+      <c r="AJ62">
+        <v>1.83</v>
+      </c>
+      <c r="AK62">
+        <v>1.33</v>
+      </c>
+      <c r="AL62">
+        <v>1.33</v>
+      </c>
+      <c r="AM62">
+        <v>1.62</v>
+      </c>
+      <c r="AN62">
+        <v>2.5</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>2.17</v>
+      </c>
+      <c r="AQ62">
+        <v>1.2</v>
+      </c>
+      <c r="AR62">
+        <v>1.63</v>
+      </c>
+      <c r="AS62">
         <v>1.09</v>
       </c>
-      <c r="Z62">
-        <v>1.82</v>
-      </c>
-      <c r="AA62">
-        <v>3.6</v>
-      </c>
-      <c r="AB62">
+      <c r="AT62">
+        <v>2.72</v>
+      </c>
+      <c r="AU62">
+        <v>3</v>
+      </c>
+      <c r="AV62">
         <v>4</v>
       </c>
-      <c r="AC62">
-        <v>1.05</v>
-      </c>
-      <c r="AD62">
-        <v>9.25</v>
-      </c>
-      <c r="AE62">
-        <v>1.29</v>
-      </c>
-      <c r="AF62">
-        <v>3.25</v>
-      </c>
-      <c r="AG62">
-        <v>1.88</v>
-      </c>
-      <c r="AH62">
-        <v>1.8</v>
-      </c>
-      <c r="AI62">
-        <v>1.82</v>
-      </c>
-      <c r="AJ62">
-        <v>1.85</v>
-      </c>
-      <c r="AK62">
-        <v>1.23</v>
-      </c>
-      <c r="AL62">
-        <v>1.27</v>
-      </c>
-      <c r="AM62">
-        <v>1.93</v>
-      </c>
-      <c r="AN62">
-        <v>1</v>
-      </c>
-      <c r="AO62">
-        <v>0.25</v>
-      </c>
-      <c r="AP62">
-        <v>1.14</v>
-      </c>
-      <c r="AQ62">
-        <v>0.57</v>
-      </c>
-      <c r="AR62">
-        <v>1.77</v>
-      </c>
-      <c r="AS62">
-        <v>1.21</v>
-      </c>
-      <c r="AT62">
-        <v>2.98</v>
-      </c>
-      <c r="AU62">
-        <v>4</v>
-      </c>
-      <c r="AV62">
-        <v>3</v>
-      </c>
       <c r="AW62">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AX62">
         <v>8</v>
       </c>
       <c r="AY62">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AZ62">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA62">
         <v>3</v>
@@ -13699,25 +13699,25 @@
         <v>7</v>
       </c>
       <c r="BD62">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="BE62">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF62">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="BG62">
         <v>1.33</v>
       </c>
       <c r="BH62">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="BI62">
         <v>1.57</v>
       </c>
       <c r="BJ62">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="BK62">
         <v>1.92</v>
@@ -13726,10 +13726,10 @@
         <v>1.73</v>
       </c>
       <c r="BM62">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="BN62">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="BO62">
         <v>3.2</v>
@@ -13743,7 +13743,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7818876</v>
+        <v>7818998</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13758,28 +13758,28 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O63" t="s">
         <v>133</v>
@@ -13788,112 +13788,112 @@
         <v>86</v>
       </c>
       <c r="Q63">
+        <v>2.37</v>
+      </c>
+      <c r="R63">
+        <v>2.15</v>
+      </c>
+      <c r="S63">
+        <v>4.2</v>
+      </c>
+      <c r="T63">
+        <v>1.37</v>
+      </c>
+      <c r="U63">
         <v>2.85</v>
       </c>
-      <c r="R63">
-        <v>2</v>
-      </c>
-      <c r="S63">
-        <v>3.7</v>
-      </c>
-      <c r="T63">
-        <v>1.44</v>
-      </c>
-      <c r="U63">
-        <v>2.55</v>
-      </c>
       <c r="V63">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="W63">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="X63">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="Y63">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="Z63">
-        <v>2.13</v>
+        <v>1.82</v>
       </c>
       <c r="AA63">
-        <v>3.01</v>
+        <v>3.6</v>
       </c>
       <c r="AB63">
-        <v>3.06</v>
+        <v>4</v>
       </c>
       <c r="AC63">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD63">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE63">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AF63">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="AG63">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="AH63">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AI63">
+        <v>1.82</v>
+      </c>
+      <c r="AJ63">
         <v>1.85</v>
       </c>
-      <c r="AJ63">
-        <v>1.83</v>
-      </c>
       <c r="AK63">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AL63">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AM63">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="AN63">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>2.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR63">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="AS63">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="AT63">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
         <v>3</v>
       </c>
-      <c r="AV63">
-        <v>4</v>
-      </c>
       <c r="AW63">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX63">
         <v>8</v>
       </c>
       <c r="AY63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AZ63">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA63">
         <v>3</v>
@@ -13905,25 +13905,25 @@
         <v>7</v>
       </c>
       <c r="BD63">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="BE63">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF63">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="BG63">
         <v>1.33</v>
       </c>
       <c r="BH63">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BI63">
         <v>1.57</v>
       </c>
       <c r="BJ63">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="BK63">
         <v>1.92</v>
@@ -13932,10 +13932,10 @@
         <v>1.73</v>
       </c>
       <c r="BM63">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="BN63">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="BO63">
         <v>3.2</v>
@@ -18935,7 +18935,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q88">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,12 @@
     <t>['30', '62', '85', '90+4']</t>
   </si>
   <si>
+    <t>['16', '90+7']</t>
+  </si>
+  <si>
+    <t>['6', '24', '42', '75', '77', '82']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -599,6 +605,12 @@
   </si>
   <si>
     <t>['9', '39', '54']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['13', '37', '77', '90']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1231,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1300,7 +1312,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ2">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1918,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2043,7 +2055,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2121,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2249,7 +2261,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2455,7 +2467,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2867,7 +2879,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3073,7 +3085,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3769,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.67</v>
@@ -3897,7 +3909,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4309,7 +4321,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4390,7 +4402,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4515,7 +4527,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4596,7 +4608,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ18">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.84</v>
@@ -4799,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.5</v>
@@ -5133,7 +5145,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5339,7 +5351,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5420,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5545,7 +5557,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5623,7 +5635,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5751,7 +5763,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5957,7 +5969,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6038,7 +6050,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR25">
         <v>1.33</v>
@@ -6369,7 +6381,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6575,7 +6587,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6781,7 +6793,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6987,7 +6999,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7811,7 +7823,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8098,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>2.29</v>
@@ -8301,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0.83</v>
@@ -8510,7 +8522,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.78</v>
@@ -8716,7 +8728,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR38">
         <v>2</v>
@@ -8841,7 +8853,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9047,7 +9059,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9459,7 +9471,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9871,7 +9883,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10155,7 +10167,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.57</v>
@@ -10283,7 +10295,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10901,7 +10913,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11188,7 +11200,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.54</v>
@@ -11313,7 +11325,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11391,7 +11403,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11806,7 +11818,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.48</v>
@@ -12549,7 +12561,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12627,7 +12639,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.33</v>
@@ -12755,7 +12767,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12961,7 +12973,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13454,7 +13466,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.9</v>
@@ -14197,7 +14209,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14484,7 +14496,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ66">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR66">
         <v>2.18</v>
@@ -14609,7 +14621,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14815,7 +14827,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15021,7 +15033,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15099,7 +15111,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15639,7 +15651,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16132,7 +16144,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR74">
         <v>1.93</v>
@@ -16463,7 +16475,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16669,7 +16681,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16956,7 +16968,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ78">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.51</v>
@@ -17081,7 +17093,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17493,7 +17505,7 @@
         <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q81">
         <v>4.7</v>
@@ -17905,7 +17917,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18111,7 +18123,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18192,7 +18204,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ84">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR84">
         <v>1.95</v>
@@ -18317,7 +18329,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18395,7 +18407,7 @@
         <v>0.4</v>
       </c>
       <c r="AP85">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>0.33</v>
@@ -18729,7 +18741,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q87">
         <v>2.54</v>
@@ -19347,7 +19359,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q90">
         <v>2.88</v>
@@ -19428,7 +19440,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR90">
         <v>1.8</v>
@@ -19553,7 +19565,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19965,7 +19977,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20122,6 +20134,624 @@
       </c>
       <c r="BP93">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7818910</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45808.5625</v>
+      </c>
+      <c r="F94">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>82</v>
+      </c>
+      <c r="H94" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>86</v>
+      </c>
+      <c r="P94" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q94">
+        <v>2.65</v>
+      </c>
+      <c r="R94">
+        <v>2.1</v>
+      </c>
+      <c r="S94">
+        <v>3.75</v>
+      </c>
+      <c r="T94">
+        <v>1.39</v>
+      </c>
+      <c r="U94">
+        <v>2.75</v>
+      </c>
+      <c r="V94">
+        <v>2.8</v>
+      </c>
+      <c r="W94">
+        <v>1.38</v>
+      </c>
+      <c r="X94">
+        <v>7.25</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>2.05</v>
+      </c>
+      <c r="AA94">
+        <v>3.25</v>
+      </c>
+      <c r="AB94">
+        <v>3.35</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>8</v>
+      </c>
+      <c r="AE94">
+        <v>1.27</v>
+      </c>
+      <c r="AF94">
+        <v>3.15</v>
+      </c>
+      <c r="AG94">
+        <v>1.98</v>
+      </c>
+      <c r="AH94">
+        <v>1.79</v>
+      </c>
+      <c r="AI94">
+        <v>1.78</v>
+      </c>
+      <c r="AJ94">
+        <v>1.9</v>
+      </c>
+      <c r="AK94">
+        <v>1.3</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.7</v>
+      </c>
+      <c r="AN94">
+        <v>2.4</v>
+      </c>
+      <c r="AO94">
+        <v>0.8</v>
+      </c>
+      <c r="AP94">
+        <v>2</v>
+      </c>
+      <c r="AQ94">
+        <v>1.17</v>
+      </c>
+      <c r="AR94">
+        <v>1.4</v>
+      </c>
+      <c r="AS94">
+        <v>1.22</v>
+      </c>
+      <c r="AT94">
+        <v>2.62</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>6</v>
+      </c>
+      <c r="AW94">
+        <v>7</v>
+      </c>
+      <c r="AX94">
+        <v>12</v>
+      </c>
+      <c r="AY94">
+        <v>11</v>
+      </c>
+      <c r="AZ94">
+        <v>23</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>3</v>
+      </c>
+      <c r="BD94">
+        <v>1.63</v>
+      </c>
+      <c r="BE94">
+        <v>6.4</v>
+      </c>
+      <c r="BF94">
+        <v>2.55</v>
+      </c>
+      <c r="BG94">
+        <v>1.34</v>
+      </c>
+      <c r="BH94">
+        <v>2.8</v>
+      </c>
+      <c r="BI94">
+        <v>1.58</v>
+      </c>
+      <c r="BJ94">
+        <v>2.12</v>
+      </c>
+      <c r="BK94">
+        <v>1.97</v>
+      </c>
+      <c r="BL94">
+        <v>1.68</v>
+      </c>
+      <c r="BM94">
+        <v>2.55</v>
+      </c>
+      <c r="BN94">
+        <v>1.42</v>
+      </c>
+      <c r="BO94">
+        <v>3.3</v>
+      </c>
+      <c r="BP94">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7818906</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45808.5625</v>
+      </c>
+      <c r="F95">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+      <c r="N95">
+        <v>6</v>
+      </c>
+      <c r="O95" t="s">
+        <v>155</v>
+      </c>
+      <c r="P95" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q95">
+        <v>4</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>3</v>
+      </c>
+      <c r="T95">
+        <v>1.5</v>
+      </c>
+      <c r="U95">
+        <v>2.55</v>
+      </c>
+      <c r="V95">
+        <v>3.34</v>
+      </c>
+      <c r="W95">
+        <v>1.28</v>
+      </c>
+      <c r="X95">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y95">
+        <v>1.01</v>
+      </c>
+      <c r="Z95">
+        <v>3.27</v>
+      </c>
+      <c r="AA95">
+        <v>3.25</v>
+      </c>
+      <c r="AB95">
+        <v>2.24</v>
+      </c>
+      <c r="AC95">
+        <v>1.06</v>
+      </c>
+      <c r="AD95">
+        <v>7.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.4</v>
+      </c>
+      <c r="AF95">
+        <v>2.75</v>
+      </c>
+      <c r="AG95">
+        <v>2.35</v>
+      </c>
+      <c r="AH95">
+        <v>1.57</v>
+      </c>
+      <c r="AI95">
+        <v>2</v>
+      </c>
+      <c r="AJ95">
+        <v>1.73</v>
+      </c>
+      <c r="AK95">
+        <v>1.65</v>
+      </c>
+      <c r="AL95">
+        <v>1.33</v>
+      </c>
+      <c r="AM95">
+        <v>1.31</v>
+      </c>
+      <c r="AN95">
+        <v>2.4</v>
+      </c>
+      <c r="AO95">
+        <v>1.83</v>
+      </c>
+      <c r="AP95">
+        <v>2</v>
+      </c>
+      <c r="AQ95">
+        <v>2</v>
+      </c>
+      <c r="AR95">
+        <v>1.68</v>
+      </c>
+      <c r="AS95">
+        <v>1.39</v>
+      </c>
+      <c r="AT95">
+        <v>3.07</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>9</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>7</v>
+      </c>
+      <c r="AY95">
+        <v>15</v>
+      </c>
+      <c r="AZ95">
+        <v>17</v>
+      </c>
+      <c r="BA95">
+        <v>5</v>
+      </c>
+      <c r="BB95">
+        <v>6</v>
+      </c>
+      <c r="BC95">
+        <v>11</v>
+      </c>
+      <c r="BD95">
+        <v>2.23</v>
+      </c>
+      <c r="BE95">
+        <v>6.4</v>
+      </c>
+      <c r="BF95">
+        <v>1.79</v>
+      </c>
+      <c r="BG95">
+        <v>1.34</v>
+      </c>
+      <c r="BH95">
+        <v>2.85</v>
+      </c>
+      <c r="BI95">
+        <v>1.6</v>
+      </c>
+      <c r="BJ95">
+        <v>2.12</v>
+      </c>
+      <c r="BK95">
+        <v>1.97</v>
+      </c>
+      <c r="BL95">
+        <v>1.7</v>
+      </c>
+      <c r="BM95">
+        <v>2.5</v>
+      </c>
+      <c r="BN95">
+        <v>1.42</v>
+      </c>
+      <c r="BO95">
+        <v>3.3</v>
+      </c>
+      <c r="BP95">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7818909</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45808.66666666666</v>
+      </c>
+      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>6</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>6</v>
+      </c>
+      <c r="O96" t="s">
+        <v>156</v>
+      </c>
+      <c r="P96" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q96">
+        <v>2.05</v>
+      </c>
+      <c r="R96">
+        <v>2.4</v>
+      </c>
+      <c r="S96">
+        <v>6</v>
+      </c>
+      <c r="T96">
+        <v>1.33</v>
+      </c>
+      <c r="U96">
+        <v>3.25</v>
+      </c>
+      <c r="V96">
+        <v>2.5</v>
+      </c>
+      <c r="W96">
+        <v>1.5</v>
+      </c>
+      <c r="X96">
+        <v>6.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.11</v>
+      </c>
+      <c r="Z96">
+        <v>1.51</v>
+      </c>
+      <c r="AA96">
+        <v>4.28</v>
+      </c>
+      <c r="AB96">
+        <v>5.86</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>11</v>
+      </c>
+      <c r="AE96">
+        <v>1.2</v>
+      </c>
+      <c r="AF96">
+        <v>4</v>
+      </c>
+      <c r="AG96">
+        <v>1.73</v>
+      </c>
+      <c r="AH96">
+        <v>2.08</v>
+      </c>
+      <c r="AI96">
+        <v>1.83</v>
+      </c>
+      <c r="AJ96">
+        <v>1.83</v>
+      </c>
+      <c r="AK96">
+        <v>1.12</v>
+      </c>
+      <c r="AL96">
+        <v>1.21</v>
+      </c>
+      <c r="AM96">
+        <v>2.49</v>
+      </c>
+      <c r="AN96">
+        <v>3</v>
+      </c>
+      <c r="AO96">
+        <v>1.33</v>
+      </c>
+      <c r="AP96">
+        <v>3</v>
+      </c>
+      <c r="AQ96">
+        <v>1.14</v>
+      </c>
+      <c r="AR96">
+        <v>2.13</v>
+      </c>
+      <c r="AS96">
+        <v>1.65</v>
+      </c>
+      <c r="AT96">
+        <v>3.78</v>
+      </c>
+      <c r="AU96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>9</v>
+      </c>
+      <c r="AX96">
+        <v>6</v>
+      </c>
+      <c r="AY96">
+        <v>17</v>
+      </c>
+      <c r="AZ96">
+        <v>12</v>
+      </c>
+      <c r="BA96">
+        <v>3</v>
+      </c>
+      <c r="BB96">
+        <v>4</v>
+      </c>
+      <c r="BC96">
+        <v>7</v>
+      </c>
+      <c r="BD96">
+        <v>1.36</v>
+      </c>
+      <c r="BE96">
+        <v>7.5</v>
+      </c>
+      <c r="BF96">
+        <v>3.4</v>
+      </c>
+      <c r="BG96">
+        <v>1.27</v>
+      </c>
+      <c r="BH96">
+        <v>3.15</v>
+      </c>
+      <c r="BI96">
+        <v>1.47</v>
+      </c>
+      <c r="BJ96">
+        <v>2.4</v>
+      </c>
+      <c r="BK96">
+        <v>1.77</v>
+      </c>
+      <c r="BL96">
+        <v>1.88</v>
+      </c>
+      <c r="BM96">
+        <v>2.2</v>
+      </c>
+      <c r="BN96">
+        <v>1.55</v>
+      </c>
+      <c r="BO96">
+        <v>2.8</v>
+      </c>
+      <c r="BP96">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>['6', '24', '42', '75', '77', '82']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
   <si>
     <t>['3', '84', '90+7']</t>
@@ -972,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1234,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -2055,7 +2058,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2261,7 +2264,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2467,7 +2470,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2548,7 +2551,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2879,7 +2882,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3085,7 +3088,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3909,7 +3912,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4321,7 +4324,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4527,7 +4530,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -5145,7 +5148,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5226,7 +5229,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR21">
         <v>1.92</v>
@@ -5351,7 +5354,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5557,7 +5560,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5763,7 +5766,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5969,7 +5972,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6381,7 +6384,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6587,7 +6590,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6793,7 +6796,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6999,7 +7002,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7823,7 +7826,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8853,7 +8856,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9059,7 +9062,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9471,7 +9474,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9883,7 +9886,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10295,7 +10298,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10376,7 +10379,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>2.2</v>
@@ -10913,7 +10916,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11325,7 +11328,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -12561,7 +12564,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12767,7 +12770,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12973,7 +12976,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13672,7 +13675,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR62">
         <v>1.63</v>
@@ -14209,7 +14212,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14621,7 +14624,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14827,7 +14830,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15033,7 +15036,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15651,7 +15654,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16475,7 +16478,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16681,7 +16684,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -17093,7 +17096,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17174,7 +17177,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR79">
         <v>1.73</v>
@@ -17505,7 +17508,7 @@
         <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q81">
         <v>4.7</v>
@@ -17917,7 +17920,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18123,7 +18126,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18329,7 +18332,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18741,7 +18744,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q87">
         <v>2.54</v>
@@ -19359,7 +19362,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q90">
         <v>2.88</v>
@@ -19565,7 +19568,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19977,7 +19980,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20183,7 +20186,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q94">
         <v>2.65</v>
@@ -20389,7 +20392,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20752,6 +20755,212 @@
       </c>
       <c r="BP96">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7818908</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45808.875</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H97" t="s">
+        <v>78</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>157</v>
+      </c>
+      <c r="P97" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q97">
+        <v>3.1</v>
+      </c>
+      <c r="R97">
+        <v>2.2</v>
+      </c>
+      <c r="S97">
+        <v>3.4</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>2.75</v>
+      </c>
+      <c r="W97">
+        <v>1.4</v>
+      </c>
+      <c r="X97">
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>2.41</v>
+      </c>
+      <c r="AA97">
+        <v>3.34</v>
+      </c>
+      <c r="AB97">
+        <v>2.9</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>9</v>
+      </c>
+      <c r="AE97">
+        <v>1.25</v>
+      </c>
+      <c r="AF97">
+        <v>3.6</v>
+      </c>
+      <c r="AG97">
+        <v>1.95</v>
+      </c>
+      <c r="AH97">
+        <v>1.85</v>
+      </c>
+      <c r="AI97">
+        <v>1.73</v>
+      </c>
+      <c r="AJ97">
+        <v>2</v>
+      </c>
+      <c r="AK97">
+        <v>1.39</v>
+      </c>
+      <c r="AL97">
+        <v>1.33</v>
+      </c>
+      <c r="AM97">
+        <v>1.53</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>1.2</v>
+      </c>
+      <c r="AP97">
+        <v>1</v>
+      </c>
+      <c r="AQ97">
+        <v>1.17</v>
+      </c>
+      <c r="AR97">
+        <v>1.81</v>
+      </c>
+      <c r="AS97">
+        <v>1.21</v>
+      </c>
+      <c r="AT97">
+        <v>3.02</v>
+      </c>
+      <c r="AU97">
+        <v>-1</v>
+      </c>
+      <c r="AV97">
+        <v>-1</v>
+      </c>
+      <c r="AW97">
+        <v>-1</v>
+      </c>
+      <c r="AX97">
+        <v>-1</v>
+      </c>
+      <c r="AY97">
+        <v>-1</v>
+      </c>
+      <c r="AZ97">
+        <v>-1</v>
+      </c>
+      <c r="BA97">
+        <v>-1</v>
+      </c>
+      <c r="BB97">
+        <v>-1</v>
+      </c>
+      <c r="BC97">
+        <v>-1</v>
+      </c>
+      <c r="BD97">
+        <v>1.8</v>
+      </c>
+      <c r="BE97">
+        <v>6.75</v>
+      </c>
+      <c r="BF97">
+        <v>2.18</v>
+      </c>
+      <c r="BG97">
+        <v>1.22</v>
+      </c>
+      <c r="BH97">
+        <v>3.6</v>
+      </c>
+      <c r="BI97">
+        <v>1.4</v>
+      </c>
+      <c r="BJ97">
+        <v>2.63</v>
+      </c>
+      <c r="BK97">
+        <v>1.65</v>
+      </c>
+      <c r="BL97">
+        <v>2.02</v>
+      </c>
+      <c r="BM97">
+        <v>2.04</v>
+      </c>
+      <c r="BN97">
+        <v>1.64</v>
+      </c>
+      <c r="BO97">
+        <v>2.55</v>
+      </c>
+      <c r="BP97">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -20897,31 +20897,31 @@
         <v>3.02</v>
       </c>
       <c r="AU97">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV97">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW97">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AX97">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY97">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="AZ97">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA97">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB97">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC97">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD97">
         <v>1.8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
   <si>
     <t>['3', '84', '90+7']</t>
@@ -975,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1237,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1518,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -2058,7 +2061,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2264,7 +2267,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2470,7 +2473,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2882,7 +2885,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3088,7 +3091,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3375,7 +3378,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3912,7 +3915,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4324,7 +4327,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4530,7 +4533,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -5148,7 +5151,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5226,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
         <v>1.17</v>
@@ -5354,7 +5357,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5560,7 +5563,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5766,7 +5769,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5972,7 +5975,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6384,7 +6387,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6465,7 +6468,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>2.18</v>
@@ -6590,7 +6593,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6796,7 +6799,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -7002,7 +7005,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7826,7 +7829,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8522,7 +8525,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
         <v>1.17</v>
@@ -8856,7 +8859,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9062,7 +9065,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9474,7 +9477,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9555,7 +9558,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR42">
         <v>1.33</v>
@@ -9886,7 +9889,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10298,7 +10301,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10916,7 +10919,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -10997,7 +11000,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ49">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11328,7 +11331,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11612,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>0.83</v>
@@ -12564,7 +12567,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12770,7 +12773,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12976,7 +12979,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -14212,7 +14215,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14624,7 +14627,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14830,7 +14833,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14908,7 +14911,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>0.8</v>
@@ -15036,7 +15039,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15654,7 +15657,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15941,7 +15944,7 @@
         <v>3</v>
       </c>
       <c r="AQ73">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR73">
         <v>2.35</v>
@@ -16478,7 +16481,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16684,7 +16687,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -17096,7 +17099,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17383,7 +17386,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR80">
         <v>2.04</v>
@@ -17508,7 +17511,7 @@
         <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q81">
         <v>4.7</v>
@@ -17920,7 +17923,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18126,7 +18129,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18332,7 +18335,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18744,7 +18747,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q87">
         <v>2.54</v>
@@ -19362,7 +19365,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q90">
         <v>2.88</v>
@@ -19568,7 +19571,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19980,7 +19983,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20186,7 +20189,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q94">
         <v>2.65</v>
@@ -20392,7 +20395,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20804,7 +20807,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -20961,6 +20964,212 @@
       </c>
       <c r="BP97">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7818904</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>158</v>
+      </c>
+      <c r="P98" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q98">
+        <v>3</v>
+      </c>
+      <c r="R98">
+        <v>2.2</v>
+      </c>
+      <c r="S98">
+        <v>3.5</v>
+      </c>
+      <c r="T98">
+        <v>1.36</v>
+      </c>
+      <c r="U98">
+        <v>3</v>
+      </c>
+      <c r="V98">
+        <v>2.75</v>
+      </c>
+      <c r="W98">
+        <v>1.4</v>
+      </c>
+      <c r="X98">
+        <v>7</v>
+      </c>
+      <c r="Y98">
+        <v>1.1</v>
+      </c>
+      <c r="Z98">
+        <v>2.39</v>
+      </c>
+      <c r="AA98">
+        <v>3.32</v>
+      </c>
+      <c r="AB98">
+        <v>2.95</v>
+      </c>
+      <c r="AC98">
+        <v>1.03</v>
+      </c>
+      <c r="AD98">
+        <v>9</v>
+      </c>
+      <c r="AE98">
+        <v>1.29</v>
+      </c>
+      <c r="AF98">
+        <v>3.3</v>
+      </c>
+      <c r="AG98">
+        <v>1.96</v>
+      </c>
+      <c r="AH98">
+        <v>1.85</v>
+      </c>
+      <c r="AI98">
+        <v>1.67</v>
+      </c>
+      <c r="AJ98">
+        <v>2.1</v>
+      </c>
+      <c r="AK98">
+        <v>1.39</v>
+      </c>
+      <c r="AL98">
+        <v>1.3</v>
+      </c>
+      <c r="AM98">
+        <v>1.57</v>
+      </c>
+      <c r="AN98">
+        <v>1.8</v>
+      </c>
+      <c r="AO98">
+        <v>0.83</v>
+      </c>
+      <c r="AP98">
+        <v>1.67</v>
+      </c>
+      <c r="AQ98">
+        <v>0.86</v>
+      </c>
+      <c r="AR98">
+        <v>1.8</v>
+      </c>
+      <c r="AS98">
+        <v>1.22</v>
+      </c>
+      <c r="AT98">
+        <v>3.02</v>
+      </c>
+      <c r="AU98">
+        <v>5</v>
+      </c>
+      <c r="AV98">
+        <v>9</v>
+      </c>
+      <c r="AW98">
+        <v>5</v>
+      </c>
+      <c r="AX98">
+        <v>4</v>
+      </c>
+      <c r="AY98">
+        <v>12</v>
+      </c>
+      <c r="AZ98">
+        <v>13</v>
+      </c>
+      <c r="BA98">
+        <v>1</v>
+      </c>
+      <c r="BB98">
+        <v>8</v>
+      </c>
+      <c r="BC98">
+        <v>9</v>
+      </c>
+      <c r="BD98">
+        <v>1.94</v>
+      </c>
+      <c r="BE98">
+        <v>6.4</v>
+      </c>
+      <c r="BF98">
+        <v>2.07</v>
+      </c>
+      <c r="BG98">
+        <v>1.43</v>
+      </c>
+      <c r="BH98">
+        <v>2.5</v>
+      </c>
+      <c r="BI98">
+        <v>1.72</v>
+      </c>
+      <c r="BJ98">
+        <v>1.93</v>
+      </c>
+      <c r="BK98">
+        <v>2.18</v>
+      </c>
+      <c r="BL98">
+        <v>1.56</v>
+      </c>
+      <c r="BM98">
+        <v>2.88</v>
+      </c>
+      <c r="BN98">
+        <v>1.33</v>
+      </c>
+      <c r="BO98">
+        <v>3.85</v>
+      </c>
+      <c r="BP98">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -978,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2142,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -5644,7 +5644,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.43</v>
@@ -6053,7 +6053,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ25">
         <v>1.14</v>
@@ -6259,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26">
         <v>0.71</v>
@@ -10585,7 +10585,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -13675,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ62">
         <v>1.17</v>
@@ -15326,7 +15326,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.55</v>
@@ -16971,7 +16971,7 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -21170,6 +21170,212 @@
       </c>
       <c r="BP98">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7818903</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>84</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>86</v>
+      </c>
+      <c r="P99" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q99">
+        <v>4.75</v>
+      </c>
+      <c r="R99">
+        <v>2.05</v>
+      </c>
+      <c r="S99">
+        <v>2.63</v>
+      </c>
+      <c r="T99">
+        <v>1.5</v>
+      </c>
+      <c r="U99">
+        <v>2.5</v>
+      </c>
+      <c r="V99">
+        <v>3.4</v>
+      </c>
+      <c r="W99">
+        <v>1.3</v>
+      </c>
+      <c r="X99">
+        <v>10</v>
+      </c>
+      <c r="Y99">
+        <v>1.06</v>
+      </c>
+      <c r="Z99">
+        <v>4.13</v>
+      </c>
+      <c r="AA99">
+        <v>3.31</v>
+      </c>
+      <c r="AB99">
+        <v>1.94</v>
+      </c>
+      <c r="AC99">
+        <v>1.06</v>
+      </c>
+      <c r="AD99">
+        <v>7.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.4</v>
+      </c>
+      <c r="AF99">
+        <v>2.75</v>
+      </c>
+      <c r="AG99">
+        <v>2.35</v>
+      </c>
+      <c r="AH99">
+        <v>1.57</v>
+      </c>
+      <c r="AI99">
+        <v>2.1</v>
+      </c>
+      <c r="AJ99">
+        <v>1.67</v>
+      </c>
+      <c r="AK99">
+        <v>1.83</v>
+      </c>
+      <c r="AL99">
+        <v>1.31</v>
+      </c>
+      <c r="AM99">
+        <v>1.23</v>
+      </c>
+      <c r="AN99">
+        <v>2.17</v>
+      </c>
+      <c r="AO99">
+        <v>1</v>
+      </c>
+      <c r="AP99">
+        <v>1.86</v>
+      </c>
+      <c r="AQ99">
+        <v>1.5</v>
+      </c>
+      <c r="AR99">
+        <v>1.47</v>
+      </c>
+      <c r="AS99">
+        <v>1.89</v>
+      </c>
+      <c r="AT99">
+        <v>3.36</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>2</v>
+      </c>
+      <c r="AW99">
+        <v>15</v>
+      </c>
+      <c r="AX99">
+        <v>3</v>
+      </c>
+      <c r="AY99">
+        <v>27</v>
+      </c>
+      <c r="AZ99">
+        <v>7</v>
+      </c>
+      <c r="BA99">
+        <v>3</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
+      </c>
+      <c r="BC99">
+        <v>4</v>
+      </c>
+      <c r="BD99">
+        <v>2.65</v>
+      </c>
+      <c r="BE99">
+        <v>6.5</v>
+      </c>
+      <c r="BF99">
+        <v>1.58</v>
+      </c>
+      <c r="BG99">
+        <v>1.47</v>
+      </c>
+      <c r="BH99">
+        <v>2.38</v>
+      </c>
+      <c r="BI99">
+        <v>1.81</v>
+      </c>
+      <c r="BJ99">
+        <v>1.83</v>
+      </c>
+      <c r="BK99">
+        <v>2.3</v>
+      </c>
+      <c r="BL99">
+        <v>1.5</v>
+      </c>
+      <c r="BM99">
+        <v>3</v>
+      </c>
+      <c r="BN99">
+        <v>1.3</v>
+      </c>
+      <c r="BO99">
+        <v>4</v>
+      </c>
+      <c r="BP99">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,12 @@
     <t>['32']</t>
   </si>
   <si>
+    <t>['45+5', '77']</t>
+  </si>
+  <si>
+    <t>['62', '90+1']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -617,6 +623,9 @@
   </si>
   <si>
     <t>['13', '37', '77', '90']</t>
+  </si>
+  <si>
+    <t>['34', '64']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1246,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -2061,7 +2070,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2267,7 +2276,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2473,7 +2482,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2885,7 +2894,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2966,7 +2975,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ10">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3091,7 +3100,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3169,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3584,7 +3593,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3915,7 +3924,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3993,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.57</v>
@@ -4327,7 +4336,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4533,7 +4542,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -5026,7 +5035,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR20">
         <v>1.33</v>
@@ -5151,7 +5160,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5357,7 +5366,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5563,7 +5572,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5769,7 +5778,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5847,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>0.8</v>
@@ -5975,7 +5984,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6387,7 +6396,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6593,7 +6602,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6799,7 +6808,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6880,7 +6889,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ29">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR29">
         <v>1.73</v>
@@ -7005,7 +7014,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7829,7 +7838,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8731,7 +8740,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.14</v>
@@ -8859,7 +8868,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9065,7 +9074,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9477,7 +9486,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9555,7 +9564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ42">
         <v>0.86</v>
@@ -9764,7 +9773,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR43">
         <v>1.91</v>
@@ -9889,7 +9898,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -9970,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR44">
         <v>2.49</v>
@@ -10301,7 +10310,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10919,7 +10928,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -10997,7 +11006,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>0.86</v>
@@ -11331,7 +11340,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11821,7 +11830,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ53">
         <v>1.17</v>
@@ -12030,7 +12039,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ54">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR54">
         <v>1.28</v>
@@ -12567,7 +12576,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12773,7 +12782,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12854,7 +12863,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -12979,7 +12988,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -14215,7 +14224,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14293,10 +14302,10 @@
         <v>0.25</v>
       </c>
       <c r="AP65">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR65">
         <v>1.71</v>
@@ -14627,7 +14636,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14708,7 +14717,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR67">
         <v>2.15</v>
@@ -14833,7 +14842,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15039,7 +15048,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15529,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -15657,7 +15666,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16481,7 +16490,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16687,7 +16696,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -17099,7 +17108,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17177,7 +17186,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1.17</v>
@@ -17511,7 +17520,7 @@
         <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q81">
         <v>4.7</v>
@@ -17923,7 +17932,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18001,7 +18010,7 @@
         <v>0.2</v>
       </c>
       <c r="AP83">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18129,7 +18138,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18335,7 +18344,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18416,7 +18425,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR85">
         <v>1.47</v>
@@ -18747,7 +18756,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>2.54</v>
@@ -19365,7 +19374,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q90">
         <v>2.88</v>
@@ -19571,7 +19580,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19983,7 +19992,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20189,7 +20198,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q94">
         <v>2.65</v>
@@ -20395,7 +20404,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20807,7 +20816,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21013,7 +21022,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21219,7 +21228,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q99">
         <v>4.75</v>
@@ -21376,6 +21385,418 @@
       </c>
       <c r="BP99">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7818905</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45810.79166666666</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>83</v>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>159</v>
+      </c>
+      <c r="P100" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q100">
+        <v>2.32</v>
+      </c>
+      <c r="R100">
+        <v>2.23</v>
+      </c>
+      <c r="S100">
+        <v>4.45</v>
+      </c>
+      <c r="T100">
+        <v>1.32</v>
+      </c>
+      <c r="U100">
+        <v>3.1</v>
+      </c>
+      <c r="V100">
+        <v>2.53</v>
+      </c>
+      <c r="W100">
+        <v>1.46</v>
+      </c>
+      <c r="X100">
+        <v>5.95</v>
+      </c>
+      <c r="Y100">
+        <v>1.07</v>
+      </c>
+      <c r="Z100">
+        <v>1.82</v>
+      </c>
+      <c r="AA100">
+        <v>3.72</v>
+      </c>
+      <c r="AB100">
+        <v>4.05</v>
+      </c>
+      <c r="AC100">
+        <v>1.02</v>
+      </c>
+      <c r="AD100">
+        <v>10</v>
+      </c>
+      <c r="AE100">
+        <v>1.19</v>
+      </c>
+      <c r="AF100">
+        <v>3.8</v>
+      </c>
+      <c r="AG100">
+        <v>1.75</v>
+      </c>
+      <c r="AH100">
+        <v>2.04</v>
+      </c>
+      <c r="AI100">
+        <v>1.65</v>
+      </c>
+      <c r="AJ100">
+        <v>2.11</v>
+      </c>
+      <c r="AK100">
+        <v>1.23</v>
+      </c>
+      <c r="AL100">
+        <v>1.26</v>
+      </c>
+      <c r="AM100">
+        <v>1.95</v>
+      </c>
+      <c r="AN100">
+        <v>1.83</v>
+      </c>
+      <c r="AO100">
+        <v>0.33</v>
+      </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
+        <v>0.29</v>
+      </c>
+      <c r="AR100">
+        <v>1.73</v>
+      </c>
+      <c r="AS100">
+        <v>1.31</v>
+      </c>
+      <c r="AT100">
+        <v>3.04</v>
+      </c>
+      <c r="AU100">
+        <v>9</v>
+      </c>
+      <c r="AV100">
+        <v>9</v>
+      </c>
+      <c r="AW100">
+        <v>13</v>
+      </c>
+      <c r="AX100">
+        <v>7</v>
+      </c>
+      <c r="AY100">
+        <v>27</v>
+      </c>
+      <c r="AZ100">
+        <v>20</v>
+      </c>
+      <c r="BA100">
+        <v>7</v>
+      </c>
+      <c r="BB100">
+        <v>5</v>
+      </c>
+      <c r="BC100">
+        <v>12</v>
+      </c>
+      <c r="BD100">
+        <v>1.71</v>
+      </c>
+      <c r="BE100">
+        <v>6.4</v>
+      </c>
+      <c r="BF100">
+        <v>2.4</v>
+      </c>
+      <c r="BG100">
+        <v>1.32</v>
+      </c>
+      <c r="BH100">
+        <v>2.95</v>
+      </c>
+      <c r="BI100">
+        <v>1.54</v>
+      </c>
+      <c r="BJ100">
+        <v>2.23</v>
+      </c>
+      <c r="BK100">
+        <v>1.88</v>
+      </c>
+      <c r="BL100">
+        <v>1.77</v>
+      </c>
+      <c r="BM100">
+        <v>2.38</v>
+      </c>
+      <c r="BN100">
+        <v>1.47</v>
+      </c>
+      <c r="BO100">
+        <v>3.05</v>
+      </c>
+      <c r="BP100">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7818907</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45811.66666666666</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101" t="s">
+        <v>160</v>
+      </c>
+      <c r="P101" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q101">
+        <v>2.75</v>
+      </c>
+      <c r="R101">
+        <v>2.38</v>
+      </c>
+      <c r="S101">
+        <v>3.4</v>
+      </c>
+      <c r="T101">
+        <v>1.3</v>
+      </c>
+      <c r="U101">
+        <v>3.4</v>
+      </c>
+      <c r="V101">
+        <v>2.38</v>
+      </c>
+      <c r="W101">
+        <v>1.53</v>
+      </c>
+      <c r="X101">
+        <v>6</v>
+      </c>
+      <c r="Y101">
+        <v>1.13</v>
+      </c>
+      <c r="Z101">
+        <v>2.16</v>
+      </c>
+      <c r="AA101">
+        <v>3.75</v>
+      </c>
+      <c r="AB101">
+        <v>3.03</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>11</v>
+      </c>
+      <c r="AE101">
+        <v>1.14</v>
+      </c>
+      <c r="AF101">
+        <v>4.45</v>
+      </c>
+      <c r="AG101">
+        <v>1.65</v>
+      </c>
+      <c r="AH101">
+        <v>2.2</v>
+      </c>
+      <c r="AI101">
+        <v>1.53</v>
+      </c>
+      <c r="AJ101">
+        <v>2.38</v>
+      </c>
+      <c r="AK101">
+        <v>1.36</v>
+      </c>
+      <c r="AL101">
+        <v>1.3</v>
+      </c>
+      <c r="AM101">
+        <v>1.62</v>
+      </c>
+      <c r="AN101">
+        <v>0.6</v>
+      </c>
+      <c r="AO101">
+        <v>0.2</v>
+      </c>
+      <c r="AP101">
+        <v>0.67</v>
+      </c>
+      <c r="AQ101">
+        <v>0.33</v>
+      </c>
+      <c r="AR101">
+        <v>1.56</v>
+      </c>
+      <c r="AS101">
+        <v>1.66</v>
+      </c>
+      <c r="AT101">
+        <v>3.22</v>
+      </c>
+      <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>14</v>
+      </c>
+      <c r="AX101">
+        <v>9</v>
+      </c>
+      <c r="AY101">
+        <v>28</v>
+      </c>
+      <c r="AZ101">
+        <v>18</v>
+      </c>
+      <c r="BA101">
+        <v>10</v>
+      </c>
+      <c r="BB101">
+        <v>3</v>
+      </c>
+      <c r="BC101">
+        <v>13</v>
+      </c>
+      <c r="BD101">
+        <v>1.78</v>
+      </c>
+      <c r="BE101">
+        <v>6.75</v>
+      </c>
+      <c r="BF101">
+        <v>2.23</v>
+      </c>
+      <c r="BG101">
+        <v>1.16</v>
+      </c>
+      <c r="BH101">
+        <v>4.1</v>
+      </c>
+      <c r="BI101">
+        <v>1.32</v>
+      </c>
+      <c r="BJ101">
+        <v>2.95</v>
+      </c>
+      <c r="BK101">
+        <v>1.52</v>
+      </c>
+      <c r="BL101">
+        <v>2.28</v>
+      </c>
+      <c r="BM101">
+        <v>1.82</v>
+      </c>
+      <c r="BN101">
+        <v>1.82</v>
+      </c>
+      <c r="BO101">
+        <v>2.25</v>
+      </c>
+      <c r="BP101">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,7 +496,7 @@
     <t>['45+5', '77']</t>
   </si>
   <si>
-    <t>['62', '90+1']</t>
+    <t>['62', '9001']</t>
   </si>
   <si>
     <t>['3', '84', '90+7']</t>
@@ -623,9 +623,6 @@
   </si>
   <si>
     <t>['13', '37', '77', '90']</t>
-  </si>
-  <si>
-    <t>['34', '64']</t>
   </si>
 </sst>
 </file>
@@ -1351,10 +1348,10 @@
         <v>5</v>
       </c>
       <c r="AY2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA2">
         <v>6</v>
@@ -1557,10 +1554,10 @@
         <v>8</v>
       </c>
       <c r="AY3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA3">
         <v>2</v>
@@ -1763,10 +1760,10 @@
         <v>5</v>
       </c>
       <c r="AY4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AZ4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA4">
         <v>13</v>
@@ -1969,10 +1966,10 @@
         <v>5</v>
       </c>
       <c r="AY5">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AZ5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA5">
         <v>15</v>
@@ -2175,10 +2172,10 @@
         <v>9</v>
       </c>
       <c r="AY6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA6">
         <v>5</v>
@@ -2381,10 +2378,10 @@
         <v>8</v>
       </c>
       <c r="AY7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA7">
         <v>5</v>
@@ -2587,10 +2584,10 @@
         <v>7</v>
       </c>
       <c r="AY8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA8">
         <v>3</v>
@@ -2796,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="AZ9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -2999,10 +2996,10 @@
         <v>10</v>
       </c>
       <c r="AY10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA10">
         <v>5</v>
@@ -3178,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3205,10 +3202,10 @@
         <v>7</v>
       </c>
       <c r="AY11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA11">
         <v>7</v>
@@ -3411,10 +3408,10 @@
         <v>12</v>
       </c>
       <c r="AY12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA12">
         <v>6</v>
@@ -3593,7 +3590,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3617,10 +3614,10 @@
         <v>7</v>
       </c>
       <c r="AY13">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AZ13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA13">
         <v>6</v>
@@ -3823,7 +3820,7 @@
         <v>7</v>
       </c>
       <c r="AY14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ14">
         <v>12</v>
@@ -4029,10 +4026,10 @@
         <v>5</v>
       </c>
       <c r="AY15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA15">
         <v>4</v>
@@ -4235,10 +4232,10 @@
         <v>5</v>
       </c>
       <c r="AY16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA16">
         <v>7</v>
@@ -4441,10 +4438,10 @@
         <v>8</v>
       </c>
       <c r="AY17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA17">
         <v>6</v>
@@ -4647,10 +4644,10 @@
         <v>13</v>
       </c>
       <c r="AY18">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ18">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BA18">
         <v>8</v>
@@ -4853,10 +4850,10 @@
         <v>8</v>
       </c>
       <c r="AY19">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AZ19">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA19">
         <v>8</v>
@@ -5059,7 +5056,7 @@
         <v>3</v>
       </c>
       <c r="AY20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ20">
         <v>7</v>
@@ -5265,10 +5262,10 @@
         <v>5</v>
       </c>
       <c r="AY21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA21">
         <v>3</v>
@@ -5471,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="AY22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AZ22">
         <v>6</v>
@@ -5680,7 +5677,7 @@
         <v>8</v>
       </c>
       <c r="AZ23">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BA23">
         <v>2</v>
@@ -5883,10 +5880,10 @@
         <v>10</v>
       </c>
       <c r="AY24">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AZ24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA24">
         <v>2</v>
@@ -6089,10 +6086,10 @@
         <v>9</v>
       </c>
       <c r="AY25">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ25">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA25">
         <v>3</v>
@@ -6295,10 +6292,10 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA26">
         <v>10</v>
@@ -6501,10 +6498,10 @@
         <v>4</v>
       </c>
       <c r="AY27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ27">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA27">
         <v>6</v>
@@ -6707,10 +6704,10 @@
         <v>9</v>
       </c>
       <c r="AY28">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ28">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA28">
         <v>3</v>
@@ -6889,7 +6886,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AR29">
         <v>1.73</v>
@@ -6913,10 +6910,10 @@
         <v>4</v>
       </c>
       <c r="AY29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AZ29">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA29">
         <v>6</v>
@@ -7119,10 +7116,10 @@
         <v>10</v>
       </c>
       <c r="AY30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AZ30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA30">
         <v>6</v>
@@ -7325,10 +7322,10 @@
         <v>9</v>
       </c>
       <c r="AY31">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AZ31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA31">
         <v>9</v>
@@ -7531,10 +7528,10 @@
         <v>9</v>
       </c>
       <c r="AY32">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AZ32">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA32">
         <v>7</v>
@@ -7737,10 +7734,10 @@
         <v>13</v>
       </c>
       <c r="AY33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ33">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA33">
         <v>2</v>
@@ -7943,10 +7940,10 @@
         <v>9</v>
       </c>
       <c r="AY34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA34">
         <v>4</v>
@@ -8149,10 +8146,10 @@
         <v>6</v>
       </c>
       <c r="AY35">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA35">
         <v>10</v>
@@ -8355,10 +8352,10 @@
         <v>7</v>
       </c>
       <c r="AY36">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA36">
         <v>1</v>
@@ -8561,10 +8558,10 @@
         <v>4</v>
       </c>
       <c r="AY37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA37">
         <v>5</v>
@@ -8767,10 +8764,10 @@
         <v>17</v>
       </c>
       <c r="AY38">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ38">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="BA38">
         <v>2</v>
@@ -8973,10 +8970,10 @@
         <v>5</v>
       </c>
       <c r="AY39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA39">
         <v>7</v>
@@ -9179,10 +9176,10 @@
         <v>7</v>
       </c>
       <c r="AY40">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ40">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9385,10 +9382,10 @@
         <v>19</v>
       </c>
       <c r="AY41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ41">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="BA41">
         <v>3</v>
@@ -9564,7 +9561,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>0.86</v>
@@ -9797,10 +9794,10 @@
         <v>9</v>
       </c>
       <c r="AY43">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ43">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA43">
         <v>4</v>
@@ -9979,7 +9976,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AR44">
         <v>2.49</v>
@@ -10003,10 +10000,10 @@
         <v>12</v>
       </c>
       <c r="AY44">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ44">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BA44">
         <v>4</v>
@@ -10209,10 +10206,10 @@
         <v>5</v>
       </c>
       <c r="AY45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA45">
         <v>2</v>
@@ -10415,10 +10412,10 @@
         <v>3</v>
       </c>
       <c r="AY46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA46">
         <v>11</v>
@@ -10621,10 +10618,10 @@
         <v>11</v>
       </c>
       <c r="AY47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ47">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA47">
         <v>1</v>
@@ -10827,10 +10824,10 @@
         <v>3</v>
       </c>
       <c r="AY48">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA48">
         <v>12</v>
@@ -11033,10 +11030,10 @@
         <v>11</v>
       </c>
       <c r="AY49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ49">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA49">
         <v>6</v>
@@ -11239,10 +11236,10 @@
         <v>17</v>
       </c>
       <c r="AY50">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ50">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA50">
         <v>3</v>
@@ -11445,10 +11442,10 @@
         <v>10</v>
       </c>
       <c r="AY51">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ51">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BA51">
         <v>3</v>
@@ -11651,10 +11648,10 @@
         <v>7</v>
       </c>
       <c r="AY52">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ52">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA52">
         <v>7</v>
@@ -11830,7 +11827,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>1.17</v>
@@ -11857,10 +11854,10 @@
         <v>13</v>
       </c>
       <c r="AY53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ53">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -12063,10 +12060,10 @@
         <v>8</v>
       </c>
       <c r="AY54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ54">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA54">
         <v>6</v>
@@ -12269,10 +12266,10 @@
         <v>9</v>
       </c>
       <c r="AY55">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ55">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA55">
         <v>3</v>
@@ -12475,10 +12472,10 @@
         <v>9</v>
       </c>
       <c r="AY56">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA56">
         <v>2</v>
@@ -12681,7 +12678,7 @@
         <v>3</v>
       </c>
       <c r="AY57">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ57">
         <v>9</v>
@@ -12863,7 +12860,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -12887,10 +12884,10 @@
         <v>5</v>
       </c>
       <c r="AY58">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ58">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA58">
         <v>8</v>
@@ -13093,10 +13090,10 @@
         <v>7</v>
       </c>
       <c r="AY59">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AZ59">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA59">
         <v>4</v>
@@ -13299,10 +13296,10 @@
         <v>5</v>
       </c>
       <c r="AY60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ60">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA60">
         <v>4</v>
@@ -13505,10 +13502,10 @@
         <v>7</v>
       </c>
       <c r="AY61">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ61">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA61">
         <v>3</v>
@@ -13711,10 +13708,10 @@
         <v>8</v>
       </c>
       <c r="AY62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ62">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BA62">
         <v>3</v>
@@ -13917,10 +13914,10 @@
         <v>8</v>
       </c>
       <c r="AY63">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ63">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA63">
         <v>3</v>
@@ -14123,10 +14120,10 @@
         <v>6</v>
       </c>
       <c r="AY64">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA64">
         <v>8</v>
@@ -14305,7 +14302,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AR65">
         <v>1.71</v>
@@ -14329,10 +14326,10 @@
         <v>8</v>
       </c>
       <c r="AY65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ65">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA65">
         <v>7</v>
@@ -14535,10 +14532,10 @@
         <v>7</v>
       </c>
       <c r="AY66">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA66">
         <v>1</v>
@@ -14744,7 +14741,7 @@
         <v>14</v>
       </c>
       <c r="AZ67">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA67">
         <v>2</v>
@@ -14947,10 +14944,10 @@
         <v>11</v>
       </c>
       <c r="AY68">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA68">
         <v>4</v>
@@ -15156,7 +15153,7 @@
         <v>10</v>
       </c>
       <c r="AZ69">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BA69">
         <v>4</v>
@@ -15359,10 +15356,10 @@
         <v>15</v>
       </c>
       <c r="AY70">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ70">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA70">
         <v>5</v>
@@ -15538,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -15565,10 +15562,10 @@
         <v>14</v>
       </c>
       <c r="AY71">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AZ71">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BA71">
         <v>8</v>
@@ -15771,10 +15768,10 @@
         <v>6</v>
       </c>
       <c r="AY72">
+        <v>10</v>
+      </c>
+      <c r="AZ72">
         <v>13</v>
-      </c>
-      <c r="AZ72">
-        <v>16</v>
       </c>
       <c r="BA72">
         <v>4</v>
@@ -15977,10 +15974,10 @@
         <v>6</v>
       </c>
       <c r="AY73">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA73">
         <v>5</v>
@@ -16183,10 +16180,10 @@
         <v>7</v>
       </c>
       <c r="AY74">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ74">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA74">
         <v>9</v>
@@ -16389,10 +16386,10 @@
         <v>9</v>
       </c>
       <c r="AY75">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ75">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA75">
         <v>2</v>
@@ -16595,10 +16592,10 @@
         <v>8</v>
       </c>
       <c r="AY76">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ76">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA76">
         <v>8</v>
@@ -16801,10 +16798,10 @@
         <v>5</v>
       </c>
       <c r="AY77">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA77">
         <v>6</v>
@@ -17007,10 +17004,10 @@
         <v>3</v>
       </c>
       <c r="AY78">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA78">
         <v>2</v>
@@ -17213,10 +17210,10 @@
         <v>7</v>
       </c>
       <c r="AY79">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ79">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA79">
         <v>5</v>
@@ -17419,10 +17416,10 @@
         <v>7</v>
       </c>
       <c r="AY80">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ80">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA80">
         <v>2</v>
@@ -17625,10 +17622,10 @@
         <v>9</v>
       </c>
       <c r="AY81">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ81">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA81">
         <v>2</v>
@@ -18010,7 +18007,7 @@
         <v>0.2</v>
       </c>
       <c r="AP83">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18037,10 +18034,10 @@
         <v>14</v>
       </c>
       <c r="AY83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ83">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="BA83">
         <v>6</v>
@@ -18243,10 +18240,10 @@
         <v>6</v>
       </c>
       <c r="AY84">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ84">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA84">
         <v>11</v>
@@ -18449,10 +18446,10 @@
         <v>5</v>
       </c>
       <c r="AY85">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AZ85">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA85">
         <v>4</v>
@@ -18655,10 +18652,10 @@
         <v>12</v>
       </c>
       <c r="AY86">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ86">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="BA86">
         <v>3</v>
@@ -18861,10 +18858,10 @@
         <v>5</v>
       </c>
       <c r="AY87">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AZ87">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA87">
         <v>12</v>
@@ -19067,10 +19064,10 @@
         <v>7</v>
       </c>
       <c r="AY88">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ88">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA88">
         <v>5</v>
@@ -19273,10 +19270,10 @@
         <v>7</v>
       </c>
       <c r="AY89">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ89">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA89">
         <v>7</v>
@@ -19479,10 +19476,10 @@
         <v>4</v>
       </c>
       <c r="AY90">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ90">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA90">
         <v>6</v>
@@ -19685,10 +19682,10 @@
         <v>3</v>
       </c>
       <c r="AY91">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ91">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA91">
         <v>11</v>
@@ -19891,10 +19888,10 @@
         <v>5</v>
       </c>
       <c r="AY92">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AZ92">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA92">
         <v>5</v>
@@ -20097,10 +20094,10 @@
         <v>5</v>
       </c>
       <c r="AY93">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ93">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA93">
         <v>7</v>
@@ -20303,10 +20300,10 @@
         <v>12</v>
       </c>
       <c r="AY94">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ94">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA94">
         <v>0</v>
@@ -20509,10 +20506,10 @@
         <v>7</v>
       </c>
       <c r="AY95">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ95">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA95">
         <v>5</v>
@@ -20718,7 +20715,7 @@
         <v>17</v>
       </c>
       <c r="AZ96">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA96">
         <v>3</v>
@@ -20921,10 +20918,10 @@
         <v>4</v>
       </c>
       <c r="AY97">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AZ97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA97">
         <v>4</v>
@@ -21127,7 +21124,7 @@
         <v>4</v>
       </c>
       <c r="AY98">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ98">
         <v>13</v>
@@ -21333,10 +21330,10 @@
         <v>3</v>
       </c>
       <c r="AY99">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AZ99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA99">
         <v>3</v>
@@ -21539,10 +21536,10 @@
         <v>7</v>
       </c>
       <c r="AY100">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ100">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA100">
         <v>7</v>
@@ -21631,16 +21628,16 @@
         <v>2</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O101" t="s">
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -21718,10 +21715,10 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AR101">
         <v>1.56</v>
@@ -21733,22 +21730,22 @@
         <v>3.22</v>
       </c>
       <c r="AU101">
+        <v>7</v>
+      </c>
+      <c r="AV101">
+        <v>3</v>
+      </c>
+      <c r="AW101">
         <v>5</v>
       </c>
-      <c r="AV101">
-        <v>4</v>
-      </c>
-      <c r="AW101">
-        <v>14</v>
-      </c>
       <c r="AX101">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY101">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AZ101">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="BA101">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -494,9 +494,6 @@
   </si>
   <si>
     <t>['45+5', '77']</t>
-  </si>
-  <si>
-    <t>['62', '9001']</t>
   </si>
   <si>
     <t>['3', '84', '90+7']</t>
@@ -984,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,7 +1240,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -2067,7 +2064,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2273,7 +2270,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2479,7 +2476,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2891,7 +2888,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3097,7 +3094,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3175,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3590,7 +3587,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3921,7 +3918,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4333,7 +4330,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4539,7 +4536,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -5157,7 +5154,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5363,7 +5360,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5569,7 +5566,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5775,7 +5772,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5981,7 +5978,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6393,7 +6390,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6599,7 +6596,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6805,7 +6802,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6886,7 +6883,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ29">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AR29">
         <v>1.73</v>
@@ -7011,7 +7008,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7835,7 +7832,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8865,7 +8862,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9071,7 +9068,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9483,7 +9480,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9561,7 +9558,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AQ42">
         <v>0.86</v>
@@ -9895,7 +9892,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -9976,7 +9973,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AR44">
         <v>2.49</v>
@@ -10307,7 +10304,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10925,7 +10922,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11337,7 +11334,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11827,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AQ53">
         <v>1.17</v>
@@ -12573,7 +12570,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12779,7 +12776,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12860,7 +12857,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -12985,7 +12982,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -14221,7 +14218,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14302,7 +14299,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AR65">
         <v>1.71</v>
@@ -14633,7 +14630,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14839,7 +14836,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15045,7 +15042,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15535,7 +15532,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -15663,7 +15660,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16487,7 +16484,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16693,7 +16690,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -17105,7 +17102,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17517,7 +17514,7 @@
         <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q81">
         <v>4.7</v>
@@ -17929,7 +17926,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18007,7 +18004,7 @@
         <v>0.2</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18135,7 +18132,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18341,7 +18338,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18753,7 +18750,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>2.54</v>
@@ -19371,7 +19368,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q90">
         <v>2.88</v>
@@ -19577,7 +19574,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19989,7 +19986,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20195,7 +20192,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q94">
         <v>2.65</v>
@@ -20401,7 +20398,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20813,7 +20810,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21019,7 +21016,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21225,7 +21222,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q99">
         <v>4.75</v>
@@ -21431,7 +21428,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q100">
         <v>2.32</v>
@@ -21588,212 +21585,6 @@
       </c>
       <c r="BP100">
         <v>1.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:68">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>7818907</v>
-      </c>
-      <c r="C101" t="s">
-        <v>68</v>
-      </c>
-      <c r="D101" t="s">
-        <v>69</v>
-      </c>
-      <c r="E101" s="2">
-        <v>45811.66666666666</v>
-      </c>
-      <c r="F101">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>79</v>
-      </c>
-      <c r="H101" t="s">
-        <v>75</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101">
-        <v>2</v>
-      </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="N101">
-        <v>3</v>
-      </c>
-      <c r="O101" t="s">
-        <v>160</v>
-      </c>
-      <c r="P101" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q101">
-        <v>2.75</v>
-      </c>
-      <c r="R101">
-        <v>2.38</v>
-      </c>
-      <c r="S101">
-        <v>3.4</v>
-      </c>
-      <c r="T101">
-        <v>1.3</v>
-      </c>
-      <c r="U101">
-        <v>3.4</v>
-      </c>
-      <c r="V101">
-        <v>2.38</v>
-      </c>
-      <c r="W101">
-        <v>1.53</v>
-      </c>
-      <c r="X101">
-        <v>6</v>
-      </c>
-      <c r="Y101">
-        <v>1.13</v>
-      </c>
-      <c r="Z101">
-        <v>2.16</v>
-      </c>
-      <c r="AA101">
-        <v>3.75</v>
-      </c>
-      <c r="AB101">
-        <v>3.03</v>
-      </c>
-      <c r="AC101">
-        <v>1.01</v>
-      </c>
-      <c r="AD101">
-        <v>11</v>
-      </c>
-      <c r="AE101">
-        <v>1.14</v>
-      </c>
-      <c r="AF101">
-        <v>4.45</v>
-      </c>
-      <c r="AG101">
-        <v>1.65</v>
-      </c>
-      <c r="AH101">
-        <v>2.2</v>
-      </c>
-      <c r="AI101">
-        <v>1.53</v>
-      </c>
-      <c r="AJ101">
-        <v>2.38</v>
-      </c>
-      <c r="AK101">
-        <v>1.36</v>
-      </c>
-      <c r="AL101">
-        <v>1.3</v>
-      </c>
-      <c r="AM101">
-        <v>1.62</v>
-      </c>
-      <c r="AN101">
-        <v>0.6</v>
-      </c>
-      <c r="AO101">
-        <v>0.2</v>
-      </c>
-      <c r="AP101">
-        <v>1</v>
-      </c>
-      <c r="AQ101">
-        <v>0.17</v>
-      </c>
-      <c r="AR101">
-        <v>1.56</v>
-      </c>
-      <c r="AS101">
-        <v>1.66</v>
-      </c>
-      <c r="AT101">
-        <v>3.22</v>
-      </c>
-      <c r="AU101">
-        <v>7</v>
-      </c>
-      <c r="AV101">
-        <v>3</v>
-      </c>
-      <c r="AW101">
-        <v>5</v>
-      </c>
-      <c r="AX101">
-        <v>5</v>
-      </c>
-      <c r="AY101">
-        <v>12</v>
-      </c>
-      <c r="AZ101">
-        <v>8</v>
-      </c>
-      <c r="BA101">
-        <v>10</v>
-      </c>
-      <c r="BB101">
-        <v>3</v>
-      </c>
-      <c r="BC101">
-        <v>13</v>
-      </c>
-      <c r="BD101">
-        <v>1.78</v>
-      </c>
-      <c r="BE101">
-        <v>6.75</v>
-      </c>
-      <c r="BF101">
-        <v>2.23</v>
-      </c>
-      <c r="BG101">
-        <v>1.16</v>
-      </c>
-      <c r="BH101">
-        <v>4.1</v>
-      </c>
-      <c r="BI101">
-        <v>1.32</v>
-      </c>
-      <c r="BJ101">
-        <v>2.95</v>
-      </c>
-      <c r="BK101">
-        <v>1.52</v>
-      </c>
-      <c r="BL101">
-        <v>2.28</v>
-      </c>
-      <c r="BM101">
-        <v>1.82</v>
-      </c>
-      <c r="BN101">
-        <v>1.82</v>
-      </c>
-      <c r="BO101">
-        <v>2.25</v>
-      </c>
-      <c r="BP101">
-        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,21 +481,6 @@
     <t>['30', '62', '85', '90+4']</t>
   </si>
   <si>
-    <t>['16', '90+7']</t>
-  </si>
-  <si>
-    <t>['6', '24', '42', '75', '77', '82']</t>
-  </si>
-  <si>
-    <t>['74']</t>
-  </si>
-  <si>
-    <t>['32']</t>
-  </si>
-  <si>
-    <t>['45+5', '77']</t>
-  </si>
-  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -614,12 +599,6 @@
   </si>
   <si>
     <t>['9', '39', '54']</t>
-  </si>
-  <si>
-    <t>['82']</t>
-  </si>
-  <si>
-    <t>['13', '37', '77', '90']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,7 +1219,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1321,7 +1300,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1524,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1939,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2064,7 +2043,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2142,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2270,7 +2249,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2476,7 +2455,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2557,7 +2536,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ8">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2760,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -2888,7 +2867,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2969,7 +2948,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ10">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3094,7 +3073,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3381,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3790,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ14">
         <v>0.67</v>
@@ -3918,7 +3897,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3996,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>0.57</v>
@@ -4330,7 +4309,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4411,7 +4390,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4536,7 +4515,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4617,7 +4596,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR18">
         <v>1.84</v>
@@ -4820,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ19">
         <v>0.5</v>
@@ -5029,7 +5008,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ20">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.33</v>
@@ -5154,7 +5133,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5232,10 +5211,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AR21">
         <v>1.92</v>
@@ -5360,7 +5339,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5441,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5566,7 +5545,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5644,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.43</v>
@@ -5772,7 +5751,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5850,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24">
         <v>0.8</v>
@@ -5978,7 +5957,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6056,10 +6035,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.33</v>
@@ -6262,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="AQ26">
         <v>0.71</v>
@@ -6390,7 +6369,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6471,7 +6450,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
         <v>2.18</v>
@@ -6596,7 +6575,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6802,7 +6781,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -7008,7 +6987,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7832,7 +7811,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8119,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR35">
         <v>2.29</v>
@@ -8322,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ36">
         <v>0.83</v>
@@ -8528,10 +8507,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.78</v>
@@ -8734,10 +8713,10 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>2</v>
@@ -8862,7 +8841,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9068,7 +9047,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9480,7 +9459,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9561,7 +9540,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ42">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
         <v>1.33</v>
@@ -9767,7 +9746,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR43">
         <v>1.91</v>
@@ -9892,7 +9871,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -10176,7 +10155,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ45">
         <v>0.57</v>
@@ -10304,7 +10283,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10385,7 +10364,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
         <v>2.2</v>
@@ -10588,7 +10567,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -10922,7 +10901,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11000,10 +10979,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ49">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11209,7 +11188,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ50">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.54</v>
@@ -11334,7 +11313,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11412,7 +11391,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11618,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ52">
         <v>0.83</v>
@@ -11827,7 +11806,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
         <v>1.48</v>
@@ -12033,7 +12012,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ54">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR54">
         <v>1.28</v>
@@ -12570,7 +12549,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12648,7 +12627,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ57">
         <v>1.33</v>
@@ -12776,7 +12755,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12982,7 +12961,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13475,7 +13454,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR61">
         <v>1.9</v>
@@ -13678,10 +13657,10 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AR62">
         <v>1.63</v>
@@ -14218,7 +14197,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14296,7 +14275,7 @@
         <v>0.25</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ65">
         <v>0.2</v>
@@ -14505,7 +14484,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ66">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR66">
         <v>2.18</v>
@@ -14630,7 +14609,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14711,7 +14690,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR67">
         <v>2.15</v>
@@ -14836,7 +14815,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14914,7 +14893,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68">
         <v>0.8</v>
@@ -15042,7 +15021,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15120,7 +15099,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15329,7 +15308,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.55</v>
@@ -15660,7 +15639,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15947,7 +15926,7 @@
         <v>3</v>
       </c>
       <c r="AQ73">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AR73">
         <v>2.35</v>
@@ -16153,7 +16132,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.93</v>
@@ -16484,7 +16463,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16690,7 +16669,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16974,10 +16953,10 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR78">
         <v>1.51</v>
@@ -17102,7 +17081,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17180,10 +17159,10 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AR79">
         <v>1.73</v>
@@ -17389,7 +17368,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AR80">
         <v>2.04</v>
@@ -17514,7 +17493,7 @@
         <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q81">
         <v>4.7</v>
@@ -17926,7 +17905,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18132,7 +18111,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18213,7 +18192,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ84">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR84">
         <v>1.95</v>
@@ -18338,7 +18317,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18416,10 +18395,10 @@
         <v>0.4</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ85">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR85">
         <v>1.47</v>
@@ -18750,7 +18729,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q87">
         <v>2.54</v>
@@ -19368,7 +19347,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q90">
         <v>2.88</v>
@@ -19449,7 +19428,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ90">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.8</v>
@@ -19574,7 +19553,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19986,7 +19965,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20143,1448 +20122,6 @@
       </c>
       <c r="BP93">
         <v>1.24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:68">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>7818910</v>
-      </c>
-      <c r="C94" t="s">
-        <v>68</v>
-      </c>
-      <c r="D94" t="s">
-        <v>69</v>
-      </c>
-      <c r="E94" s="2">
-        <v>45808.5625</v>
-      </c>
-      <c r="F94">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s">
-        <v>82</v>
-      </c>
-      <c r="H94" t="s">
-        <v>81</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94" t="s">
-        <v>86</v>
-      </c>
-      <c r="P94" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q94">
-        <v>2.65</v>
-      </c>
-      <c r="R94">
-        <v>2.1</v>
-      </c>
-      <c r="S94">
-        <v>3.75</v>
-      </c>
-      <c r="T94">
-        <v>1.39</v>
-      </c>
-      <c r="U94">
-        <v>2.75</v>
-      </c>
-      <c r="V94">
-        <v>2.8</v>
-      </c>
-      <c r="W94">
-        <v>1.38</v>
-      </c>
-      <c r="X94">
-        <v>7.25</v>
-      </c>
-      <c r="Y94">
-        <v>1.08</v>
-      </c>
-      <c r="Z94">
-        <v>2.05</v>
-      </c>
-      <c r="AA94">
-        <v>3.25</v>
-      </c>
-      <c r="AB94">
-        <v>3.35</v>
-      </c>
-      <c r="AC94">
-        <v>1.05</v>
-      </c>
-      <c r="AD94">
-        <v>8</v>
-      </c>
-      <c r="AE94">
-        <v>1.27</v>
-      </c>
-      <c r="AF94">
-        <v>3.15</v>
-      </c>
-      <c r="AG94">
-        <v>1.98</v>
-      </c>
-      <c r="AH94">
-        <v>1.79</v>
-      </c>
-      <c r="AI94">
-        <v>1.78</v>
-      </c>
-      <c r="AJ94">
-        <v>1.9</v>
-      </c>
-      <c r="AK94">
-        <v>1.3</v>
-      </c>
-      <c r="AL94">
-        <v>1.25</v>
-      </c>
-      <c r="AM94">
-        <v>1.7</v>
-      </c>
-      <c r="AN94">
-        <v>2.4</v>
-      </c>
-      <c r="AO94">
-        <v>0.8</v>
-      </c>
-      <c r="AP94">
-        <v>2</v>
-      </c>
-      <c r="AQ94">
-        <v>1.17</v>
-      </c>
-      <c r="AR94">
-        <v>1.4</v>
-      </c>
-      <c r="AS94">
-        <v>1.22</v>
-      </c>
-      <c r="AT94">
-        <v>2.62</v>
-      </c>
-      <c r="AU94">
-        <v>3</v>
-      </c>
-      <c r="AV94">
-        <v>6</v>
-      </c>
-      <c r="AW94">
-        <v>7</v>
-      </c>
-      <c r="AX94">
-        <v>12</v>
-      </c>
-      <c r="AY94">
-        <v>10</v>
-      </c>
-      <c r="AZ94">
-        <v>18</v>
-      </c>
-      <c r="BA94">
-        <v>0</v>
-      </c>
-      <c r="BB94">
-        <v>3</v>
-      </c>
-      <c r="BC94">
-        <v>3</v>
-      </c>
-      <c r="BD94">
-        <v>1.63</v>
-      </c>
-      <c r="BE94">
-        <v>6.4</v>
-      </c>
-      <c r="BF94">
-        <v>2.55</v>
-      </c>
-      <c r="BG94">
-        <v>1.34</v>
-      </c>
-      <c r="BH94">
-        <v>2.8</v>
-      </c>
-      <c r="BI94">
-        <v>1.58</v>
-      </c>
-      <c r="BJ94">
-        <v>2.12</v>
-      </c>
-      <c r="BK94">
-        <v>1.97</v>
-      </c>
-      <c r="BL94">
-        <v>1.68</v>
-      </c>
-      <c r="BM94">
-        <v>2.55</v>
-      </c>
-      <c r="BN94">
-        <v>1.42</v>
-      </c>
-      <c r="BO94">
-        <v>3.3</v>
-      </c>
-      <c r="BP94">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:68">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>7818906</v>
-      </c>
-      <c r="C95" t="s">
-        <v>68</v>
-      </c>
-      <c r="D95" t="s">
-        <v>69</v>
-      </c>
-      <c r="E95" s="2">
-        <v>45808.5625</v>
-      </c>
-      <c r="F95">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s">
-        <v>74</v>
-      </c>
-      <c r="H95" t="s">
-        <v>80</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>2</v>
-      </c>
-      <c r="K95">
-        <v>3</v>
-      </c>
-      <c r="L95">
-        <v>2</v>
-      </c>
-      <c r="M95">
-        <v>4</v>
-      </c>
-      <c r="N95">
-        <v>6</v>
-      </c>
-      <c r="O95" t="s">
-        <v>155</v>
-      </c>
-      <c r="P95" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q95">
-        <v>4</v>
-      </c>
-      <c r="R95">
-        <v>2</v>
-      </c>
-      <c r="S95">
-        <v>3</v>
-      </c>
-      <c r="T95">
-        <v>1.5</v>
-      </c>
-      <c r="U95">
-        <v>2.55</v>
-      </c>
-      <c r="V95">
-        <v>3.34</v>
-      </c>
-      <c r="W95">
-        <v>1.28</v>
-      </c>
-      <c r="X95">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y95">
-        <v>1.01</v>
-      </c>
-      <c r="Z95">
-        <v>3.27</v>
-      </c>
-      <c r="AA95">
-        <v>3.25</v>
-      </c>
-      <c r="AB95">
-        <v>2.24</v>
-      </c>
-      <c r="AC95">
-        <v>1.06</v>
-      </c>
-      <c r="AD95">
-        <v>7.5</v>
-      </c>
-      <c r="AE95">
-        <v>1.4</v>
-      </c>
-      <c r="AF95">
-        <v>2.75</v>
-      </c>
-      <c r="AG95">
-        <v>2.35</v>
-      </c>
-      <c r="AH95">
-        <v>1.57</v>
-      </c>
-      <c r="AI95">
-        <v>2</v>
-      </c>
-      <c r="AJ95">
-        <v>1.73</v>
-      </c>
-      <c r="AK95">
-        <v>1.65</v>
-      </c>
-      <c r="AL95">
-        <v>1.33</v>
-      </c>
-      <c r="AM95">
-        <v>1.31</v>
-      </c>
-      <c r="AN95">
-        <v>2.4</v>
-      </c>
-      <c r="AO95">
-        <v>1.83</v>
-      </c>
-      <c r="AP95">
-        <v>2</v>
-      </c>
-      <c r="AQ95">
-        <v>2</v>
-      </c>
-      <c r="AR95">
-        <v>1.68</v>
-      </c>
-      <c r="AS95">
-        <v>1.39</v>
-      </c>
-      <c r="AT95">
-        <v>3.07</v>
-      </c>
-      <c r="AU95">
-        <v>4</v>
-      </c>
-      <c r="AV95">
-        <v>9</v>
-      </c>
-      <c r="AW95">
-        <v>7</v>
-      </c>
-      <c r="AX95">
-        <v>7</v>
-      </c>
-      <c r="AY95">
-        <v>11</v>
-      </c>
-      <c r="AZ95">
-        <v>16</v>
-      </c>
-      <c r="BA95">
-        <v>5</v>
-      </c>
-      <c r="BB95">
-        <v>6</v>
-      </c>
-      <c r="BC95">
-        <v>11</v>
-      </c>
-      <c r="BD95">
-        <v>2.23</v>
-      </c>
-      <c r="BE95">
-        <v>6.4</v>
-      </c>
-      <c r="BF95">
-        <v>1.79</v>
-      </c>
-      <c r="BG95">
-        <v>1.34</v>
-      </c>
-      <c r="BH95">
-        <v>2.85</v>
-      </c>
-      <c r="BI95">
-        <v>1.6</v>
-      </c>
-      <c r="BJ95">
-        <v>2.12</v>
-      </c>
-      <c r="BK95">
-        <v>1.97</v>
-      </c>
-      <c r="BL95">
-        <v>1.7</v>
-      </c>
-      <c r="BM95">
-        <v>2.5</v>
-      </c>
-      <c r="BN95">
-        <v>1.42</v>
-      </c>
-      <c r="BO95">
-        <v>3.3</v>
-      </c>
-      <c r="BP95">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:68">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>7818909</v>
-      </c>
-      <c r="C96" t="s">
-        <v>68</v>
-      </c>
-      <c r="D96" t="s">
-        <v>69</v>
-      </c>
-      <c r="E96" s="2">
-        <v>45808.66666666666</v>
-      </c>
-      <c r="F96">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s">
-        <v>73</v>
-      </c>
-      <c r="H96" t="s">
-        <v>72</v>
-      </c>
-      <c r="I96">
-        <v>3</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>3</v>
-      </c>
-      <c r="L96">
-        <v>6</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>6</v>
-      </c>
-      <c r="O96" t="s">
-        <v>156</v>
-      </c>
-      <c r="P96" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q96">
-        <v>2.05</v>
-      </c>
-      <c r="R96">
-        <v>2.4</v>
-      </c>
-      <c r="S96">
-        <v>6</v>
-      </c>
-      <c r="T96">
-        <v>1.33</v>
-      </c>
-      <c r="U96">
-        <v>3.25</v>
-      </c>
-      <c r="V96">
-        <v>2.5</v>
-      </c>
-      <c r="W96">
-        <v>1.5</v>
-      </c>
-      <c r="X96">
-        <v>6.5</v>
-      </c>
-      <c r="Y96">
-        <v>1.11</v>
-      </c>
-      <c r="Z96">
-        <v>1.51</v>
-      </c>
-      <c r="AA96">
-        <v>4.28</v>
-      </c>
-      <c r="AB96">
-        <v>5.86</v>
-      </c>
-      <c r="AC96">
-        <v>1.01</v>
-      </c>
-      <c r="AD96">
-        <v>11</v>
-      </c>
-      <c r="AE96">
-        <v>1.2</v>
-      </c>
-      <c r="AF96">
-        <v>4</v>
-      </c>
-      <c r="AG96">
-        <v>1.73</v>
-      </c>
-      <c r="AH96">
-        <v>2.08</v>
-      </c>
-      <c r="AI96">
-        <v>1.83</v>
-      </c>
-      <c r="AJ96">
-        <v>1.83</v>
-      </c>
-      <c r="AK96">
-        <v>1.12</v>
-      </c>
-      <c r="AL96">
-        <v>1.21</v>
-      </c>
-      <c r="AM96">
-        <v>2.49</v>
-      </c>
-      <c r="AN96">
-        <v>3</v>
-      </c>
-      <c r="AO96">
-        <v>1.33</v>
-      </c>
-      <c r="AP96">
-        <v>3</v>
-      </c>
-      <c r="AQ96">
-        <v>1.14</v>
-      </c>
-      <c r="AR96">
-        <v>2.13</v>
-      </c>
-      <c r="AS96">
-        <v>1.65</v>
-      </c>
-      <c r="AT96">
-        <v>3.78</v>
-      </c>
-      <c r="AU96">
-        <v>8</v>
-      </c>
-      <c r="AV96">
-        <v>4</v>
-      </c>
-      <c r="AW96">
-        <v>9</v>
-      </c>
-      <c r="AX96">
-        <v>6</v>
-      </c>
-      <c r="AY96">
-        <v>17</v>
-      </c>
-      <c r="AZ96">
-        <v>10</v>
-      </c>
-      <c r="BA96">
-        <v>3</v>
-      </c>
-      <c r="BB96">
-        <v>4</v>
-      </c>
-      <c r="BC96">
-        <v>7</v>
-      </c>
-      <c r="BD96">
-        <v>1.36</v>
-      </c>
-      <c r="BE96">
-        <v>7.5</v>
-      </c>
-      <c r="BF96">
-        <v>3.4</v>
-      </c>
-      <c r="BG96">
-        <v>1.27</v>
-      </c>
-      <c r="BH96">
-        <v>3.15</v>
-      </c>
-      <c r="BI96">
-        <v>1.47</v>
-      </c>
-      <c r="BJ96">
-        <v>2.4</v>
-      </c>
-      <c r="BK96">
-        <v>1.77</v>
-      </c>
-      <c r="BL96">
-        <v>1.88</v>
-      </c>
-      <c r="BM96">
-        <v>2.2</v>
-      </c>
-      <c r="BN96">
-        <v>1.55</v>
-      </c>
-      <c r="BO96">
-        <v>2.8</v>
-      </c>
-      <c r="BP96">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:68">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>7818908</v>
-      </c>
-      <c r="C97" t="s">
-        <v>68</v>
-      </c>
-      <c r="D97" t="s">
-        <v>69</v>
-      </c>
-      <c r="E97" s="2">
-        <v>45808.875</v>
-      </c>
-      <c r="F97">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s">
-        <v>85</v>
-      </c>
-      <c r="H97" t="s">
-        <v>78</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97">
-        <v>2</v>
-      </c>
-      <c r="O97" t="s">
-        <v>157</v>
-      </c>
-      <c r="P97" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q97">
-        <v>3.1</v>
-      </c>
-      <c r="R97">
-        <v>2.2</v>
-      </c>
-      <c r="S97">
-        <v>3.4</v>
-      </c>
-      <c r="T97">
-        <v>1.4</v>
-      </c>
-      <c r="U97">
-        <v>2.75</v>
-      </c>
-      <c r="V97">
-        <v>2.75</v>
-      </c>
-      <c r="W97">
-        <v>1.4</v>
-      </c>
-      <c r="X97">
-        <v>8</v>
-      </c>
-      <c r="Y97">
-        <v>1.08</v>
-      </c>
-      <c r="Z97">
-        <v>2.41</v>
-      </c>
-      <c r="AA97">
-        <v>3.34</v>
-      </c>
-      <c r="AB97">
-        <v>2.9</v>
-      </c>
-      <c r="AC97">
-        <v>1.03</v>
-      </c>
-      <c r="AD97">
-        <v>9</v>
-      </c>
-      <c r="AE97">
-        <v>1.25</v>
-      </c>
-      <c r="AF97">
-        <v>3.6</v>
-      </c>
-      <c r="AG97">
-        <v>1.95</v>
-      </c>
-      <c r="AH97">
-        <v>1.85</v>
-      </c>
-      <c r="AI97">
-        <v>1.73</v>
-      </c>
-      <c r="AJ97">
-        <v>2</v>
-      </c>
-      <c r="AK97">
-        <v>1.39</v>
-      </c>
-      <c r="AL97">
-        <v>1.33</v>
-      </c>
-      <c r="AM97">
-        <v>1.53</v>
-      </c>
-      <c r="AN97">
-        <v>1</v>
-      </c>
-      <c r="AO97">
-        <v>1.2</v>
-      </c>
-      <c r="AP97">
-        <v>1</v>
-      </c>
-      <c r="AQ97">
-        <v>1.17</v>
-      </c>
-      <c r="AR97">
-        <v>1.81</v>
-      </c>
-      <c r="AS97">
-        <v>1.21</v>
-      </c>
-      <c r="AT97">
-        <v>3.02</v>
-      </c>
-      <c r="AU97">
-        <v>5</v>
-      </c>
-      <c r="AV97">
-        <v>4</v>
-      </c>
-      <c r="AW97">
-        <v>14</v>
-      </c>
-      <c r="AX97">
-        <v>4</v>
-      </c>
-      <c r="AY97">
-        <v>19</v>
-      </c>
-      <c r="AZ97">
-        <v>8</v>
-      </c>
-      <c r="BA97">
-        <v>4</v>
-      </c>
-      <c r="BB97">
-        <v>3</v>
-      </c>
-      <c r="BC97">
-        <v>7</v>
-      </c>
-      <c r="BD97">
-        <v>1.8</v>
-      </c>
-      <c r="BE97">
-        <v>6.75</v>
-      </c>
-      <c r="BF97">
-        <v>2.18</v>
-      </c>
-      <c r="BG97">
-        <v>1.22</v>
-      </c>
-      <c r="BH97">
-        <v>3.6</v>
-      </c>
-      <c r="BI97">
-        <v>1.4</v>
-      </c>
-      <c r="BJ97">
-        <v>2.63</v>
-      </c>
-      <c r="BK97">
-        <v>1.65</v>
-      </c>
-      <c r="BL97">
-        <v>2.02</v>
-      </c>
-      <c r="BM97">
-        <v>2.04</v>
-      </c>
-      <c r="BN97">
-        <v>1.64</v>
-      </c>
-      <c r="BO97">
-        <v>2.55</v>
-      </c>
-      <c r="BP97">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:68">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>7818904</v>
-      </c>
-      <c r="C98" t="s">
-        <v>68</v>
-      </c>
-      <c r="D98" t="s">
-        <v>69</v>
-      </c>
-      <c r="E98" s="2">
-        <v>45809.66666666666</v>
-      </c>
-      <c r="F98">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s">
-        <v>71</v>
-      </c>
-      <c r="H98" t="s">
-        <v>76</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="N98">
-        <v>2</v>
-      </c>
-      <c r="O98" t="s">
-        <v>158</v>
-      </c>
-      <c r="P98" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q98">
-        <v>3</v>
-      </c>
-      <c r="R98">
-        <v>2.2</v>
-      </c>
-      <c r="S98">
-        <v>3.5</v>
-      </c>
-      <c r="T98">
-        <v>1.36</v>
-      </c>
-      <c r="U98">
-        <v>3</v>
-      </c>
-      <c r="V98">
-        <v>2.75</v>
-      </c>
-      <c r="W98">
-        <v>1.4</v>
-      </c>
-      <c r="X98">
-        <v>7</v>
-      </c>
-      <c r="Y98">
-        <v>1.1</v>
-      </c>
-      <c r="Z98">
-        <v>2.39</v>
-      </c>
-      <c r="AA98">
-        <v>3.32</v>
-      </c>
-      <c r="AB98">
-        <v>2.95</v>
-      </c>
-      <c r="AC98">
-        <v>1.03</v>
-      </c>
-      <c r="AD98">
-        <v>9</v>
-      </c>
-      <c r="AE98">
-        <v>1.29</v>
-      </c>
-      <c r="AF98">
-        <v>3.3</v>
-      </c>
-      <c r="AG98">
-        <v>1.96</v>
-      </c>
-      <c r="AH98">
-        <v>1.85</v>
-      </c>
-      <c r="AI98">
-        <v>1.67</v>
-      </c>
-      <c r="AJ98">
-        <v>2.1</v>
-      </c>
-      <c r="AK98">
-        <v>1.39</v>
-      </c>
-      <c r="AL98">
-        <v>1.3</v>
-      </c>
-      <c r="AM98">
-        <v>1.57</v>
-      </c>
-      <c r="AN98">
-        <v>1.8</v>
-      </c>
-      <c r="AO98">
-        <v>0.83</v>
-      </c>
-      <c r="AP98">
-        <v>1.67</v>
-      </c>
-      <c r="AQ98">
-        <v>0.86</v>
-      </c>
-      <c r="AR98">
-        <v>1.8</v>
-      </c>
-      <c r="AS98">
-        <v>1.22</v>
-      </c>
-      <c r="AT98">
-        <v>3.02</v>
-      </c>
-      <c r="AU98">
-        <v>5</v>
-      </c>
-      <c r="AV98">
-        <v>9</v>
-      </c>
-      <c r="AW98">
-        <v>5</v>
-      </c>
-      <c r="AX98">
-        <v>4</v>
-      </c>
-      <c r="AY98">
-        <v>10</v>
-      </c>
-      <c r="AZ98">
-        <v>13</v>
-      </c>
-      <c r="BA98">
-        <v>1</v>
-      </c>
-      <c r="BB98">
-        <v>8</v>
-      </c>
-      <c r="BC98">
-        <v>9</v>
-      </c>
-      <c r="BD98">
-        <v>1.94</v>
-      </c>
-      <c r="BE98">
-        <v>6.4</v>
-      </c>
-      <c r="BF98">
-        <v>2.07</v>
-      </c>
-      <c r="BG98">
-        <v>1.43</v>
-      </c>
-      <c r="BH98">
-        <v>2.5</v>
-      </c>
-      <c r="BI98">
-        <v>1.72</v>
-      </c>
-      <c r="BJ98">
-        <v>1.93</v>
-      </c>
-      <c r="BK98">
-        <v>2.18</v>
-      </c>
-      <c r="BL98">
-        <v>1.56</v>
-      </c>
-      <c r="BM98">
-        <v>2.88</v>
-      </c>
-      <c r="BN98">
-        <v>1.33</v>
-      </c>
-      <c r="BO98">
-        <v>3.85</v>
-      </c>
-      <c r="BP98">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:68">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>7818903</v>
-      </c>
-      <c r="C99" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" t="s">
-        <v>69</v>
-      </c>
-      <c r="E99" s="2">
-        <v>45809.77083333334</v>
-      </c>
-      <c r="F99">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s">
-        <v>77</v>
-      </c>
-      <c r="H99" t="s">
-        <v>84</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99" t="s">
-        <v>86</v>
-      </c>
-      <c r="P99" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q99">
-        <v>4.75</v>
-      </c>
-      <c r="R99">
-        <v>2.05</v>
-      </c>
-      <c r="S99">
-        <v>2.63</v>
-      </c>
-      <c r="T99">
-        <v>1.5</v>
-      </c>
-      <c r="U99">
-        <v>2.5</v>
-      </c>
-      <c r="V99">
-        <v>3.4</v>
-      </c>
-      <c r="W99">
-        <v>1.3</v>
-      </c>
-      <c r="X99">
-        <v>10</v>
-      </c>
-      <c r="Y99">
-        <v>1.06</v>
-      </c>
-      <c r="Z99">
-        <v>4.13</v>
-      </c>
-      <c r="AA99">
-        <v>3.31</v>
-      </c>
-      <c r="AB99">
-        <v>1.94</v>
-      </c>
-      <c r="AC99">
-        <v>1.06</v>
-      </c>
-      <c r="AD99">
-        <v>7.5</v>
-      </c>
-      <c r="AE99">
-        <v>1.4</v>
-      </c>
-      <c r="AF99">
-        <v>2.75</v>
-      </c>
-      <c r="AG99">
-        <v>2.35</v>
-      </c>
-      <c r="AH99">
-        <v>1.57</v>
-      </c>
-      <c r="AI99">
-        <v>2.1</v>
-      </c>
-      <c r="AJ99">
-        <v>1.67</v>
-      </c>
-      <c r="AK99">
-        <v>1.83</v>
-      </c>
-      <c r="AL99">
-        <v>1.31</v>
-      </c>
-      <c r="AM99">
-        <v>1.23</v>
-      </c>
-      <c r="AN99">
-        <v>2.17</v>
-      </c>
-      <c r="AO99">
-        <v>1</v>
-      </c>
-      <c r="AP99">
-        <v>1.86</v>
-      </c>
-      <c r="AQ99">
-        <v>1.5</v>
-      </c>
-      <c r="AR99">
-        <v>1.47</v>
-      </c>
-      <c r="AS99">
-        <v>1.89</v>
-      </c>
-      <c r="AT99">
-        <v>3.36</v>
-      </c>
-      <c r="AU99">
-        <v>4</v>
-      </c>
-      <c r="AV99">
-        <v>2</v>
-      </c>
-      <c r="AW99">
-        <v>15</v>
-      </c>
-      <c r="AX99">
-        <v>3</v>
-      </c>
-      <c r="AY99">
-        <v>19</v>
-      </c>
-      <c r="AZ99">
-        <v>5</v>
-      </c>
-      <c r="BA99">
-        <v>3</v>
-      </c>
-      <c r="BB99">
-        <v>1</v>
-      </c>
-      <c r="BC99">
-        <v>4</v>
-      </c>
-      <c r="BD99">
-        <v>2.65</v>
-      </c>
-      <c r="BE99">
-        <v>6.5</v>
-      </c>
-      <c r="BF99">
-        <v>1.58</v>
-      </c>
-      <c r="BG99">
-        <v>1.47</v>
-      </c>
-      <c r="BH99">
-        <v>2.38</v>
-      </c>
-      <c r="BI99">
-        <v>1.81</v>
-      </c>
-      <c r="BJ99">
-        <v>1.83</v>
-      </c>
-      <c r="BK99">
-        <v>2.3</v>
-      </c>
-      <c r="BL99">
-        <v>1.5</v>
-      </c>
-      <c r="BM99">
-        <v>3</v>
-      </c>
-      <c r="BN99">
-        <v>1.3</v>
-      </c>
-      <c r="BO99">
-        <v>4</v>
-      </c>
-      <c r="BP99">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:68">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>7818905</v>
-      </c>
-      <c r="C100" t="s">
-        <v>68</v>
-      </c>
-      <c r="D100" t="s">
-        <v>69</v>
-      </c>
-      <c r="E100" s="2">
-        <v>45810.79166666666</v>
-      </c>
-      <c r="F100">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>83</v>
-      </c>
-      <c r="H100" t="s">
-        <v>70</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100">
-        <v>2</v>
-      </c>
-      <c r="M100">
-        <v>1</v>
-      </c>
-      <c r="N100">
-        <v>3</v>
-      </c>
-      <c r="O100" t="s">
-        <v>159</v>
-      </c>
-      <c r="P100" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q100">
-        <v>2.32</v>
-      </c>
-      <c r="R100">
-        <v>2.23</v>
-      </c>
-      <c r="S100">
-        <v>4.45</v>
-      </c>
-      <c r="T100">
-        <v>1.32</v>
-      </c>
-      <c r="U100">
-        <v>3.1</v>
-      </c>
-      <c r="V100">
-        <v>2.53</v>
-      </c>
-      <c r="W100">
-        <v>1.46</v>
-      </c>
-      <c r="X100">
-        <v>5.95</v>
-      </c>
-      <c r="Y100">
-        <v>1.07</v>
-      </c>
-      <c r="Z100">
-        <v>1.82</v>
-      </c>
-      <c r="AA100">
-        <v>3.72</v>
-      </c>
-      <c r="AB100">
-        <v>4.05</v>
-      </c>
-      <c r="AC100">
-        <v>1.02</v>
-      </c>
-      <c r="AD100">
-        <v>10</v>
-      </c>
-      <c r="AE100">
-        <v>1.19</v>
-      </c>
-      <c r="AF100">
-        <v>3.8</v>
-      </c>
-      <c r="AG100">
-        <v>1.75</v>
-      </c>
-      <c r="AH100">
-        <v>2.04</v>
-      </c>
-      <c r="AI100">
-        <v>1.65</v>
-      </c>
-      <c r="AJ100">
-        <v>2.11</v>
-      </c>
-      <c r="AK100">
-        <v>1.23</v>
-      </c>
-      <c r="AL100">
-        <v>1.26</v>
-      </c>
-      <c r="AM100">
-        <v>1.95</v>
-      </c>
-      <c r="AN100">
-        <v>1.83</v>
-      </c>
-      <c r="AO100">
-        <v>0.33</v>
-      </c>
-      <c r="AP100">
-        <v>2</v>
-      </c>
-      <c r="AQ100">
-        <v>0.29</v>
-      </c>
-      <c r="AR100">
-        <v>1.73</v>
-      </c>
-      <c r="AS100">
-        <v>1.31</v>
-      </c>
-      <c r="AT100">
-        <v>3.04</v>
-      </c>
-      <c r="AU100">
-        <v>9</v>
-      </c>
-      <c r="AV100">
-        <v>9</v>
-      </c>
-      <c r="AW100">
-        <v>13</v>
-      </c>
-      <c r="AX100">
-        <v>7</v>
-      </c>
-      <c r="AY100">
-        <v>22</v>
-      </c>
-      <c r="AZ100">
-        <v>16</v>
-      </c>
-      <c r="BA100">
-        <v>7</v>
-      </c>
-      <c r="BB100">
-        <v>5</v>
-      </c>
-      <c r="BC100">
-        <v>12</v>
-      </c>
-      <c r="BD100">
-        <v>1.71</v>
-      </c>
-      <c r="BE100">
-        <v>6.4</v>
-      </c>
-      <c r="BF100">
-        <v>2.4</v>
-      </c>
-      <c r="BG100">
-        <v>1.32</v>
-      </c>
-      <c r="BH100">
-        <v>2.95</v>
-      </c>
-      <c r="BI100">
-        <v>1.54</v>
-      </c>
-      <c r="BJ100">
-        <v>2.23</v>
-      </c>
-      <c r="BK100">
-        <v>1.88</v>
-      </c>
-      <c r="BL100">
-        <v>1.77</v>
-      </c>
-      <c r="BM100">
-        <v>2.38</v>
-      </c>
-      <c r="BN100">
-        <v>1.47</v>
-      </c>
-      <c r="BO100">
-        <v>3.05</v>
-      </c>
-      <c r="BP100">
-        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Chile Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,24 @@
     <t>['30', '62', '85', '90+4']</t>
   </si>
   <si>
+    <t>['16', '9007']</t>
+  </si>
+  <si>
+    <t>['6', '24', '42', '75', '77', '82']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['4505', '77']</t>
+  </si>
+  <si>
+    <t>['62', '9001']</t>
+  </si>
+  <si>
     <t>['3', '84', '90+7']</t>
   </si>
   <si>
@@ -599,6 +617,15 @@
   </si>
   <si>
     <t>['9', '39', '54']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['13', '37', '77', '90']</t>
+  </si>
+  <si>
+    <t>['4503']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1246,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1300,7 +1327,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ2">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1503,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1918,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2043,7 +2070,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2121,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2249,7 +2276,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2455,7 +2482,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2536,7 +2563,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2739,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -2867,7 +2894,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2948,7 +2975,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ10">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3073,7 +3100,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3151,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3360,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3566,7 +3593,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3769,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.67</v>
@@ -3897,7 +3924,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3975,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.57</v>
@@ -4309,7 +4336,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>1.91</v>
@@ -4390,7 +4417,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4515,7 +4542,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>3.5</v>
@@ -4596,7 +4623,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ18">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.84</v>
@@ -4799,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.5</v>
@@ -5008,7 +5035,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR20">
         <v>1.33</v>
@@ -5133,7 +5160,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>2.4</v>
@@ -5211,10 +5238,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR21">
         <v>1.92</v>
@@ -5339,7 +5366,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5420,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5545,7 +5572,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5623,10 +5650,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.43</v>
@@ -5751,7 +5778,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>5.2</v>
@@ -5829,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>0.8</v>
@@ -5957,7 +5984,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6035,10 +6062,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR25">
         <v>1.33</v>
@@ -6241,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26">
         <v>0.71</v>
@@ -6369,7 +6396,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6450,7 +6477,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>2.18</v>
@@ -6575,7 +6602,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6781,7 +6808,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>2.3</v>
@@ -6862,7 +6889,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ29">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR29">
         <v>1.73</v>
@@ -6987,7 +7014,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>2.32</v>
@@ -7811,7 +7838,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>3.4</v>
@@ -8098,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>2.29</v>
@@ -8301,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0.83</v>
@@ -8507,10 +8534,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.78</v>
@@ -8713,10 +8740,10 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR38">
         <v>2</v>
@@ -8841,7 +8868,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9047,7 +9074,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>2.16</v>
@@ -9459,7 +9486,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9537,10 +9564,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR42">
         <v>1.33</v>
@@ -9746,7 +9773,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR43">
         <v>1.91</v>
@@ -9871,7 +9898,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2.29</v>
@@ -9952,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR44">
         <v>2.49</v>
@@ -10155,7 +10182,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.57</v>
@@ -10283,7 +10310,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>2.71</v>
@@ -10364,7 +10391,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>2.2</v>
@@ -10567,7 +10594,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -10901,7 +10928,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -10979,10 +11006,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11188,7 +11215,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.54</v>
@@ -11313,7 +11340,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11391,7 +11418,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11597,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>0.83</v>
@@ -11803,10 +11830,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.48</v>
@@ -12012,7 +12039,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ54">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR54">
         <v>1.28</v>
@@ -12549,7 +12576,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12627,7 +12654,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.33</v>
@@ -12755,7 +12782,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12836,7 +12863,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -12961,7 +12988,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13454,7 +13481,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.9</v>
@@ -13657,10 +13684,10 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR62">
         <v>1.63</v>
@@ -14197,7 +14224,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14275,10 +14302,10 @@
         <v>0.25</v>
       </c>
       <c r="AP65">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR65">
         <v>1.71</v>
@@ -14484,7 +14511,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ66">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR66">
         <v>2.18</v>
@@ -14609,7 +14636,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14690,7 +14717,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR67">
         <v>2.15</v>
@@ -14815,7 +14842,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14893,7 +14920,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>0.8</v>
@@ -15021,7 +15048,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15099,7 +15126,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15308,7 +15335,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.55</v>
@@ -15511,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -15639,7 +15666,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15926,7 +15953,7 @@
         <v>3</v>
       </c>
       <c r="AQ73">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR73">
         <v>2.35</v>
@@ -16132,7 +16159,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR74">
         <v>1.93</v>
@@ -16463,7 +16490,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -16669,7 +16696,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16953,10 +16980,10 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ78">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.51</v>
@@ -17081,7 +17108,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17159,10 +17186,10 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR79">
         <v>1.73</v>
@@ -17368,7 +17395,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR80">
         <v>2.04</v>
@@ -17493,7 +17520,7 @@
         <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q81">
         <v>4.7</v>
@@ -17905,7 +17932,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -17983,7 +18010,7 @@
         <v>0.2</v>
       </c>
       <c r="AP83">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18111,7 +18138,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18192,7 +18219,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ84">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR84">
         <v>1.95</v>
@@ -18317,7 +18344,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18395,10 +18422,10 @@
         <v>0.4</v>
       </c>
       <c r="AP85">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR85">
         <v>1.47</v>
@@ -18729,7 +18756,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>2.54</v>
@@ -19347,7 +19374,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q90">
         <v>2.88</v>
@@ -19428,7 +19455,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR90">
         <v>1.8</v>
@@ -19553,7 +19580,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19965,7 +19992,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20122,6 +20149,1654 @@
       </c>
       <c r="BP93">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7818910</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45808.5625</v>
+      </c>
+      <c r="F94">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>82</v>
+      </c>
+      <c r="H94" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>86</v>
+      </c>
+      <c r="P94" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q94">
+        <v>2.65</v>
+      </c>
+      <c r="R94">
+        <v>2.1</v>
+      </c>
+      <c r="S94">
+        <v>3.75</v>
+      </c>
+      <c r="T94">
+        <v>1.39</v>
+      </c>
+      <c r="U94">
+        <v>2.75</v>
+      </c>
+      <c r="V94">
+        <v>2.8</v>
+      </c>
+      <c r="W94">
+        <v>1.38</v>
+      </c>
+      <c r="X94">
+        <v>7.25</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>2.05</v>
+      </c>
+      <c r="AA94">
+        <v>3.25</v>
+      </c>
+      <c r="AB94">
+        <v>3.35</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>8</v>
+      </c>
+      <c r="AE94">
+        <v>1.27</v>
+      </c>
+      <c r="AF94">
+        <v>3.15</v>
+      </c>
+      <c r="AG94">
+        <v>1.98</v>
+      </c>
+      <c r="AH94">
+        <v>1.79</v>
+      </c>
+      <c r="AI94">
+        <v>1.78</v>
+      </c>
+      <c r="AJ94">
+        <v>1.9</v>
+      </c>
+      <c r="AK94">
+        <v>1.3</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.7</v>
+      </c>
+      <c r="AN94">
+        <v>2.4</v>
+      </c>
+      <c r="AO94">
+        <v>0.8</v>
+      </c>
+      <c r="AP94">
+        <v>2</v>
+      </c>
+      <c r="AQ94">
+        <v>1.17</v>
+      </c>
+      <c r="AR94">
+        <v>1.4</v>
+      </c>
+      <c r="AS94">
+        <v>1.22</v>
+      </c>
+      <c r="AT94">
+        <v>2.62</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>6</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>9</v>
+      </c>
+      <c r="AZ94">
+        <v>11</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>3</v>
+      </c>
+      <c r="BD94">
+        <v>1.63</v>
+      </c>
+      <c r="BE94">
+        <v>6.4</v>
+      </c>
+      <c r="BF94">
+        <v>2.55</v>
+      </c>
+      <c r="BG94">
+        <v>1.34</v>
+      </c>
+      <c r="BH94">
+        <v>2.8</v>
+      </c>
+      <c r="BI94">
+        <v>1.58</v>
+      </c>
+      <c r="BJ94">
+        <v>2.12</v>
+      </c>
+      <c r="BK94">
+        <v>1.97</v>
+      </c>
+      <c r="BL94">
+        <v>1.68</v>
+      </c>
+      <c r="BM94">
+        <v>2.55</v>
+      </c>
+      <c r="BN94">
+        <v>1.42</v>
+      </c>
+      <c r="BO94">
+        <v>3.3</v>
+      </c>
+      <c r="BP94">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7818906</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45808.5625</v>
+      </c>
+      <c r="F95">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+      <c r="N95">
+        <v>6</v>
+      </c>
+      <c r="O95" t="s">
+        <v>155</v>
+      </c>
+      <c r="P95" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q95">
+        <v>4</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>3</v>
+      </c>
+      <c r="T95">
+        <v>1.5</v>
+      </c>
+      <c r="U95">
+        <v>2.55</v>
+      </c>
+      <c r="V95">
+        <v>3.34</v>
+      </c>
+      <c r="W95">
+        <v>1.28</v>
+      </c>
+      <c r="X95">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y95">
+        <v>1.01</v>
+      </c>
+      <c r="Z95">
+        <v>3.27</v>
+      </c>
+      <c r="AA95">
+        <v>3.25</v>
+      </c>
+      <c r="AB95">
+        <v>2.24</v>
+      </c>
+      <c r="AC95">
+        <v>1.06</v>
+      </c>
+      <c r="AD95">
+        <v>7.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.4</v>
+      </c>
+      <c r="AF95">
+        <v>2.75</v>
+      </c>
+      <c r="AG95">
+        <v>2.35</v>
+      </c>
+      <c r="AH95">
+        <v>1.57</v>
+      </c>
+      <c r="AI95">
+        <v>2</v>
+      </c>
+      <c r="AJ95">
+        <v>1.73</v>
+      </c>
+      <c r="AK95">
+        <v>1.65</v>
+      </c>
+      <c r="AL95">
+        <v>1.33</v>
+      </c>
+      <c r="AM95">
+        <v>1.31</v>
+      </c>
+      <c r="AN95">
+        <v>2.4</v>
+      </c>
+      <c r="AO95">
+        <v>1.83</v>
+      </c>
+      <c r="AP95">
+        <v>2</v>
+      </c>
+      <c r="AQ95">
+        <v>2</v>
+      </c>
+      <c r="AR95">
+        <v>1.68</v>
+      </c>
+      <c r="AS95">
+        <v>1.39</v>
+      </c>
+      <c r="AT95">
+        <v>3.07</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>8</v>
+      </c>
+      <c r="AW95">
+        <v>3</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>7</v>
+      </c>
+      <c r="AZ95">
+        <v>14</v>
+      </c>
+      <c r="BA95">
+        <v>5</v>
+      </c>
+      <c r="BB95">
+        <v>6</v>
+      </c>
+      <c r="BC95">
+        <v>11</v>
+      </c>
+      <c r="BD95">
+        <v>2.23</v>
+      </c>
+      <c r="BE95">
+        <v>6.4</v>
+      </c>
+      <c r="BF95">
+        <v>1.79</v>
+      </c>
+      <c r="BG95">
+        <v>1.34</v>
+      </c>
+      <c r="BH95">
+        <v>2.85</v>
+      </c>
+      <c r="BI95">
+        <v>1.6</v>
+      </c>
+      <c r="BJ95">
+        <v>2.12</v>
+      </c>
+      <c r="BK95">
+        <v>1.97</v>
+      </c>
+      <c r="BL95">
+        <v>1.7</v>
+      </c>
+      <c r="BM95">
+        <v>2.5</v>
+      </c>
+      <c r="BN95">
+        <v>1.42</v>
+      </c>
+      <c r="BO95">
+        <v>3.3</v>
+      </c>
+      <c r="BP95">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7818909</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45808.66666666666</v>
+      </c>
+      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>6</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>6</v>
+      </c>
+      <c r="O96" t="s">
+        <v>156</v>
+      </c>
+      <c r="P96" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q96">
+        <v>2.05</v>
+      </c>
+      <c r="R96">
+        <v>2.4</v>
+      </c>
+      <c r="S96">
+        <v>6</v>
+      </c>
+      <c r="T96">
+        <v>1.33</v>
+      </c>
+      <c r="U96">
+        <v>3.25</v>
+      </c>
+      <c r="V96">
+        <v>2.5</v>
+      </c>
+      <c r="W96">
+        <v>1.5</v>
+      </c>
+      <c r="X96">
+        <v>6.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.11</v>
+      </c>
+      <c r="Z96">
+        <v>1.51</v>
+      </c>
+      <c r="AA96">
+        <v>4.28</v>
+      </c>
+      <c r="AB96">
+        <v>5.86</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>11</v>
+      </c>
+      <c r="AE96">
+        <v>1.2</v>
+      </c>
+      <c r="AF96">
+        <v>4</v>
+      </c>
+      <c r="AG96">
+        <v>1.73</v>
+      </c>
+      <c r="AH96">
+        <v>2.08</v>
+      </c>
+      <c r="AI96">
+        <v>1.83</v>
+      </c>
+      <c r="AJ96">
+        <v>1.83</v>
+      </c>
+      <c r="AK96">
+        <v>1.12</v>
+      </c>
+      <c r="AL96">
+        <v>1.21</v>
+      </c>
+      <c r="AM96">
+        <v>2.49</v>
+      </c>
+      <c r="AN96">
+        <v>3</v>
+      </c>
+      <c r="AO96">
+        <v>1.33</v>
+      </c>
+      <c r="AP96">
+        <v>3</v>
+      </c>
+      <c r="AQ96">
+        <v>1.14</v>
+      </c>
+      <c r="AR96">
+        <v>2.13</v>
+      </c>
+      <c r="AS96">
+        <v>1.65</v>
+      </c>
+      <c r="AT96">
+        <v>3.78</v>
+      </c>
+      <c r="AU96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>8</v>
+      </c>
+      <c r="AX96">
+        <v>6</v>
+      </c>
+      <c r="AY96">
+        <v>16</v>
+      </c>
+      <c r="AZ96">
+        <v>10</v>
+      </c>
+      <c r="BA96">
+        <v>3</v>
+      </c>
+      <c r="BB96">
+        <v>4</v>
+      </c>
+      <c r="BC96">
+        <v>7</v>
+      </c>
+      <c r="BD96">
+        <v>1.36</v>
+      </c>
+      <c r="BE96">
+        <v>7.5</v>
+      </c>
+      <c r="BF96">
+        <v>3.4</v>
+      </c>
+      <c r="BG96">
+        <v>1.27</v>
+      </c>
+      <c r="BH96">
+        <v>3.15</v>
+      </c>
+      <c r="BI96">
+        <v>1.47</v>
+      </c>
+      <c r="BJ96">
+        <v>2.4</v>
+      </c>
+      <c r="BK96">
+        <v>1.77</v>
+      </c>
+      <c r="BL96">
+        <v>1.88</v>
+      </c>
+      <c r="BM96">
+        <v>2.2</v>
+      </c>
+      <c r="BN96">
+        <v>1.55</v>
+      </c>
+      <c r="BO96">
+        <v>2.8</v>
+      </c>
+      <c r="BP96">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7818908</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45808.875</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H97" t="s">
+        <v>78</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>157</v>
+      </c>
+      <c r="P97" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q97">
+        <v>3.1</v>
+      </c>
+      <c r="R97">
+        <v>2.2</v>
+      </c>
+      <c r="S97">
+        <v>3.4</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>2.75</v>
+      </c>
+      <c r="W97">
+        <v>1.4</v>
+      </c>
+      <c r="X97">
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>2.41</v>
+      </c>
+      <c r="AA97">
+        <v>3.34</v>
+      </c>
+      <c r="AB97">
+        <v>2.9</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>9</v>
+      </c>
+      <c r="AE97">
+        <v>1.25</v>
+      </c>
+      <c r="AF97">
+        <v>3.6</v>
+      </c>
+      <c r="AG97">
+        <v>1.95</v>
+      </c>
+      <c r="AH97">
+        <v>1.85</v>
+      </c>
+      <c r="AI97">
+        <v>1.73</v>
+      </c>
+      <c r="AJ97">
+        <v>2</v>
+      </c>
+      <c r="AK97">
+        <v>1.39</v>
+      </c>
+      <c r="AL97">
+        <v>1.33</v>
+      </c>
+      <c r="AM97">
+        <v>1.53</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>1.2</v>
+      </c>
+      <c r="AP97">
+        <v>1</v>
+      </c>
+      <c r="AQ97">
+        <v>1.17</v>
+      </c>
+      <c r="AR97">
+        <v>1.81</v>
+      </c>
+      <c r="AS97">
+        <v>1.21</v>
+      </c>
+      <c r="AT97">
+        <v>3.02</v>
+      </c>
+      <c r="AU97">
+        <v>4</v>
+      </c>
+      <c r="AV97">
+        <v>5</v>
+      </c>
+      <c r="AW97">
+        <v>9</v>
+      </c>
+      <c r="AX97">
+        <v>3</v>
+      </c>
+      <c r="AY97">
+        <v>13</v>
+      </c>
+      <c r="AZ97">
+        <v>8</v>
+      </c>
+      <c r="BA97">
+        <v>4</v>
+      </c>
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
+        <v>7</v>
+      </c>
+      <c r="BD97">
+        <v>1.8</v>
+      </c>
+      <c r="BE97">
+        <v>6.75</v>
+      </c>
+      <c r="BF97">
+        <v>2.18</v>
+      </c>
+      <c r="BG97">
+        <v>1.22</v>
+      </c>
+      <c r="BH97">
+        <v>3.6</v>
+      </c>
+      <c r="BI97">
+        <v>1.4</v>
+      </c>
+      <c r="BJ97">
+        <v>2.63</v>
+      </c>
+      <c r="BK97">
+        <v>1.65</v>
+      </c>
+      <c r="BL97">
+        <v>2.02</v>
+      </c>
+      <c r="BM97">
+        <v>2.04</v>
+      </c>
+      <c r="BN97">
+        <v>1.64</v>
+      </c>
+      <c r="BO97">
+        <v>2.55</v>
+      </c>
+      <c r="BP97">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7818904</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>158</v>
+      </c>
+      <c r="P98" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q98">
+        <v>3</v>
+      </c>
+      <c r="R98">
+        <v>2.2</v>
+      </c>
+      <c r="S98">
+        <v>3.5</v>
+      </c>
+      <c r="T98">
+        <v>1.36</v>
+      </c>
+      <c r="U98">
+        <v>3</v>
+      </c>
+      <c r="V98">
+        <v>2.75</v>
+      </c>
+      <c r="W98">
+        <v>1.4</v>
+      </c>
+      <c r="X98">
+        <v>7</v>
+      </c>
+      <c r="Y98">
+        <v>1.1</v>
+      </c>
+      <c r="Z98">
+        <v>2.39</v>
+      </c>
+      <c r="AA98">
+        <v>3.32</v>
+      </c>
+      <c r="AB98">
+        <v>2.95</v>
+      </c>
+      <c r="AC98">
+        <v>1.03</v>
+      </c>
+      <c r="AD98">
+        <v>9</v>
+      </c>
+      <c r="AE98">
+        <v>1.29</v>
+      </c>
+      <c r="AF98">
+        <v>3.3</v>
+      </c>
+      <c r="AG98">
+        <v>1.96</v>
+      </c>
+      <c r="AH98">
+        <v>1.85</v>
+      </c>
+      <c r="AI98">
+        <v>1.67</v>
+      </c>
+      <c r="AJ98">
+        <v>2.1</v>
+      </c>
+      <c r="AK98">
+        <v>1.39</v>
+      </c>
+      <c r="AL98">
+        <v>1.3</v>
+      </c>
+      <c r="AM98">
+        <v>1.57</v>
+      </c>
+      <c r="AN98">
+        <v>1.8</v>
+      </c>
+      <c r="AO98">
+        <v>0.83</v>
+      </c>
+      <c r="AP98">
+        <v>1.67</v>
+      </c>
+      <c r="AQ98">
+        <v>0.86</v>
+      </c>
+      <c r="AR98">
+        <v>1.8</v>
+      </c>
+      <c r="AS98">
+        <v>1.22</v>
+      </c>
+      <c r="AT98">
+        <v>3.02</v>
+      </c>
+      <c r="AU98">
+        <v>5</v>
+      </c>
+      <c r="AV98">
+        <v>8</v>
+      </c>
+      <c r="AW98">
+        <v>2</v>
+      </c>
+      <c r="AX98">
+        <v>4</v>
+      </c>
+      <c r="AY98">
+        <v>7</v>
+      </c>
+      <c r="AZ98">
+        <v>12</v>
+      </c>
+      <c r="BA98">
+        <v>1</v>
+      </c>
+      <c r="BB98">
+        <v>8</v>
+      </c>
+      <c r="BC98">
+        <v>9</v>
+      </c>
+      <c r="BD98">
+        <v>1.94</v>
+      </c>
+      <c r="BE98">
+        <v>6.4</v>
+      </c>
+      <c r="BF98">
+        <v>2.07</v>
+      </c>
+      <c r="BG98">
+        <v>1.43</v>
+      </c>
+      <c r="BH98">
+        <v>2.5</v>
+      </c>
+      <c r="BI98">
+        <v>1.72</v>
+      </c>
+      <c r="BJ98">
+        <v>1.93</v>
+      </c>
+      <c r="BK98">
+        <v>2.18</v>
+      </c>
+      <c r="BL98">
+        <v>1.56</v>
+      </c>
+      <c r="BM98">
+        <v>2.88</v>
+      </c>
+      <c r="BN98">
+        <v>1.33</v>
+      </c>
+      <c r="BO98">
+        <v>3.85</v>
+      </c>
+      <c r="BP98">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7818903</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>84</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>86</v>
+      </c>
+      <c r="P99" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q99">
+        <v>4.75</v>
+      </c>
+      <c r="R99">
+        <v>2.05</v>
+      </c>
+      <c r="S99">
+        <v>2.63</v>
+      </c>
+      <c r="T99">
+        <v>1.5</v>
+      </c>
+      <c r="U99">
+        <v>2.5</v>
+      </c>
+      <c r="V99">
+        <v>3.4</v>
+      </c>
+      <c r="W99">
+        <v>1.3</v>
+      </c>
+      <c r="X99">
+        <v>10</v>
+      </c>
+      <c r="Y99">
+        <v>1.06</v>
+      </c>
+      <c r="Z99">
+        <v>4.13</v>
+      </c>
+      <c r="AA99">
+        <v>3.31</v>
+      </c>
+      <c r="AB99">
+        <v>1.94</v>
+      </c>
+      <c r="AC99">
+        <v>1.06</v>
+      </c>
+      <c r="AD99">
+        <v>7.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.4</v>
+      </c>
+      <c r="AF99">
+        <v>2.75</v>
+      </c>
+      <c r="AG99">
+        <v>2.35</v>
+      </c>
+      <c r="AH99">
+        <v>1.57</v>
+      </c>
+      <c r="AI99">
+        <v>2.1</v>
+      </c>
+      <c r="AJ99">
+        <v>1.67</v>
+      </c>
+      <c r="AK99">
+        <v>1.83</v>
+      </c>
+      <c r="AL99">
+        <v>1.31</v>
+      </c>
+      <c r="AM99">
+        <v>1.23</v>
+      </c>
+      <c r="AN99">
+        <v>2.17</v>
+      </c>
+      <c r="AO99">
+        <v>1</v>
+      </c>
+      <c r="AP99">
+        <v>1.86</v>
+      </c>
+      <c r="AQ99">
+        <v>1.5</v>
+      </c>
+      <c r="AR99">
+        <v>1.47</v>
+      </c>
+      <c r="AS99">
+        <v>1.89</v>
+      </c>
+      <c r="AT99">
+        <v>3.36</v>
+      </c>
+      <c r="AU99">
+        <v>3</v>
+      </c>
+      <c r="AV99">
+        <v>2</v>
+      </c>
+      <c r="AW99">
+        <v>12</v>
+      </c>
+      <c r="AX99">
+        <v>1</v>
+      </c>
+      <c r="AY99">
+        <v>15</v>
+      </c>
+      <c r="AZ99">
+        <v>3</v>
+      </c>
+      <c r="BA99">
+        <v>3</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
+      </c>
+      <c r="BC99">
+        <v>4</v>
+      </c>
+      <c r="BD99">
+        <v>2.65</v>
+      </c>
+      <c r="BE99">
+        <v>6.5</v>
+      </c>
+      <c r="BF99">
+        <v>1.58</v>
+      </c>
+      <c r="BG99">
+        <v>1.47</v>
+      </c>
+      <c r="BH99">
+        <v>2.38</v>
+      </c>
+      <c r="BI99">
+        <v>1.81</v>
+      </c>
+      <c r="BJ99">
+        <v>1.83</v>
+      </c>
+      <c r="BK99">
+        <v>2.3</v>
+      </c>
+      <c r="BL99">
+        <v>1.5</v>
+      </c>
+      <c r="BM99">
+        <v>3</v>
+      </c>
+      <c r="BN99">
+        <v>1.3</v>
+      </c>
+      <c r="BO99">
+        <v>4</v>
+      </c>
+      <c r="BP99">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7818905</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45810.79166666666</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>83</v>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>159</v>
+      </c>
+      <c r="P100" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q100">
+        <v>2.32</v>
+      </c>
+      <c r="R100">
+        <v>2.23</v>
+      </c>
+      <c r="S100">
+        <v>4.45</v>
+      </c>
+      <c r="T100">
+        <v>1.32</v>
+      </c>
+      <c r="U100">
+        <v>3.1</v>
+      </c>
+      <c r="V100">
+        <v>2.53</v>
+      </c>
+      <c r="W100">
+        <v>1.46</v>
+      </c>
+      <c r="X100">
+        <v>5.95</v>
+      </c>
+      <c r="Y100">
+        <v>1.07</v>
+      </c>
+      <c r="Z100">
+        <v>1.82</v>
+      </c>
+      <c r="AA100">
+        <v>3.72</v>
+      </c>
+      <c r="AB100">
+        <v>4.05</v>
+      </c>
+      <c r="AC100">
+        <v>1.02</v>
+      </c>
+      <c r="AD100">
+        <v>10</v>
+      </c>
+      <c r="AE100">
+        <v>1.19</v>
+      </c>
+      <c r="AF100">
+        <v>3.8</v>
+      </c>
+      <c r="AG100">
+        <v>1.75</v>
+      </c>
+      <c r="AH100">
+        <v>2.04</v>
+      </c>
+      <c r="AI100">
+        <v>1.65</v>
+      </c>
+      <c r="AJ100">
+        <v>2.11</v>
+      </c>
+      <c r="AK100">
+        <v>1.23</v>
+      </c>
+      <c r="AL100">
+        <v>1.26</v>
+      </c>
+      <c r="AM100">
+        <v>1.95</v>
+      </c>
+      <c r="AN100">
+        <v>1.83</v>
+      </c>
+      <c r="AO100">
+        <v>0.33</v>
+      </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
+        <v>0.29</v>
+      </c>
+      <c r="AR100">
+        <v>1.73</v>
+      </c>
+      <c r="AS100">
+        <v>1.31</v>
+      </c>
+      <c r="AT100">
+        <v>3.04</v>
+      </c>
+      <c r="AU100">
+        <v>9</v>
+      </c>
+      <c r="AV100">
+        <v>8</v>
+      </c>
+      <c r="AW100">
+        <v>9</v>
+      </c>
+      <c r="AX100">
+        <v>2</v>
+      </c>
+      <c r="AY100">
+        <v>18</v>
+      </c>
+      <c r="AZ100">
+        <v>10</v>
+      </c>
+      <c r="BA100">
+        <v>7</v>
+      </c>
+      <c r="BB100">
+        <v>5</v>
+      </c>
+      <c r="BC100">
+        <v>12</v>
+      </c>
+      <c r="BD100">
+        <v>1.71</v>
+      </c>
+      <c r="BE100">
+        <v>6.4</v>
+      </c>
+      <c r="BF100">
+        <v>2.4</v>
+      </c>
+      <c r="BG100">
+        <v>1.32</v>
+      </c>
+      <c r="BH100">
+        <v>2.95</v>
+      </c>
+      <c r="BI100">
+        <v>1.54</v>
+      </c>
+      <c r="BJ100">
+        <v>2.23</v>
+      </c>
+      <c r="BK100">
+        <v>1.88</v>
+      </c>
+      <c r="BL100">
+        <v>1.77</v>
+      </c>
+      <c r="BM100">
+        <v>2.38</v>
+      </c>
+      <c r="BN100">
+        <v>1.47</v>
+      </c>
+      <c r="BO100">
+        <v>3.05</v>
+      </c>
+      <c r="BP100">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7818907</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45811.66666666666</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>160</v>
+      </c>
+      <c r="P101" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q101">
+        <v>2.75</v>
+      </c>
+      <c r="R101">
+        <v>2.38</v>
+      </c>
+      <c r="S101">
+        <v>3.4</v>
+      </c>
+      <c r="T101">
+        <v>1.3</v>
+      </c>
+      <c r="U101">
+        <v>3.4</v>
+      </c>
+      <c r="V101">
+        <v>2.38</v>
+      </c>
+      <c r="W101">
+        <v>1.53</v>
+      </c>
+      <c r="X101">
+        <v>6</v>
+      </c>
+      <c r="Y101">
+        <v>1.13</v>
+      </c>
+      <c r="Z101">
+        <v>2.16</v>
+      </c>
+      <c r="AA101">
+        <v>3.75</v>
+      </c>
+      <c r="AB101">
+        <v>3.03</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>11</v>
+      </c>
+      <c r="AE101">
+        <v>1.14</v>
+      </c>
+      <c r="AF101">
+        <v>4.45</v>
+      </c>
+      <c r="AG101">
+        <v>1.65</v>
+      </c>
+      <c r="AH101">
+        <v>2.2</v>
+      </c>
+      <c r="AI101">
+        <v>1.53</v>
+      </c>
+      <c r="AJ101">
+        <v>2.38</v>
+      </c>
+      <c r="AK101">
+        <v>1.36</v>
+      </c>
+      <c r="AL101">
+        <v>1.3</v>
+      </c>
+      <c r="AM101">
+        <v>1.62</v>
+      </c>
+      <c r="AN101">
+        <v>0.6</v>
+      </c>
+      <c r="AO101">
+        <v>0.2</v>
+      </c>
+      <c r="AP101">
+        <v>1</v>
+      </c>
+      <c r="AQ101">
+        <v>0.17</v>
+      </c>
+      <c r="AR101">
+        <v>1.56</v>
+      </c>
+      <c r="AS101">
+        <v>1.66</v>
+      </c>
+      <c r="AT101">
+        <v>3.22</v>
+      </c>
+      <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>14</v>
+      </c>
+      <c r="AX101">
+        <v>9</v>
+      </c>
+      <c r="AY101">
+        <v>19</v>
+      </c>
+      <c r="AZ101">
+        <v>13</v>
+      </c>
+      <c r="BA101">
+        <v>10</v>
+      </c>
+      <c r="BB101">
+        <v>3</v>
+      </c>
+      <c r="BC101">
+        <v>13</v>
+      </c>
+      <c r="BD101">
+        <v>1.78</v>
+      </c>
+      <c r="BE101">
+        <v>6.75</v>
+      </c>
+      <c r="BF101">
+        <v>2.23</v>
+      </c>
+      <c r="BG101">
+        <v>1.16</v>
+      </c>
+      <c r="BH101">
+        <v>4.1</v>
+      </c>
+      <c r="BI101">
+        <v>1.32</v>
+      </c>
+      <c r="BJ101">
+        <v>2.95</v>
+      </c>
+      <c r="BK101">
+        <v>1.52</v>
+      </c>
+      <c r="BL101">
+        <v>2.28</v>
+      </c>
+      <c r="BM101">
+        <v>1.82</v>
+      </c>
+      <c r="BN101">
+        <v>1.82</v>
+      </c>
+      <c r="BO101">
+        <v>2.25</v>
+      </c>
+      <c r="BP101">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
